--- a/parar.xlsx
+++ b/parar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ximena\Desktop\IABO\Datos sin filtrar\datos_filtrados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3699516-13CF-4F96-BA37-C2AE38AFF635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1AD5022-59E5-45A9-9728-1F104792492D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0B5A145C-DE6C-4F8F-BA14-BB3708AD9BFB}"/>
   </bookViews>
@@ -33,6 +33,29 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>AX</t>
+  </si>
+  <si>
+    <t>AY</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>GX</t>
+  </si>
+  <si>
+    <t>GY</t>
+  </si>
+  <si>
+    <t>GZ</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -382,32 +405,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37447CED-1571-4C56-82A5-326952E22620}">
-  <dimension ref="A1:F219"/>
+  <dimension ref="A1:F220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>0.31</v>
-      </c>
-      <c r="B1">
-        <v>-0.32</v>
-      </c>
-      <c r="C1">
-        <v>-0.48</v>
-      </c>
-      <c r="D1">
-        <v>-8.06</v>
-      </c>
-      <c r="E1">
-        <v>-29.72</v>
-      </c>
-      <c r="F1">
-        <v>-43.46</v>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -415,1999 +438,1999 @@
         <v>0.31</v>
       </c>
       <c r="B2">
-        <v>-0.47</v>
+        <v>-0.32</v>
       </c>
       <c r="C2">
-        <v>-0.46</v>
+        <v>-0.48</v>
       </c>
       <c r="D2">
-        <v>-33.57</v>
+        <v>-8.06</v>
       </c>
       <c r="E2">
-        <v>-67.38</v>
+        <v>-29.72</v>
       </c>
       <c r="F2">
-        <v>-59.88</v>
+        <v>-43.46</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>0.17</v>
+        <v>0.31</v>
       </c>
       <c r="B3">
-        <v>-0.6</v>
+        <v>-0.47</v>
       </c>
       <c r="C3">
-        <v>-0.35</v>
+        <v>-0.46</v>
       </c>
       <c r="D3">
-        <v>-79.28</v>
+        <v>-33.57</v>
       </c>
       <c r="E3">
-        <v>-99.61</v>
+        <v>-67.38</v>
       </c>
       <c r="F3">
-        <v>-79.53</v>
+        <v>-59.88</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="B4">
-        <v>-0.59</v>
+        <v>-0.6</v>
       </c>
       <c r="C4">
-        <v>-0.14000000000000001</v>
+        <v>-0.35</v>
       </c>
       <c r="D4">
-        <v>-139.28</v>
+        <v>-79.28</v>
       </c>
       <c r="E4">
-        <v>-98.57</v>
+        <v>-99.61</v>
       </c>
       <c r="F4">
-        <v>-76.78</v>
+        <v>-79.53</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>-0.19</v>
+        <v>-0.59</v>
       </c>
       <c r="C5">
-        <v>0.47</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="D5">
-        <v>-204.77</v>
+        <v>-139.28</v>
       </c>
       <c r="E5">
-        <v>-39.31</v>
+        <v>-98.57</v>
       </c>
       <c r="F5">
-        <v>-46.81</v>
+        <v>-76.78</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>7.0000000000000007E-2</v>
+        <v>0.02</v>
       </c>
       <c r="B6">
-        <v>0.19</v>
+        <v>-0.19</v>
       </c>
       <c r="C6">
-        <v>1.34</v>
+        <v>0.47</v>
       </c>
       <c r="D6">
-        <v>-220.58</v>
+        <v>-204.77</v>
       </c>
       <c r="E6">
-        <v>-15.56</v>
+        <v>-39.31</v>
       </c>
       <c r="F6">
-        <v>-41.08</v>
+        <v>-46.81</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>-7.0000000000000007E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="B7">
-        <v>0.53</v>
+        <v>0.19</v>
       </c>
       <c r="C7">
-        <v>2.5099999999999998</v>
+        <v>1.34</v>
       </c>
       <c r="D7">
-        <v>-212.83</v>
+        <v>-220.58</v>
       </c>
       <c r="E7">
-        <v>-16.72</v>
+        <v>-15.56</v>
       </c>
       <c r="F7">
-        <v>-30.52</v>
+        <v>-41.08</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>-0.51</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="B8">
-        <v>0.94</v>
+        <v>0.53</v>
       </c>
       <c r="C8">
-        <v>3.44</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="D8">
-        <v>-182.98</v>
+        <v>-212.83</v>
       </c>
       <c r="E8">
-        <v>-22.46</v>
+        <v>-16.72</v>
       </c>
       <c r="F8">
-        <v>-11.78</v>
+        <v>-30.52</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>-0.95</v>
+        <v>-0.51</v>
       </c>
       <c r="B9">
-        <v>1.33</v>
+        <v>0.94</v>
       </c>
       <c r="C9">
-        <v>3.99</v>
+        <v>3.44</v>
       </c>
       <c r="D9">
-        <v>-64.45</v>
+        <v>-182.98</v>
       </c>
       <c r="E9">
-        <v>-36.19</v>
+        <v>-22.46</v>
       </c>
       <c r="F9">
-        <v>29.91</v>
+        <v>-11.78</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>-1.03</v>
+        <v>-0.95</v>
       </c>
       <c r="B10">
-        <v>0.98</v>
+        <v>1.33</v>
       </c>
       <c r="C10">
-        <v>3.42</v>
+        <v>3.99</v>
       </c>
       <c r="D10">
-        <v>44.8</v>
+        <v>-64.45</v>
       </c>
       <c r="E10">
-        <v>-8.48</v>
+        <v>-36.19</v>
       </c>
       <c r="F10">
-        <v>35.950000000000003</v>
+        <v>29.91</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>-0.48</v>
+        <v>-1.03</v>
       </c>
       <c r="B11">
-        <v>0.4</v>
+        <v>0.98</v>
       </c>
       <c r="C11">
-        <v>2.65</v>
+        <v>3.42</v>
       </c>
       <c r="D11">
-        <v>128.85</v>
+        <v>44.8</v>
       </c>
       <c r="E11">
-        <v>30.7</v>
+        <v>-8.48</v>
       </c>
       <c r="F11">
-        <v>20.260000000000002</v>
+        <v>35.950000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>-0.04</v>
+        <v>-0.48</v>
       </c>
       <c r="B12">
-        <v>0.15</v>
+        <v>0.4</v>
       </c>
       <c r="C12">
-        <v>1.94</v>
+        <v>2.65</v>
       </c>
       <c r="D12">
-        <v>160.71</v>
+        <v>128.85</v>
       </c>
       <c r="E12">
-        <v>60.12</v>
+        <v>30.7</v>
       </c>
       <c r="F12">
-        <v>20.02</v>
+        <v>20.260000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>0.06</v>
+        <v>-0.04</v>
       </c>
       <c r="B13">
-        <v>0.19</v>
+        <v>0.15</v>
       </c>
       <c r="C13">
-        <v>1.35</v>
+        <v>1.94</v>
       </c>
       <c r="D13">
-        <v>165.53</v>
+        <v>160.71</v>
       </c>
       <c r="E13">
-        <v>68.05</v>
+        <v>60.12</v>
       </c>
       <c r="F13">
-        <v>32.29</v>
+        <v>20.02</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>-0.01</v>
+        <v>0.06</v>
       </c>
       <c r="B14">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="C14">
-        <v>0.9</v>
+        <v>1.35</v>
       </c>
       <c r="D14">
-        <v>162.16999999999999</v>
+        <v>165.53</v>
       </c>
       <c r="E14">
-        <v>60.67</v>
+        <v>68.05</v>
       </c>
       <c r="F14">
-        <v>53.77</v>
+        <v>32.29</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>-0.1</v>
+        <v>-0.01</v>
       </c>
       <c r="B15">
-        <v>0.1</v>
+        <v>0.21</v>
       </c>
       <c r="C15">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="D15">
-        <v>156.80000000000001</v>
+        <v>162.16999999999999</v>
       </c>
       <c r="E15">
-        <v>61.4</v>
+        <v>60.67</v>
       </c>
       <c r="F15">
-        <v>54.87</v>
+        <v>53.77</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>-0.17</v>
+        <v>-0.1</v>
       </c>
       <c r="B16">
-        <v>-0.05</v>
+        <v>0.1</v>
       </c>
       <c r="C16">
-        <v>0.18</v>
+        <v>0.5</v>
       </c>
       <c r="D16">
-        <v>145.94</v>
+        <v>156.80000000000001</v>
       </c>
       <c r="E16">
-        <v>70.92</v>
+        <v>61.4</v>
       </c>
       <c r="F16">
-        <v>49.07</v>
+        <v>54.87</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>-0.2</v>
+        <v>-0.17</v>
       </c>
       <c r="B17">
-        <v>-0.18</v>
+        <v>-0.05</v>
       </c>
       <c r="C17">
-        <v>-0.06</v>
+        <v>0.18</v>
       </c>
       <c r="D17">
-        <v>128.6</v>
+        <v>145.94</v>
       </c>
       <c r="E17">
-        <v>88.75</v>
+        <v>70.92</v>
       </c>
       <c r="F17">
-        <v>32.65</v>
+        <v>49.07</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>-0.12</v>
+        <v>-0.2</v>
       </c>
       <c r="B18">
-        <v>-0.24</v>
+        <v>-0.18</v>
       </c>
       <c r="C18">
-        <v>-0.32</v>
+        <v>-0.06</v>
       </c>
       <c r="D18">
-        <v>104.31</v>
+        <v>128.6</v>
       </c>
       <c r="E18">
-        <v>94.54</v>
+        <v>88.75</v>
       </c>
       <c r="F18">
-        <v>12.51</v>
+        <v>32.65</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>0.08</v>
+        <v>-0.12</v>
       </c>
       <c r="B19">
-        <v>-0.28000000000000003</v>
+        <v>-0.24</v>
       </c>
       <c r="C19">
-        <v>-0.53</v>
+        <v>-0.32</v>
       </c>
       <c r="D19">
-        <v>77.03</v>
+        <v>104.31</v>
       </c>
       <c r="E19">
-        <v>86.85</v>
+        <v>94.54</v>
       </c>
       <c r="F19">
-        <v>-2.62</v>
+        <v>12.51</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>0.22</v>
+        <v>0.08</v>
       </c>
       <c r="B20">
-        <v>-0.28999999999999998</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="C20">
-        <v>-0.8</v>
+        <v>-0.53</v>
       </c>
       <c r="D20">
-        <v>25.7</v>
+        <v>77.03</v>
       </c>
       <c r="E20">
-        <v>43.4</v>
+        <v>86.85</v>
       </c>
       <c r="F20">
-        <v>-27.04</v>
+        <v>-2.62</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>0.28999999999999998</v>
+        <v>0.22</v>
       </c>
       <c r="B21">
-        <v>-0.32</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="C21">
-        <v>-0.99</v>
+        <v>-0.8</v>
       </c>
       <c r="D21">
-        <v>-4.88</v>
+        <v>25.7</v>
       </c>
       <c r="E21">
-        <v>2.93</v>
+        <v>43.4</v>
       </c>
       <c r="F21">
-        <v>-27.53</v>
+        <v>-27.04</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>0.38</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="B22">
-        <v>-0.25</v>
+        <v>-0.32</v>
       </c>
       <c r="C22">
         <v>-0.99</v>
       </c>
       <c r="D22">
-        <v>-36.130000000000003</v>
+        <v>-4.88</v>
       </c>
       <c r="E22">
-        <v>-33.08</v>
+        <v>2.93</v>
       </c>
       <c r="F22">
-        <v>-17.149999999999999</v>
+        <v>-27.53</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="B23">
-        <v>-0.33</v>
+        <v>-0.25</v>
       </c>
       <c r="C23">
-        <v>-0.91</v>
+        <v>-0.99</v>
       </c>
       <c r="D23">
-        <v>-64.150000000000006</v>
+        <v>-36.130000000000003</v>
       </c>
       <c r="E23">
-        <v>-83.62</v>
+        <v>-33.08</v>
       </c>
       <c r="F23">
-        <v>-28.2</v>
+        <v>-17.149999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>0.31</v>
+        <v>0.4</v>
       </c>
       <c r="B24">
-        <v>-0.34</v>
+        <v>-0.33</v>
       </c>
       <c r="C24">
-        <v>-0.72</v>
+        <v>-0.91</v>
       </c>
       <c r="D24">
-        <v>-101.87</v>
+        <v>-64.150000000000006</v>
       </c>
       <c r="E24">
-        <v>-124.27</v>
+        <v>-83.62</v>
       </c>
       <c r="F24">
-        <v>-57.13</v>
+        <v>-28.2</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>0.13</v>
+        <v>0.31</v>
       </c>
       <c r="B25">
-        <v>-0.28000000000000003</v>
+        <v>-0.34</v>
       </c>
       <c r="C25">
-        <v>-0.2</v>
+        <v>-0.72</v>
       </c>
       <c r="D25">
-        <v>-167.66</v>
+        <v>-101.87</v>
       </c>
       <c r="E25">
-        <v>-121.58</v>
+        <v>-124.27</v>
       </c>
       <c r="F25">
-        <v>-59.39</v>
+        <v>-57.13</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>-0.01</v>
+        <v>0.13</v>
       </c>
       <c r="B26">
-        <v>-0.05</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="C26">
-        <v>0.38</v>
+        <v>-0.2</v>
       </c>
       <c r="D26">
-        <v>-212.77</v>
+        <v>-167.66</v>
       </c>
       <c r="E26">
-        <v>-85.45</v>
+        <v>-121.58</v>
       </c>
       <c r="F26">
-        <v>-45.1</v>
+        <v>-59.39</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>-7.0000000000000007E-2</v>
+        <v>-0.01</v>
       </c>
       <c r="B27">
-        <v>0.34</v>
+        <v>-0.05</v>
       </c>
       <c r="C27">
-        <v>1.25</v>
+        <v>0.38</v>
       </c>
       <c r="D27">
-        <v>-241.88</v>
+        <v>-212.77</v>
       </c>
       <c r="E27">
-        <v>-25.88</v>
+        <v>-85.45</v>
       </c>
       <c r="F27">
-        <v>-23.25</v>
+        <v>-45.1</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>-0.14000000000000001</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="B28">
-        <v>0.93</v>
+        <v>0.34</v>
       </c>
       <c r="C28">
-        <v>2.4500000000000002</v>
+        <v>1.25</v>
       </c>
       <c r="D28">
-        <v>-242.19</v>
+        <v>-241.88</v>
       </c>
       <c r="E28">
-        <v>-5.13</v>
+        <v>-25.88</v>
       </c>
       <c r="F28">
-        <v>0.06</v>
+        <v>-23.25</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>-0.65</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="B29">
-        <v>1.46</v>
+        <v>0.93</v>
       </c>
       <c r="C29">
-        <v>3.66</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="D29">
-        <v>-217.47</v>
+        <v>-242.19</v>
       </c>
       <c r="E29">
-        <v>-1.83</v>
+        <v>-5.13</v>
       </c>
       <c r="F29">
-        <v>30.15</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>-1.1100000000000001</v>
+        <v>-0.65</v>
       </c>
       <c r="B30">
-        <v>1.77</v>
+        <v>1.46</v>
       </c>
       <c r="C30">
-        <v>4</v>
+        <v>3.66</v>
       </c>
       <c r="D30">
-        <v>-72.14</v>
+        <v>-217.47</v>
       </c>
       <c r="E30">
-        <v>-17.46</v>
+        <v>-1.83</v>
       </c>
       <c r="F30">
-        <v>47.55</v>
+        <v>30.15</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>-0.7</v>
+        <v>-1.1100000000000001</v>
       </c>
       <c r="B31">
-        <v>1.01</v>
+        <v>1.77</v>
       </c>
       <c r="C31">
-        <v>3.49</v>
+        <v>4</v>
       </c>
       <c r="D31">
-        <v>47.42</v>
+        <v>-72.14</v>
       </c>
       <c r="E31">
-        <v>-4.58</v>
+        <v>-17.46</v>
       </c>
       <c r="F31">
-        <v>18.920000000000002</v>
+        <v>47.55</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>-0.08</v>
+        <v>-0.7</v>
       </c>
       <c r="B32">
-        <v>0.3</v>
+        <v>1.01</v>
       </c>
       <c r="C32">
-        <v>2.63</v>
+        <v>3.49</v>
       </c>
       <c r="D32">
-        <v>127.99</v>
+        <v>47.42</v>
       </c>
       <c r="E32">
-        <v>10.19</v>
+        <v>-4.58</v>
       </c>
       <c r="F32">
-        <v>4.58</v>
+        <v>18.920000000000002</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>0.25</v>
+        <v>-0.08</v>
       </c>
       <c r="B33">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="C33">
-        <v>1.93</v>
+        <v>2.63</v>
       </c>
       <c r="D33">
-        <v>152.53</v>
+        <v>127.99</v>
       </c>
       <c r="E33">
-        <v>31.86</v>
+        <v>10.19</v>
       </c>
       <c r="F33">
-        <v>10.56</v>
+        <v>4.58</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="B34">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="C34">
-        <v>1.37</v>
+        <v>1.93</v>
       </c>
       <c r="D34">
-        <v>153.69</v>
+        <v>152.53</v>
       </c>
       <c r="E34">
-        <v>35.159999999999997</v>
+        <v>31.86</v>
       </c>
       <c r="F34">
-        <v>22.71</v>
+        <v>10.56</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>-0.03</v>
+        <v>0.15</v>
       </c>
       <c r="B35">
-        <v>0.21</v>
+        <v>0.1</v>
       </c>
       <c r="C35">
-        <v>0.97</v>
+        <v>1.37</v>
       </c>
       <c r="D35">
-        <v>146.91</v>
+        <v>153.69</v>
       </c>
       <c r="E35">
-        <v>32.590000000000003</v>
+        <v>35.159999999999997</v>
       </c>
       <c r="F35">
-        <v>36.99</v>
+        <v>22.71</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>-0.12</v>
+        <v>-0.03</v>
       </c>
       <c r="B36">
-        <v>0.14000000000000001</v>
+        <v>0.21</v>
       </c>
       <c r="C36">
-        <v>0.63</v>
+        <v>0.97</v>
       </c>
       <c r="D36">
-        <v>143.25</v>
+        <v>146.91</v>
       </c>
       <c r="E36">
-        <v>43.76</v>
+        <v>32.590000000000003</v>
       </c>
       <c r="F36">
-        <v>35.520000000000003</v>
+        <v>36.99</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>-0.14000000000000001</v>
+        <v>-0.12</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C37">
-        <v>0.38</v>
+        <v>0.63</v>
       </c>
       <c r="D37">
-        <v>132.63</v>
+        <v>143.25</v>
       </c>
       <c r="E37">
-        <v>64.510000000000005</v>
+        <v>43.76</v>
       </c>
       <c r="F37">
-        <v>31.86</v>
+        <v>35.520000000000003</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>-0.1</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="B38">
-        <v>-0.06</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>0.19</v>
+        <v>0.38</v>
       </c>
       <c r="D38">
-        <v>109.31</v>
+        <v>132.63</v>
       </c>
       <c r="E38">
-        <v>76.72</v>
+        <v>64.510000000000005</v>
       </c>
       <c r="F38">
-        <v>26.79</v>
+        <v>31.86</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>-0.04</v>
+        <v>-0.1</v>
       </c>
       <c r="B39">
-        <v>-7.0000000000000007E-2</v>
+        <v>-0.06</v>
       </c>
       <c r="C39">
-        <v>0.04</v>
+        <v>0.19</v>
       </c>
       <c r="D39">
-        <v>79.22</v>
+        <v>109.31</v>
       </c>
       <c r="E39">
-        <v>76.48</v>
+        <v>76.72</v>
       </c>
       <c r="F39">
-        <v>15.2</v>
+        <v>26.79</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>0</v>
+        <v>-0.04</v>
       </c>
       <c r="B40">
-        <v>-0.04</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="C40">
-        <v>-0.15</v>
+        <v>0.04</v>
       </c>
       <c r="D40">
-        <v>48.77</v>
+        <v>79.22</v>
       </c>
       <c r="E40">
-        <v>71.41</v>
+        <v>76.48</v>
       </c>
       <c r="F40">
-        <v>1.4</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="B41">
-        <v>-0.01</v>
+        <v>-0.04</v>
       </c>
       <c r="C41">
-        <v>-0.28999999999999998</v>
+        <v>-0.15</v>
       </c>
       <c r="D41">
-        <v>30.4</v>
+        <v>48.77</v>
       </c>
       <c r="E41">
-        <v>64.819999999999993</v>
+        <v>71.41</v>
       </c>
       <c r="F41">
-        <v>-4.7</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="B42">
-        <v>-0.05</v>
+        <v>-0.01</v>
       </c>
       <c r="C42">
-        <v>-0.41</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="D42">
-        <v>12.45</v>
+        <v>30.4</v>
       </c>
       <c r="E42">
-        <v>35.340000000000003</v>
+        <v>64.819999999999993</v>
       </c>
       <c r="F42">
-        <v>-12.76</v>
+        <v>-4.7</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>0.13</v>
+        <v>0.09</v>
       </c>
       <c r="B43">
-        <v>-0.14000000000000001</v>
+        <v>-0.05</v>
       </c>
       <c r="C43">
-        <v>-0.61</v>
+        <v>-0.41</v>
       </c>
       <c r="D43">
-        <v>5.8</v>
+        <v>12.45</v>
       </c>
       <c r="E43">
-        <v>8.1199999999999992</v>
+        <v>35.340000000000003</v>
       </c>
       <c r="F43">
-        <v>-22.83</v>
+        <v>-12.76</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>0.22</v>
+        <v>0.13</v>
       </c>
       <c r="B44">
-        <v>-0.28000000000000003</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="C44">
-        <v>-0.69</v>
+        <v>-0.61</v>
       </c>
       <c r="D44">
-        <v>1.95</v>
+        <v>5.8</v>
       </c>
       <c r="E44">
-        <v>-23.01</v>
+        <v>8.1199999999999992</v>
       </c>
       <c r="F44">
-        <v>-23.5</v>
+        <v>-22.83</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>0.34</v>
+        <v>0.22</v>
       </c>
       <c r="B45">
-        <v>-0.44</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="C45">
         <v>-0.69</v>
       </c>
       <c r="D45">
-        <v>-17.760000000000002</v>
+        <v>1.95</v>
       </c>
       <c r="E45">
-        <v>-68.180000000000007</v>
+        <v>-23.01</v>
       </c>
       <c r="F45">
-        <v>-33.14</v>
+        <v>-23.5</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>0.38</v>
+        <v>0.34</v>
       </c>
       <c r="B46">
-        <v>-0.55000000000000004</v>
+        <v>-0.44</v>
       </c>
       <c r="C46">
-        <v>-0.54</v>
+        <v>-0.69</v>
       </c>
       <c r="D46">
-        <v>-46.94</v>
+        <v>-17.760000000000002</v>
       </c>
       <c r="E46">
-        <v>-118.84</v>
+        <v>-68.180000000000007</v>
       </c>
       <c r="F46">
-        <v>-39.729999999999997</v>
+        <v>-33.14</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>0.28000000000000003</v>
+        <v>0.38</v>
       </c>
       <c r="B47">
-        <v>-0.59</v>
+        <v>-0.55000000000000004</v>
       </c>
       <c r="C47">
-        <v>-0.24</v>
+        <v>-0.54</v>
       </c>
       <c r="D47">
-        <v>-101.38</v>
+        <v>-46.94</v>
       </c>
       <c r="E47">
-        <v>-132.75</v>
+        <v>-118.84</v>
       </c>
       <c r="F47">
-        <v>-50.42</v>
+        <v>-39.729999999999997</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>0.17</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="B48">
-        <v>-0.36</v>
+        <v>-0.59</v>
       </c>
       <c r="C48">
-        <v>0.56999999999999995</v>
+        <v>-0.24</v>
       </c>
       <c r="D48">
-        <v>-180.11</v>
+        <v>-101.38</v>
       </c>
       <c r="E48">
-        <v>-72.94</v>
+        <v>-132.75</v>
       </c>
       <c r="F48">
-        <v>-42.91</v>
+        <v>-50.42</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="B49">
-        <v>0.04</v>
+        <v>-0.36</v>
       </c>
       <c r="C49">
-        <v>1.33</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="D49">
-        <v>-212.52</v>
+        <v>-180.11</v>
       </c>
       <c r="E49">
-        <v>-4.3899999999999997</v>
+        <v>-72.94</v>
       </c>
       <c r="F49">
-        <v>-44.74</v>
+        <v>-42.91</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>-0.03</v>
+        <v>0.11</v>
       </c>
       <c r="B50">
-        <v>0.35</v>
+        <v>0.04</v>
       </c>
       <c r="C50">
-        <v>2.41</v>
+        <v>1.33</v>
       </c>
       <c r="D50">
-        <v>-231.93</v>
+        <v>-212.52</v>
       </c>
       <c r="E50">
-        <v>33.26</v>
+        <v>-4.3899999999999997</v>
       </c>
       <c r="F50">
-        <v>-58.72</v>
+        <v>-44.74</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>-0.17</v>
+        <v>-0.03</v>
       </c>
       <c r="B51">
-        <v>1.1399999999999999</v>
+        <v>0.35</v>
       </c>
       <c r="C51">
-        <v>3.21</v>
+        <v>2.41</v>
       </c>
       <c r="D51">
-        <v>-206.67</v>
+        <v>-231.93</v>
       </c>
       <c r="E51">
-        <v>45.17</v>
+        <v>33.26</v>
       </c>
       <c r="F51">
-        <v>-27.16</v>
+        <v>-58.72</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>-0.5</v>
+        <v>-0.17</v>
       </c>
       <c r="B52">
-        <v>1.79</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="C52">
-        <v>3.88</v>
+        <v>3.21</v>
       </c>
       <c r="D52">
-        <v>-117.37</v>
+        <v>-206.67</v>
       </c>
       <c r="E52">
-        <v>0.12</v>
+        <v>45.17</v>
       </c>
       <c r="F52">
-        <v>42.72</v>
+        <v>-27.16</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>-0.85</v>
+        <v>-0.5</v>
       </c>
       <c r="B53">
-        <v>1.46</v>
+        <v>1.79</v>
       </c>
       <c r="C53">
-        <v>3.61</v>
+        <v>3.88</v>
       </c>
       <c r="D53">
-        <v>-12.02</v>
+        <v>-117.37</v>
       </c>
       <c r="E53">
-        <v>-33.450000000000003</v>
+        <v>0.12</v>
       </c>
       <c r="F53">
-        <v>62.68</v>
+        <v>42.72</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>-0.76</v>
+        <v>-0.85</v>
       </c>
       <c r="B54">
-        <v>0.74</v>
+        <v>1.46</v>
       </c>
       <c r="C54">
-        <v>2.5499999999999998</v>
+        <v>3.61</v>
       </c>
       <c r="D54">
-        <v>118.1</v>
+        <v>-12.02</v>
       </c>
       <c r="E54">
-        <v>-13.79</v>
+        <v>-33.450000000000003</v>
       </c>
       <c r="F54">
-        <v>8</v>
+        <v>62.68</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>-0.05</v>
+        <v>-0.76</v>
       </c>
       <c r="B55">
-        <v>0.15</v>
+        <v>0.74</v>
       </c>
       <c r="C55">
-        <v>1.86</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="D55">
-        <v>145.75</v>
+        <v>118.1</v>
       </c>
       <c r="E55">
-        <v>27.16</v>
+        <v>-13.79</v>
       </c>
       <c r="F55">
-        <v>23.01</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>-0.02</v>
+        <v>-0.05</v>
       </c>
       <c r="B56">
-        <v>0.19</v>
+        <v>0.15</v>
       </c>
       <c r="C56">
-        <v>1.31</v>
+        <v>1.86</v>
       </c>
       <c r="D56">
-        <v>145.13999999999999</v>
+        <v>145.75</v>
       </c>
       <c r="E56">
-        <v>39.49</v>
+        <v>27.16</v>
       </c>
       <c r="F56">
-        <v>28.99</v>
+        <v>23.01</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>-0.13</v>
+        <v>-0.02</v>
       </c>
       <c r="B57">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="C57">
-        <v>0.87</v>
+        <v>1.31</v>
       </c>
       <c r="D57">
-        <v>143.31</v>
+        <v>145.13999999999999</v>
       </c>
       <c r="E57">
-        <v>38.64</v>
+        <v>39.49</v>
       </c>
       <c r="F57">
-        <v>46.2</v>
+        <v>28.99</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>-0.14000000000000001</v>
+        <v>-0.13</v>
       </c>
       <c r="B58">
-        <v>0.05</v>
+        <v>0.18</v>
       </c>
       <c r="C58">
-        <v>0.56000000000000005</v>
+        <v>0.87</v>
       </c>
       <c r="D58">
-        <v>141.05000000000001</v>
+        <v>143.31</v>
       </c>
       <c r="E58">
-        <v>40.89</v>
+        <v>38.64</v>
       </c>
       <c r="F58">
-        <v>52.55</v>
+        <v>46.2</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>-0.13</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="B59">
-        <v>-7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="C59">
-        <v>0.32</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="D59">
-        <v>129.82</v>
+        <v>141.05000000000001</v>
       </c>
       <c r="E59">
-        <v>49.44</v>
+        <v>40.89</v>
       </c>
       <c r="F59">
-        <v>49.8</v>
+        <v>52.55</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
+        <v>-0.13</v>
+      </c>
+      <c r="B60">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="B60">
-        <v>-0.15</v>
-      </c>
       <c r="C60">
-        <v>0.11</v>
+        <v>0.32</v>
       </c>
       <c r="D60">
-        <v>108.7</v>
+        <v>129.82</v>
       </c>
       <c r="E60">
-        <v>60.36</v>
+        <v>49.44</v>
       </c>
       <c r="F60">
-        <v>45.59</v>
+        <v>49.8</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>-0.03</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="B61">
-        <v>-0.17</v>
+        <v>-0.15</v>
       </c>
       <c r="C61">
-        <v>-0.05</v>
+        <v>0.11</v>
       </c>
       <c r="D61">
-        <v>80.87</v>
+        <v>108.7</v>
       </c>
       <c r="E61">
-        <v>56.82</v>
+        <v>60.36</v>
       </c>
       <c r="F61">
-        <v>35.28</v>
+        <v>45.59</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>0</v>
+        <v>-0.03</v>
       </c>
       <c r="B62">
         <v>-0.17</v>
       </c>
       <c r="C62">
-        <v>-0.19</v>
+        <v>-0.05</v>
       </c>
       <c r="D62">
-        <v>52.19</v>
+        <v>80.87</v>
       </c>
       <c r="E62">
-        <v>48.89</v>
+        <v>56.82</v>
       </c>
       <c r="F62">
-        <v>20.260000000000002</v>
+        <v>35.28</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="B63">
+        <v>-0.17</v>
+      </c>
+      <c r="C63">
         <v>-0.19</v>
       </c>
-      <c r="C63">
-        <v>-0.35</v>
-      </c>
       <c r="D63">
-        <v>26.67</v>
+        <v>52.19</v>
       </c>
       <c r="E63">
-        <v>35.159999999999997</v>
+        <v>48.89</v>
       </c>
       <c r="F63">
-        <v>1.77</v>
+        <v>20.260000000000002</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="B64">
-        <v>-0.21</v>
+        <v>-0.19</v>
       </c>
       <c r="C64">
-        <v>-0.54</v>
+        <v>-0.35</v>
       </c>
       <c r="D64">
-        <v>11.35</v>
+        <v>26.67</v>
       </c>
       <c r="E64">
-        <v>20.81</v>
+        <v>35.159999999999997</v>
       </c>
       <c r="F64">
-        <v>-15.01</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>0.14000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="B65">
-        <v>-0.25</v>
+        <v>-0.21</v>
       </c>
       <c r="C65">
-        <v>-0.67</v>
+        <v>-0.54</v>
       </c>
       <c r="D65">
-        <v>8</v>
+        <v>11.35</v>
       </c>
       <c r="E65">
-        <v>2.99</v>
+        <v>20.81</v>
       </c>
       <c r="F65">
-        <v>-23.32</v>
+        <v>-15.01</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>0.38</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="B66">
-        <v>-0.34</v>
+        <v>-0.25</v>
       </c>
       <c r="C66">
-        <v>-0.7</v>
+        <v>-0.67</v>
       </c>
       <c r="D66">
-        <v>-2.69</v>
+        <v>8</v>
       </c>
       <c r="E66">
-        <v>-51.51</v>
+        <v>2.99</v>
       </c>
       <c r="F66">
-        <v>-32.96</v>
+        <v>-23.32</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>0.48</v>
+        <v>0.38</v>
       </c>
       <c r="B67">
-        <v>-0.44</v>
+        <v>-0.34</v>
       </c>
       <c r="C67">
-        <v>-0.48</v>
+        <v>-0.7</v>
       </c>
       <c r="D67">
-        <v>-30.4</v>
+        <v>-2.69</v>
       </c>
       <c r="E67">
-        <v>-102.17</v>
+        <v>-51.51</v>
       </c>
       <c r="F67">
-        <v>-44.37</v>
+        <v>-32.96</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>0.39</v>
+        <v>0.48</v>
       </c>
       <c r="B68">
-        <v>-0.56000000000000005</v>
+        <v>-0.44</v>
       </c>
       <c r="C68">
-        <v>-0.16</v>
+        <v>-0.48</v>
       </c>
       <c r="D68">
-        <v>-83.13</v>
+        <v>-30.4</v>
       </c>
       <c r="E68">
-        <v>-139.47</v>
+        <v>-102.17</v>
       </c>
       <c r="F68">
-        <v>-65.67</v>
+        <v>-44.37</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>0.18</v>
+        <v>0.39</v>
       </c>
       <c r="B69">
-        <v>-0.46</v>
+        <v>-0.56000000000000005</v>
       </c>
       <c r="C69">
-        <v>0.19</v>
+        <v>-0.16</v>
       </c>
       <c r="D69">
-        <v>-151</v>
+        <v>-83.13</v>
       </c>
       <c r="E69">
-        <v>-119.08</v>
+        <v>-139.47</v>
       </c>
       <c r="F69">
-        <v>-68.66</v>
+        <v>-65.67</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>0.04</v>
+        <v>0.18</v>
       </c>
       <c r="B70">
-        <v>-0.04</v>
+        <v>-0.46</v>
       </c>
       <c r="C70">
-        <v>1.1299999999999999</v>
+        <v>0.19</v>
       </c>
       <c r="D70">
-        <v>-195.01</v>
+        <v>-151</v>
       </c>
       <c r="E70">
-        <v>-21.97</v>
+        <v>-119.08</v>
       </c>
       <c r="F70">
-        <v>-47.85</v>
+        <v>-68.66</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>-0.12</v>
+        <v>0.04</v>
       </c>
       <c r="B71">
-        <v>0.56999999999999995</v>
+        <v>-0.04</v>
       </c>
       <c r="C71">
-        <v>2.5299999999999998</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="D71">
-        <v>-182.31</v>
+        <v>-195.01</v>
       </c>
       <c r="E71">
-        <v>28.56</v>
+        <v>-21.97</v>
       </c>
       <c r="F71">
-        <v>-30.52</v>
+        <v>-47.85</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>-0.33</v>
+        <v>-0.12</v>
       </c>
       <c r="B72">
-        <v>0.93</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="C72">
-        <v>3.11</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="D72">
-        <v>-169.13</v>
+        <v>-182.31</v>
       </c>
       <c r="E72">
-        <v>50.9</v>
+        <v>28.56</v>
       </c>
       <c r="F72">
-        <v>-23.19</v>
+        <v>-30.52</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>-0.5</v>
+        <v>-0.33</v>
       </c>
       <c r="B73">
-        <v>1.46</v>
+        <v>0.93</v>
       </c>
       <c r="C73">
-        <v>3.56</v>
+        <v>3.11</v>
       </c>
       <c r="D73">
-        <v>-119.08</v>
+        <v>-169.13</v>
       </c>
       <c r="E73">
-        <v>22.09</v>
+        <v>50.9</v>
       </c>
       <c r="F73">
-        <v>-8</v>
+        <v>-23.19</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>-0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="B74">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="C74">
-        <v>3.47</v>
+        <v>3.56</v>
       </c>
       <c r="D74">
-        <v>-26.67</v>
+        <v>-119.08</v>
       </c>
       <c r="E74">
-        <v>7.2</v>
+        <v>22.09</v>
       </c>
       <c r="F74">
-        <v>27.04</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>-0.39</v>
+        <v>-0.45</v>
       </c>
       <c r="B75">
-        <v>0.83</v>
+        <v>1.49</v>
       </c>
       <c r="C75">
-        <v>2.81</v>
+        <v>3.47</v>
       </c>
       <c r="D75">
-        <v>60.91</v>
+        <v>-26.67</v>
       </c>
       <c r="E75">
-        <v>-8.73</v>
+        <v>7.2</v>
       </c>
       <c r="F75">
-        <v>1.59</v>
+        <v>27.04</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>-0.2</v>
+        <v>-0.39</v>
       </c>
       <c r="B76">
-        <v>0.25</v>
+        <v>0.83</v>
       </c>
       <c r="C76">
-        <v>2.23</v>
+        <v>2.81</v>
       </c>
       <c r="D76">
-        <v>115.17</v>
+        <v>60.91</v>
       </c>
       <c r="E76">
-        <v>-8.85</v>
+        <v>-8.73</v>
       </c>
       <c r="F76">
-        <v>-11.29</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>-0.12</v>
+        <v>-0.2</v>
       </c>
       <c r="B77">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
       <c r="C77">
-        <v>1.39</v>
+        <v>2.23</v>
       </c>
       <c r="D77">
-        <v>127.08</v>
+        <v>115.17</v>
       </c>
       <c r="E77">
-        <v>12.21</v>
+        <v>-8.85</v>
       </c>
       <c r="F77">
-        <v>2.3199999999999998</v>
+        <v>-11.29</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>-0.33</v>
+        <v>-0.12</v>
       </c>
       <c r="B78">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="C78">
-        <v>0.93</v>
+        <v>1.39</v>
       </c>
       <c r="D78">
-        <v>128.85</v>
+        <v>127.08</v>
       </c>
       <c r="E78">
-        <v>25.15</v>
+        <v>12.21</v>
       </c>
       <c r="F78">
-        <v>17.82</v>
+        <v>2.3199999999999998</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>-0.28999999999999998</v>
+        <v>-0.33</v>
       </c>
       <c r="B79">
-        <v>-0.03</v>
+        <v>0.11</v>
       </c>
       <c r="C79">
-        <v>0.61</v>
+        <v>0.93</v>
       </c>
       <c r="D79">
-        <v>130.62</v>
+        <v>128.85</v>
       </c>
       <c r="E79">
-        <v>39.31</v>
+        <v>25.15</v>
       </c>
       <c r="F79">
-        <v>30.64</v>
+        <v>17.82</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>-0.25</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="B80">
-        <v>-0.19</v>
+        <v>-0.03</v>
       </c>
       <c r="C80">
-        <v>0.33</v>
+        <v>0.61</v>
       </c>
       <c r="D80">
-        <v>120.85</v>
+        <v>130.62</v>
       </c>
       <c r="E80">
-        <v>50.48</v>
+        <v>39.31</v>
       </c>
       <c r="F80">
-        <v>33.69</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>-0.24</v>
+        <v>-0.25</v>
       </c>
       <c r="B81">
-        <v>-0.3</v>
+        <v>-0.19</v>
       </c>
       <c r="C81">
-        <v>0.09</v>
+        <v>0.33</v>
       </c>
       <c r="D81">
-        <v>99.55</v>
+        <v>120.85</v>
       </c>
       <c r="E81">
-        <v>65.19</v>
+        <v>50.48</v>
       </c>
       <c r="F81">
-        <v>39.06</v>
+        <v>33.69</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>-0.2</v>
+        <v>-0.24</v>
       </c>
       <c r="B82">
-        <v>-0.31</v>
+        <v>-0.3</v>
       </c>
       <c r="C82">
-        <v>-0.1</v>
+        <v>0.09</v>
       </c>
       <c r="D82">
-        <v>68.540000000000006</v>
+        <v>99.55</v>
       </c>
       <c r="E82">
-        <v>69.03</v>
+        <v>65.19</v>
       </c>
       <c r="F82">
-        <v>36.869999999999997</v>
+        <v>39.06</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>-0.13</v>
+        <v>-0.2</v>
       </c>
       <c r="B83">
-        <v>-0.3</v>
+        <v>-0.31</v>
       </c>
       <c r="C83">
-        <v>-0.23</v>
+        <v>-0.1</v>
       </c>
       <c r="D83">
-        <v>39.79</v>
+        <v>68.540000000000006</v>
       </c>
       <c r="E83">
-        <v>54.08</v>
+        <v>69.03</v>
       </c>
       <c r="F83">
-        <v>21.42</v>
+        <v>36.869999999999997</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>-7.0000000000000007E-2</v>
+        <v>-0.13</v>
       </c>
       <c r="B84">
-        <v>-0.34</v>
+        <v>-0.3</v>
       </c>
       <c r="C84">
-        <v>-0.37</v>
+        <v>-0.23</v>
       </c>
       <c r="D84">
-        <v>16.72</v>
+        <v>39.79</v>
       </c>
       <c r="E84">
-        <v>33.200000000000003</v>
+        <v>54.08</v>
       </c>
       <c r="F84">
-        <v>2.56</v>
+        <v>21.42</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>-0.03</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="B85">
-        <v>-0.41</v>
+        <v>-0.34</v>
       </c>
       <c r="C85">
-        <v>-0.55000000000000004</v>
+        <v>-0.37</v>
       </c>
       <c r="D85">
-        <v>-2.56</v>
+        <v>16.72</v>
       </c>
       <c r="E85">
-        <v>11.29</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="F85">
-        <v>-15.81</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>0.06</v>
+        <v>-0.03</v>
       </c>
       <c r="B86">
-        <v>-0.5</v>
+        <v>-0.41</v>
       </c>
       <c r="C86">
-        <v>-0.73</v>
+        <v>-0.55000000000000004</v>
       </c>
       <c r="D86">
-        <v>-35.28</v>
+        <v>-2.56</v>
       </c>
       <c r="E86">
-        <v>-26.86</v>
+        <v>11.29</v>
       </c>
       <c r="F86">
-        <v>-38.090000000000003</v>
+        <v>-15.81</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>0.21</v>
+        <v>0.06</v>
       </c>
       <c r="B87">
-        <v>-0.47</v>
+        <v>-0.5</v>
       </c>
       <c r="C87">
-        <v>-0.67</v>
+        <v>-0.73</v>
       </c>
       <c r="D87">
-        <v>-62.99</v>
+        <v>-35.28</v>
       </c>
       <c r="E87">
-        <v>-53.71</v>
+        <v>-26.86</v>
       </c>
       <c r="F87">
-        <v>-47.97</v>
+        <v>-38.090000000000003</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>0.42</v>
+        <v>0.21</v>
       </c>
       <c r="B88">
-        <v>-0.4</v>
+        <v>-0.47</v>
       </c>
       <c r="C88">
-        <v>-0.46</v>
+        <v>-0.67</v>
       </c>
       <c r="D88">
-        <v>-86.18</v>
+        <v>-62.99</v>
       </c>
       <c r="E88">
-        <v>-68.48</v>
+        <v>-53.71</v>
       </c>
       <c r="F88">
-        <v>-34.299999999999997</v>
+        <v>-47.97</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>0.53</v>
+        <v>0.42</v>
       </c>
       <c r="B89">
-        <v>-0.37</v>
+        <v>-0.4</v>
       </c>
       <c r="C89">
-        <v>-0.11</v>
+        <v>-0.46</v>
       </c>
       <c r="D89">
-        <v>-114.44</v>
+        <v>-86.18</v>
       </c>
       <c r="E89">
-        <v>-75.13</v>
+        <v>-68.48</v>
       </c>
       <c r="F89">
-        <v>-12.7</v>
+        <v>-34.299999999999997</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>0.3</v>
+        <v>0.53</v>
       </c>
       <c r="B90">
-        <v>-0.05</v>
+        <v>-0.37</v>
       </c>
       <c r="C90">
-        <v>0.59</v>
+        <v>-0.11</v>
       </c>
       <c r="D90">
-        <v>-179.02</v>
+        <v>-114.44</v>
       </c>
       <c r="E90">
-        <v>-73.73</v>
+        <v>-75.13</v>
       </c>
       <c r="F90">
-        <v>-13.98</v>
+        <v>-12.7</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="B91">
-        <v>0.56000000000000005</v>
+        <v>-0.05</v>
       </c>
       <c r="C91">
-        <v>1.5</v>
+        <v>0.59</v>
       </c>
       <c r="D91">
-        <v>-192.75</v>
+        <v>-179.02</v>
       </c>
       <c r="E91">
-        <v>-21.55</v>
+        <v>-73.73</v>
       </c>
       <c r="F91">
-        <v>-7.75</v>
+        <v>-13.98</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>-0.15</v>
+        <v>0.1</v>
       </c>
       <c r="B92">
-        <v>1.1100000000000001</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="C92">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="D92">
-        <v>-179.57</v>
+        <v>-192.75</v>
       </c>
       <c r="E92">
-        <v>36.01</v>
+        <v>-21.55</v>
       </c>
       <c r="F92">
-        <v>7.08</v>
+        <v>-7.75</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>-0.21</v>
+        <v>-0.15</v>
       </c>
       <c r="B93">
-        <v>1.52</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="C93">
-        <v>3.21</v>
+        <v>2.5</v>
       </c>
       <c r="D93">
-        <v>-125.55</v>
+        <v>-179.57</v>
       </c>
       <c r="E93">
-        <v>54.93</v>
+        <v>36.01</v>
       </c>
       <c r="F93">
-        <v>29.3</v>
+        <v>7.08</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>-0.35</v>
+        <v>-0.21</v>
       </c>
       <c r="B94">
-        <v>1.68</v>
+        <v>1.52</v>
       </c>
       <c r="C94">
-        <v>3.5</v>
+        <v>3.21</v>
       </c>
       <c r="D94">
-        <v>-65.92</v>
+        <v>-125.55</v>
       </c>
       <c r="E94">
-        <v>2.0099999999999998</v>
+        <v>54.93</v>
       </c>
       <c r="F94">
-        <v>34.42</v>
+        <v>29.3</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>-0.52</v>
+        <v>-0.35</v>
       </c>
       <c r="B95">
-        <v>1.27</v>
+        <v>1.68</v>
       </c>
       <c r="C95">
-        <v>3.18</v>
+        <v>3.5</v>
       </c>
       <c r="D95">
-        <v>17.46</v>
+        <v>-65.92</v>
       </c>
       <c r="E95">
-        <v>-29.97</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="F95">
-        <v>26.73</v>
+        <v>34.42</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>-0.39</v>
+        <v>-0.52</v>
       </c>
       <c r="B96">
-        <v>0.62</v>
+        <v>1.27</v>
       </c>
       <c r="C96">
-        <v>2.5299999999999998</v>
+        <v>3.18</v>
       </c>
       <c r="D96">
-        <v>92.9</v>
+        <v>17.46</v>
       </c>
       <c r="E96">
-        <v>-23.19</v>
+        <v>-29.97</v>
       </c>
       <c r="F96">
-        <v>12.15</v>
+        <v>26.73</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>-0.13</v>
+        <v>-0.39</v>
       </c>
       <c r="B97">
-        <v>0.17</v>
+        <v>0.62</v>
       </c>
       <c r="C97">
-        <v>1.73</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="D97">
-        <v>137.33000000000001</v>
+        <v>92.9</v>
       </c>
       <c r="E97">
-        <v>9.4600000000000009</v>
+        <v>-23.19</v>
       </c>
       <c r="F97">
-        <v>10.5</v>
+        <v>12.15</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>-7.0000000000000007E-2</v>
+        <v>-0.13</v>
       </c>
       <c r="B98">
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
       <c r="C98">
-        <v>1.28</v>
+        <v>1.73</v>
       </c>
       <c r="D98">
-        <v>133.30000000000001</v>
+        <v>137.33000000000001</v>
       </c>
       <c r="E98">
-        <v>21.85</v>
+        <v>9.4600000000000009</v>
       </c>
       <c r="F98">
-        <v>17.82</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>-0.21</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="B99">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="C99">
-        <v>0.91</v>
+        <v>1.28</v>
       </c>
       <c r="D99">
-        <v>134.94999999999999</v>
+        <v>133.30000000000001</v>
       </c>
       <c r="E99">
-        <v>24.54</v>
+        <v>21.85</v>
       </c>
       <c r="F99">
-        <v>33.33</v>
+        <v>17.82</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>-0.2</v>
+        <v>-0.21</v>
       </c>
       <c r="B100">
-        <v>-0.04</v>
+        <v>0.09</v>
       </c>
       <c r="C100">
-        <v>0.66</v>
+        <v>0.91</v>
       </c>
       <c r="D100">
-        <v>135.01</v>
+        <v>134.94999999999999</v>
       </c>
       <c r="E100">
-        <v>27.71</v>
+        <v>24.54</v>
       </c>
       <c r="F100">
-        <v>41.5</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>-0.25</v>
+        <v>-0.2</v>
       </c>
       <c r="B101">
-        <v>-0.15</v>
+        <v>-0.04</v>
       </c>
       <c r="C101">
-        <v>0.42</v>
+        <v>0.66</v>
       </c>
       <c r="D101">
-        <v>122.38</v>
+        <v>135.01</v>
       </c>
       <c r="E101">
-        <v>33.14</v>
+        <v>27.71</v>
       </c>
       <c r="F101">
-        <v>39.92</v>
+        <v>41.5</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
@@ -2415,2358 +2438,2378 @@
         <v>-0.25</v>
       </c>
       <c r="B102">
-        <v>-0.2</v>
+        <v>-0.15</v>
       </c>
       <c r="C102">
-        <v>0.2</v>
+        <v>0.42</v>
       </c>
       <c r="D102">
-        <v>102.23</v>
+        <v>122.38</v>
       </c>
       <c r="E102">
-        <v>42.66</v>
+        <v>33.14</v>
       </c>
       <c r="F102">
-        <v>43.03</v>
+        <v>39.92</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>-0.17</v>
+        <v>-0.25</v>
       </c>
       <c r="B103">
-        <v>-0.23</v>
+        <v>-0.2</v>
       </c>
       <c r="C103">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D103">
-        <v>77.7</v>
+        <v>102.23</v>
       </c>
       <c r="E103">
-        <v>44.98</v>
+        <v>42.66</v>
       </c>
       <c r="F103">
-        <v>43.21</v>
+        <v>43.03</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>-0.06</v>
+        <v>-0.17</v>
       </c>
       <c r="B104">
-        <v>-0.24</v>
+        <v>-0.23</v>
       </c>
       <c r="C104">
-        <v>-0.19</v>
+        <v>0</v>
       </c>
       <c r="D104">
-        <v>52.92</v>
+        <v>77.7</v>
       </c>
       <c r="E104">
-        <v>35.03</v>
+        <v>44.98</v>
       </c>
       <c r="F104">
-        <v>36.32</v>
+        <v>43.21</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>0.01</v>
+        <v>-0.06</v>
       </c>
       <c r="B105">
-        <v>-0.26</v>
+        <v>-0.24</v>
       </c>
       <c r="C105">
-        <v>-0.35</v>
+        <v>-0.19</v>
       </c>
       <c r="D105">
-        <v>30.88</v>
+        <v>52.92</v>
       </c>
       <c r="E105">
-        <v>16.66</v>
+        <v>35.03</v>
       </c>
       <c r="F105">
-        <v>29.6</v>
+        <v>36.32</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>7.0000000000000007E-2</v>
+        <v>0.01</v>
       </c>
       <c r="B106">
-        <v>-0.28999999999999998</v>
+        <v>-0.26</v>
       </c>
       <c r="C106">
-        <v>-0.48</v>
+        <v>-0.35</v>
       </c>
       <c r="D106">
-        <v>8.7899999999999991</v>
+        <v>30.88</v>
       </c>
       <c r="E106">
-        <v>-7.45</v>
+        <v>16.66</v>
       </c>
       <c r="F106">
-        <v>16.97</v>
+        <v>29.6</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>0.12</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="B107">
-        <v>-0.33</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="C107">
-        <v>-0.56000000000000005</v>
+        <v>-0.48</v>
       </c>
       <c r="D107">
-        <v>-27.83</v>
+        <v>8.7899999999999991</v>
       </c>
       <c r="E107">
-        <v>-42.6</v>
+        <v>-7.45</v>
       </c>
       <c r="F107">
-        <v>-7.02</v>
+        <v>16.97</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>0.26</v>
+        <v>0.12</v>
       </c>
       <c r="B108">
-        <v>-0.42</v>
+        <v>-0.33</v>
       </c>
       <c r="C108">
-        <v>-0.44</v>
+        <v>-0.56000000000000005</v>
       </c>
       <c r="D108">
-        <v>-57.74</v>
+        <v>-27.83</v>
       </c>
       <c r="E108">
-        <v>-56.82</v>
+        <v>-42.6</v>
       </c>
       <c r="F108">
-        <v>-21.91</v>
+        <v>-7.02</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>0.4</v>
+        <v>0.26</v>
       </c>
       <c r="B109">
+        <v>-0.42</v>
+      </c>
+      <c r="C109">
         <v>-0.44</v>
       </c>
-      <c r="C109">
-        <v>-0.28999999999999998</v>
-      </c>
       <c r="D109">
-        <v>-93.99</v>
+        <v>-57.74</v>
       </c>
       <c r="E109">
-        <v>-59.69</v>
+        <v>-56.82</v>
       </c>
       <c r="F109">
-        <v>-30.64</v>
+        <v>-21.91</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>0.51</v>
+        <v>0.4</v>
       </c>
       <c r="B110">
-        <v>-0.37</v>
+        <v>-0.44</v>
       </c>
       <c r="C110">
-        <v>0.02</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="D110">
-        <v>-133.18</v>
+        <v>-93.99</v>
       </c>
       <c r="E110">
-        <v>-53.22</v>
+        <v>-59.69</v>
       </c>
       <c r="F110">
-        <v>-33.75</v>
+        <v>-30.64</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>0.47</v>
+        <v>0.51</v>
       </c>
       <c r="B111">
-        <v>-0.18</v>
+        <v>-0.37</v>
       </c>
       <c r="C111">
-        <v>0.43</v>
+        <v>0.02</v>
       </c>
       <c r="D111">
-        <v>-185.36</v>
+        <v>-133.18</v>
       </c>
       <c r="E111">
-        <v>-18.489999999999998</v>
+        <v>-53.22</v>
       </c>
       <c r="F111">
-        <v>-43.95</v>
+        <v>-33.75</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>0.26</v>
+        <v>0.47</v>
       </c>
       <c r="B112">
-        <v>0.35</v>
+        <v>-0.18</v>
       </c>
       <c r="C112">
-        <v>1.51</v>
+        <v>0.43</v>
       </c>
       <c r="D112">
-        <v>-184.27</v>
+        <v>-185.36</v>
       </c>
       <c r="E112">
-        <v>10.130000000000001</v>
+        <v>-18.489999999999998</v>
       </c>
       <c r="F112">
-        <v>-54.81</v>
+        <v>-43.95</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>0.12</v>
+        <v>0.26</v>
       </c>
       <c r="B113">
-        <v>0.85</v>
+        <v>0.35</v>
       </c>
       <c r="C113">
-        <v>2.21</v>
+        <v>1.51</v>
       </c>
       <c r="D113">
-        <v>-180.91</v>
+        <v>-184.27</v>
       </c>
       <c r="E113">
-        <v>37.229999999999997</v>
+        <v>10.130000000000001</v>
       </c>
       <c r="F113">
-        <v>-41.02</v>
+        <v>-54.81</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>-0.12</v>
+        <v>0.12</v>
       </c>
       <c r="B114">
-        <v>1.37</v>
+        <v>0.85</v>
       </c>
       <c r="C114">
-        <v>2.87</v>
+        <v>2.21</v>
       </c>
       <c r="D114">
-        <v>-135.99</v>
+        <v>-180.91</v>
       </c>
       <c r="E114">
-        <v>15.56</v>
+        <v>37.229999999999997</v>
       </c>
       <c r="F114">
-        <v>-12.21</v>
+        <v>-41.02</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>-0.53</v>
+        <v>-0.12</v>
       </c>
       <c r="B115">
-        <v>1.62</v>
+        <v>1.37</v>
       </c>
       <c r="C115">
-        <v>3.24</v>
+        <v>2.87</v>
       </c>
       <c r="D115">
-        <v>-68.66</v>
+        <v>-135.99</v>
       </c>
       <c r="E115">
-        <v>-23.25</v>
+        <v>15.56</v>
       </c>
       <c r="F115">
-        <v>29.05</v>
+        <v>-12.21</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>-0.87</v>
+        <v>-0.53</v>
       </c>
       <c r="B116">
-        <v>1.39</v>
+        <v>1.62</v>
       </c>
       <c r="C116">
-        <v>2.91</v>
+        <v>3.24</v>
       </c>
       <c r="D116">
-        <v>1.46</v>
+        <v>-68.66</v>
       </c>
       <c r="E116">
-        <v>-46.88</v>
+        <v>-23.25</v>
       </c>
       <c r="F116">
-        <v>26.06</v>
+        <v>29.05</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>-0.76</v>
+        <v>-0.87</v>
       </c>
       <c r="B117">
-        <v>0.83</v>
+        <v>1.39</v>
       </c>
       <c r="C117">
-        <v>2.35</v>
+        <v>2.91</v>
       </c>
       <c r="D117">
-        <v>73.55</v>
+        <v>1.46</v>
       </c>
       <c r="E117">
-        <v>-38.76</v>
+        <v>-46.88</v>
       </c>
       <c r="F117">
-        <v>-0.24</v>
+        <v>26.06</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>-0.34</v>
+        <v>-0.76</v>
       </c>
       <c r="B118">
-        <v>0.34</v>
+        <v>0.83</v>
       </c>
       <c r="C118">
-        <v>1.89</v>
+        <v>2.35</v>
       </c>
       <c r="D118">
-        <v>115.97</v>
+        <v>73.55</v>
       </c>
       <c r="E118">
-        <v>2.87</v>
+        <v>-38.76</v>
       </c>
       <c r="F118">
-        <v>2.69</v>
+        <v>-0.24</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>-0.17</v>
+        <v>-0.34</v>
       </c>
       <c r="B119">
-        <v>0.12</v>
+        <v>0.34</v>
       </c>
       <c r="C119">
-        <v>1.44</v>
+        <v>1.89</v>
       </c>
       <c r="D119">
-        <v>126.83</v>
+        <v>115.97</v>
       </c>
       <c r="E119">
-        <v>33.39</v>
+        <v>2.87</v>
       </c>
       <c r="F119">
-        <v>2.93</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>-0.19</v>
+        <v>-0.17</v>
       </c>
       <c r="B120">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="C120">
-        <v>1.08</v>
+        <v>1.44</v>
       </c>
       <c r="D120">
-        <v>121.46</v>
+        <v>126.83</v>
       </c>
       <c r="E120">
-        <v>36.869999999999997</v>
+        <v>33.39</v>
       </c>
       <c r="F120">
-        <v>12.94</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>-0.18</v>
+        <v>-0.19</v>
       </c>
       <c r="B121">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="C121">
-        <v>0.85</v>
+        <v>1.08</v>
       </c>
       <c r="D121">
-        <v>122.07</v>
+        <v>121.46</v>
       </c>
       <c r="E121">
-        <v>29.05</v>
+        <v>36.869999999999997</v>
       </c>
       <c r="F121">
-        <v>27.59</v>
+        <v>12.94</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>-0.2</v>
+        <v>-0.18</v>
       </c>
       <c r="B122">
-        <v>0.05</v>
+        <v>0.17</v>
       </c>
       <c r="C122">
-        <v>0.68</v>
+        <v>0.85</v>
       </c>
       <c r="D122">
-        <v>122.44</v>
+        <v>122.07</v>
       </c>
       <c r="E122">
-        <v>28.08</v>
+        <v>29.05</v>
       </c>
       <c r="F122">
-        <v>24.11</v>
+        <v>27.59</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>-0.28999999999999998</v>
+        <v>-0.2</v>
       </c>
       <c r="B123">
-        <v>-0.09</v>
+        <v>0.05</v>
       </c>
       <c r="C123">
-        <v>0.5</v>
+        <v>0.68</v>
       </c>
       <c r="D123">
-        <v>109.07</v>
+        <v>122.44</v>
       </c>
       <c r="E123">
-        <v>39.67</v>
+        <v>28.08</v>
       </c>
       <c r="F123">
-        <v>18.43</v>
+        <v>24.11</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>-0.24</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="B124">
-        <v>-0.16</v>
+        <v>-0.09</v>
       </c>
       <c r="C124">
-        <v>0.32</v>
+        <v>0.5</v>
       </c>
       <c r="D124">
-        <v>91.61</v>
+        <v>109.07</v>
       </c>
       <c r="E124">
-        <v>53.53</v>
+        <v>39.67</v>
       </c>
       <c r="F124">
-        <v>14.34</v>
+        <v>18.43</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>-0.04</v>
+        <v>-0.24</v>
       </c>
       <c r="B125">
-        <v>-0.2</v>
+        <v>-0.16</v>
       </c>
       <c r="C125">
-        <v>0.19</v>
+        <v>0.32</v>
       </c>
       <c r="D125">
-        <v>78.55</v>
+        <v>91.61</v>
       </c>
       <c r="E125">
-        <v>57.01</v>
+        <v>53.53</v>
       </c>
       <c r="F125">
-        <v>13.43</v>
+        <v>14.34</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>0.12</v>
+        <v>-0.04</v>
       </c>
       <c r="B126">
-        <v>-0.26</v>
+        <v>-0.2</v>
       </c>
       <c r="C126">
-        <v>0.09</v>
+        <v>0.19</v>
       </c>
       <c r="D126">
-        <v>66.59</v>
+        <v>78.55</v>
       </c>
       <c r="E126">
-        <v>42.24</v>
+        <v>57.01</v>
       </c>
       <c r="F126">
-        <v>10.25</v>
+        <v>13.43</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>0.14000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="B127">
-        <v>-0.34</v>
+        <v>-0.26</v>
       </c>
       <c r="C127">
-        <v>-0.02</v>
+        <v>0.09</v>
       </c>
       <c r="D127">
-        <v>52.25</v>
+        <v>66.59</v>
       </c>
       <c r="E127">
-        <v>21.91</v>
+        <v>42.24</v>
       </c>
       <c r="F127">
-        <v>7.2</v>
+        <v>10.25</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>0.13</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="B128">
-        <v>-0.4</v>
+        <v>-0.34</v>
       </c>
       <c r="C128">
-        <v>-0.11</v>
+        <v>-0.02</v>
       </c>
       <c r="D128">
-        <v>36.799999999999997</v>
+        <v>52.25</v>
       </c>
       <c r="E128">
-        <v>5</v>
+        <v>21.91</v>
       </c>
       <c r="F128">
-        <v>6.1</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>0.18</v>
+        <v>0.13</v>
       </c>
       <c r="B129">
-        <v>-0.43</v>
+        <v>-0.4</v>
       </c>
       <c r="C129">
-        <v>-0.18</v>
+        <v>-0.11</v>
       </c>
       <c r="D129">
-        <v>21.24</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="E129">
-        <v>-9.0299999999999994</v>
+        <v>5</v>
       </c>
       <c r="F129">
-        <v>1.1599999999999999</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>0.32</v>
+        <v>0.18</v>
       </c>
       <c r="B130">
-        <v>-0.44</v>
+        <v>-0.43</v>
       </c>
       <c r="C130">
-        <v>-0.3</v>
+        <v>-0.18</v>
       </c>
       <c r="D130">
-        <v>4.58</v>
+        <v>21.24</v>
       </c>
       <c r="E130">
-        <v>-24.35</v>
+        <v>-9.0299999999999994</v>
       </c>
       <c r="F130">
-        <v>-4.88</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>0.46</v>
+        <v>0.32</v>
       </c>
       <c r="B131">
-        <v>-0.5</v>
+        <v>-0.44</v>
       </c>
       <c r="C131">
-        <v>-0.34</v>
+        <v>-0.3</v>
       </c>
       <c r="D131">
-        <v>-7.51</v>
+        <v>4.58</v>
       </c>
       <c r="E131">
-        <v>-46.45</v>
+        <v>-24.35</v>
       </c>
       <c r="F131">
-        <v>-8.73</v>
+        <v>-4.88</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="B132">
-        <v>-0.63</v>
+        <v>-0.5</v>
       </c>
       <c r="C132">
-        <v>-0.13</v>
+        <v>-0.34</v>
       </c>
       <c r="D132">
-        <v>-50.17</v>
+        <v>-7.51</v>
       </c>
       <c r="E132">
-        <v>-83.19</v>
+        <v>-46.45</v>
       </c>
       <c r="F132">
-        <v>-20.39</v>
+        <v>-8.73</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>0.28999999999999998</v>
+        <v>0.45</v>
       </c>
       <c r="B133">
-        <v>-0.6</v>
+        <v>-0.63</v>
       </c>
       <c r="C133">
-        <v>0.05</v>
+        <v>-0.13</v>
       </c>
       <c r="D133">
-        <v>-103.7</v>
+        <v>-50.17</v>
       </c>
       <c r="E133">
-        <v>-85.57</v>
+        <v>-83.19</v>
       </c>
       <c r="F133">
-        <v>-27.59</v>
+        <v>-20.39</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>0.2</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="B134">
-        <v>-0.33</v>
+        <v>-0.6</v>
       </c>
       <c r="C134">
-        <v>0.28000000000000003</v>
+        <v>0.05</v>
       </c>
       <c r="D134">
-        <v>-154.41999999999999</v>
+        <v>-103.7</v>
       </c>
       <c r="E134">
-        <v>-55.91</v>
+        <v>-85.57</v>
       </c>
       <c r="F134">
-        <v>-25.09</v>
+        <v>-27.59</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="B135">
-        <v>0.08</v>
+        <v>-0.33</v>
       </c>
       <c r="C135">
-        <v>0.89</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="D135">
-        <v>-177.06</v>
+        <v>-154.41999999999999</v>
       </c>
       <c r="E135">
-        <v>-19.78</v>
+        <v>-55.91</v>
       </c>
       <c r="F135">
-        <v>-15.32</v>
+        <v>-25.09</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>0.01</v>
+        <v>0.16</v>
       </c>
       <c r="B136">
-        <v>0.51</v>
+        <v>0.08</v>
       </c>
       <c r="C136">
-        <v>1.81</v>
+        <v>0.89</v>
       </c>
       <c r="D136">
-        <v>-183.41</v>
+        <v>-177.06</v>
       </c>
       <c r="E136">
-        <v>6.96</v>
+        <v>-19.78</v>
       </c>
       <c r="F136">
-        <v>-16.72</v>
+        <v>-15.32</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>-0.36</v>
+        <v>0.01</v>
       </c>
       <c r="B137">
-        <v>1.1399999999999999</v>
+        <v>0.51</v>
       </c>
       <c r="C137">
-        <v>2.57</v>
+        <v>1.81</v>
       </c>
       <c r="D137">
-        <v>-140.93</v>
+        <v>-183.41</v>
       </c>
       <c r="E137">
-        <v>1.22</v>
+        <v>6.96</v>
       </c>
       <c r="F137">
-        <v>11.35</v>
+        <v>-16.72</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>-1.05</v>
+        <v>-0.36</v>
       </c>
       <c r="B138">
-        <v>1.76</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="C138">
-        <v>3.26</v>
+        <v>2.57</v>
       </c>
       <c r="D138">
-        <v>-66.89</v>
+        <v>-140.93</v>
       </c>
       <c r="E138">
-        <v>-14.47</v>
+        <v>1.22</v>
       </c>
       <c r="F138">
-        <v>69.7</v>
+        <v>11.35</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>-1.08</v>
+        <v>-1.05</v>
       </c>
       <c r="B139">
-        <v>1.26</v>
+        <v>1.76</v>
       </c>
       <c r="C139">
-        <v>2.99</v>
+        <v>3.26</v>
       </c>
       <c r="D139">
-        <v>18.62</v>
+        <v>-66.89</v>
       </c>
       <c r="E139">
-        <v>-20.81</v>
+        <v>-14.47</v>
       </c>
       <c r="F139">
-        <v>57.8</v>
+        <v>69.7</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>-0.54</v>
+        <v>-1.08</v>
       </c>
       <c r="B140">
-        <v>0.56000000000000005</v>
+        <v>1.26</v>
       </c>
       <c r="C140">
-        <v>2.4300000000000002</v>
+        <v>2.99</v>
       </c>
       <c r="D140">
-        <v>92.1</v>
+        <v>18.62</v>
       </c>
       <c r="E140">
-        <v>-5.07</v>
+        <v>-20.81</v>
       </c>
       <c r="F140">
-        <v>27.71</v>
+        <v>57.8</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>-0.02</v>
+        <v>-0.54</v>
       </c>
       <c r="B141">
-        <v>7.0000000000000007E-2</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="C141">
-        <v>1.96</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="D141">
-        <v>120.67</v>
+        <v>92.1</v>
       </c>
       <c r="E141">
-        <v>18.920000000000002</v>
+        <v>-5.07</v>
       </c>
       <c r="F141">
-        <v>33.81</v>
+        <v>27.71</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>0.08</v>
+        <v>-0.02</v>
       </c>
       <c r="B142">
-        <v>-7.0000000000000007E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C142">
-        <v>1.36</v>
+        <v>1.96</v>
       </c>
       <c r="D142">
-        <v>116.76</v>
+        <v>120.67</v>
       </c>
       <c r="E142">
-        <v>30.03</v>
+        <v>18.920000000000002</v>
       </c>
       <c r="F142">
-        <v>41.63</v>
+        <v>33.81</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>-0.1</v>
+        <v>0.08</v>
       </c>
       <c r="B143">
-        <v>0</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="C143">
-        <v>1</v>
+        <v>1.36</v>
       </c>
       <c r="D143">
-        <v>106.26</v>
+        <v>116.76</v>
       </c>
       <c r="E143">
-        <v>27.04</v>
+        <v>30.03</v>
       </c>
       <c r="F143">
-        <v>51.7</v>
+        <v>41.63</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="B144">
         <v>0</v>
       </c>
       <c r="C144">
-        <v>0.77</v>
+        <v>1</v>
       </c>
       <c r="D144">
-        <v>104.37</v>
+        <v>106.26</v>
       </c>
       <c r="E144">
-        <v>31.13</v>
+        <v>27.04</v>
       </c>
       <c r="F144">
-        <v>63.11</v>
+        <v>51.7</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>-0.22</v>
+        <v>-0.2</v>
       </c>
       <c r="B145">
-        <v>-0.14000000000000001</v>
+        <v>0</v>
       </c>
       <c r="C145">
-        <v>0.57999999999999996</v>
+        <v>0.77</v>
       </c>
       <c r="D145">
-        <v>102.42</v>
+        <v>104.37</v>
       </c>
       <c r="E145">
-        <v>47.06</v>
+        <v>31.13</v>
       </c>
       <c r="F145">
-        <v>48.95</v>
+        <v>63.11</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146">
+        <v>-0.22</v>
+      </c>
+      <c r="B146">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="B146">
-        <v>-0.26</v>
-      </c>
       <c r="C146">
-        <v>0.37</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="D146">
-        <v>91.74</v>
+        <v>102.42</v>
       </c>
       <c r="E146">
-        <v>77.209999999999994</v>
+        <v>47.06</v>
       </c>
       <c r="F146">
-        <v>34.61</v>
+        <v>48.95</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>0</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="B147">
-        <v>-0.31</v>
+        <v>-0.26</v>
       </c>
       <c r="C147">
-        <v>0.24</v>
+        <v>0.37</v>
       </c>
       <c r="D147">
-        <v>72.2</v>
+        <v>91.74</v>
       </c>
       <c r="E147">
-        <v>95.58</v>
+        <v>77.209999999999994</v>
       </c>
       <c r="F147">
-        <v>26.92</v>
+        <v>34.61</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="B148">
-        <v>-0.28999999999999998</v>
+        <v>-0.31</v>
       </c>
       <c r="C148">
-        <v>0.11</v>
+        <v>0.24</v>
       </c>
       <c r="D148">
-        <v>52.06</v>
+        <v>72.2</v>
       </c>
       <c r="E148">
-        <v>97.23</v>
+        <v>95.58</v>
       </c>
       <c r="F148">
-        <v>12.02</v>
+        <v>26.92</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>0.21</v>
+        <v>0.13</v>
       </c>
       <c r="B149">
-        <v>-0.25</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="C149">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="D149">
-        <v>37.049999999999997</v>
+        <v>52.06</v>
       </c>
       <c r="E149">
-        <v>86.73</v>
+        <v>97.23</v>
       </c>
       <c r="F149">
-        <v>0.12</v>
+        <v>12.02</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>0.26</v>
+        <v>0.21</v>
       </c>
       <c r="B150">
-        <v>-0.24</v>
+        <v>-0.25</v>
       </c>
       <c r="C150">
-        <v>-0.14000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="D150">
-        <v>25.88</v>
+        <v>37.049999999999997</v>
       </c>
       <c r="E150">
-        <v>68.97</v>
+        <v>86.73</v>
       </c>
       <c r="F150">
-        <v>-5.55</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>0.23</v>
+        <v>0.26</v>
       </c>
       <c r="B151">
         <v>-0.24</v>
       </c>
       <c r="C151">
-        <v>-0.42</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="D151">
-        <v>10.56</v>
+        <v>25.88</v>
       </c>
       <c r="E151">
-        <v>14.28</v>
+        <v>68.97</v>
       </c>
       <c r="F151">
-        <v>-30.7</v>
+        <v>-5.55</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>0.21</v>
+        <v>0.23</v>
       </c>
       <c r="B152">
-        <v>-0.28000000000000003</v>
+        <v>-0.24</v>
       </c>
       <c r="C152">
-        <v>-0.51</v>
+        <v>-0.42</v>
       </c>
       <c r="D152">
-        <v>-1.22</v>
+        <v>10.56</v>
       </c>
       <c r="E152">
-        <v>-24.54</v>
+        <v>14.28</v>
       </c>
       <c r="F152">
-        <v>-38.450000000000003</v>
+        <v>-30.7</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>0.18</v>
+        <v>0.21</v>
       </c>
       <c r="B153">
-        <v>-0.35</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="C153">
-        <v>-0.49</v>
+        <v>-0.51</v>
       </c>
       <c r="D153">
-        <v>-21.61</v>
+        <v>-1.22</v>
       </c>
       <c r="E153">
-        <v>-62.74</v>
+        <v>-24.54</v>
       </c>
       <c r="F153">
-        <v>-46.02</v>
+        <v>-38.450000000000003</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>0.09</v>
+        <v>0.18</v>
       </c>
       <c r="B154">
-        <v>-0.36</v>
+        <v>-0.35</v>
       </c>
       <c r="C154">
-        <v>-0.46</v>
+        <v>-0.49</v>
       </c>
       <c r="D154">
-        <v>-55.48</v>
+        <v>-21.61</v>
       </c>
       <c r="E154">
-        <v>-93.51</v>
+        <v>-62.74</v>
       </c>
       <c r="F154">
-        <v>-54.69</v>
+        <v>-46.02</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
       <c r="B155">
-        <v>-0.28999999999999998</v>
+        <v>-0.36</v>
       </c>
       <c r="C155">
-        <v>-0.37</v>
+        <v>-0.46</v>
       </c>
       <c r="D155">
-        <v>-106.87</v>
+        <v>-55.48</v>
       </c>
       <c r="E155">
-        <v>-94.24</v>
+        <v>-93.51</v>
       </c>
       <c r="F155">
-        <v>-41.75</v>
+        <v>-54.69</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>0.12</v>
+        <v>0.03</v>
       </c>
       <c r="B156">
-        <v>-0.12</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="C156">
-        <v>0.28000000000000003</v>
+        <v>-0.37</v>
       </c>
       <c r="D156">
-        <v>-127.26</v>
+        <v>-106.87</v>
       </c>
       <c r="E156">
-        <v>-81.3</v>
+        <v>-94.24</v>
       </c>
       <c r="F156">
-        <v>-15.69</v>
+        <v>-41.75</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="B157">
-        <v>-0.01</v>
+        <v>-0.12</v>
       </c>
       <c r="C157">
-        <v>0.86</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="D157">
-        <v>-163.88</v>
+        <v>-127.26</v>
       </c>
       <c r="E157">
-        <v>-77.27</v>
+        <v>-81.3</v>
       </c>
       <c r="F157">
-        <v>10.93</v>
+        <v>-15.69</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>-0.14000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="B158">
-        <v>0.38</v>
+        <v>-0.01</v>
       </c>
       <c r="C158">
-        <v>1.58</v>
+        <v>0.86</v>
       </c>
       <c r="D158">
-        <v>-191.96</v>
+        <v>-163.88</v>
       </c>
       <c r="E158">
-        <v>-50.35</v>
+        <v>-77.27</v>
       </c>
       <c r="F158">
-        <v>-0.92</v>
+        <v>10.93</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>-0.62</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="B159">
-        <v>0.95</v>
+        <v>0.38</v>
       </c>
       <c r="C159">
-        <v>2.67</v>
+        <v>1.58</v>
       </c>
       <c r="D159">
-        <v>-191.1</v>
+        <v>-191.96</v>
       </c>
       <c r="E159">
-        <v>-23.07</v>
+        <v>-50.35</v>
       </c>
       <c r="F159">
-        <v>12.15</v>
+        <v>-0.92</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>-0.92</v>
+        <v>-0.62</v>
       </c>
       <c r="B160">
-        <v>1.36</v>
+        <v>0.95</v>
       </c>
       <c r="C160">
-        <v>3.63</v>
+        <v>2.67</v>
       </c>
       <c r="D160">
-        <v>-104.49</v>
+        <v>-191.1</v>
       </c>
       <c r="E160">
-        <v>-10.99</v>
+        <v>-23.07</v>
       </c>
       <c r="F160">
-        <v>16.600000000000001</v>
+        <v>12.15</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>-0.84</v>
+        <v>-0.92</v>
       </c>
       <c r="B161">
-        <v>1.0900000000000001</v>
+        <v>1.36</v>
       </c>
       <c r="C161">
-        <v>3.51</v>
+        <v>3.63</v>
       </c>
       <c r="D161">
-        <v>-14.83</v>
+        <v>-104.49</v>
       </c>
       <c r="E161">
-        <v>-17.09</v>
+        <v>-10.99</v>
       </c>
       <c r="F161">
-        <v>6.65</v>
+        <v>16.600000000000001</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>-0.44</v>
+        <v>-0.84</v>
       </c>
       <c r="B162">
-        <v>0.53</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="C162">
-        <v>2.86</v>
+        <v>3.51</v>
       </c>
       <c r="D162">
-        <v>64.58</v>
+        <v>-14.83</v>
       </c>
       <c r="E162">
-        <v>-12.63</v>
+        <v>-17.09</v>
       </c>
       <c r="F162">
-        <v>7.57</v>
+        <v>6.65</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>-0.17</v>
+        <v>-0.44</v>
       </c>
       <c r="B163">
-        <v>0.18</v>
+        <v>0.53</v>
       </c>
       <c r="C163">
-        <v>2.3199999999999998</v>
+        <v>2.86</v>
       </c>
       <c r="D163">
-        <v>106.51</v>
+        <v>64.58</v>
       </c>
       <c r="E163">
-        <v>-0.55000000000000004</v>
+        <v>-12.63</v>
       </c>
       <c r="F163">
-        <v>6.41</v>
+        <v>7.57</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>-0.25</v>
+        <v>-0.17</v>
       </c>
       <c r="B164">
-        <v>0.08</v>
+        <v>0.18</v>
       </c>
       <c r="C164">
-        <v>1.87</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="D164">
-        <v>116.76</v>
+        <v>106.51</v>
       </c>
       <c r="E164">
-        <v>21.24</v>
+        <v>-0.55000000000000004</v>
       </c>
       <c r="F164">
-        <v>10.99</v>
+        <v>6.41</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>-0.41</v>
+        <v>-0.25</v>
       </c>
       <c r="B165">
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
       <c r="C165">
-        <v>1.43</v>
+        <v>1.87</v>
       </c>
       <c r="D165">
-        <v>116.21</v>
+        <v>116.76</v>
       </c>
       <c r="E165">
-        <v>43.15</v>
+        <v>21.24</v>
       </c>
       <c r="F165">
-        <v>24.41</v>
+        <v>10.99</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>-0.4</v>
+        <v>-0.41</v>
       </c>
       <c r="B166">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="C166">
-        <v>0.99</v>
+        <v>1.43</v>
       </c>
       <c r="D166">
-        <v>118.77</v>
+        <v>116.21</v>
       </c>
       <c r="E166">
-        <v>61.58</v>
+        <v>43.15</v>
       </c>
       <c r="F166">
-        <v>25.45</v>
+        <v>24.41</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>-0.26</v>
+        <v>-0.4</v>
       </c>
       <c r="B167">
-        <v>0.06</v>
+        <v>0.16</v>
       </c>
       <c r="C167">
-        <v>0.66</v>
+        <v>0.99</v>
       </c>
       <c r="D167">
-        <v>124.08</v>
+        <v>118.77</v>
       </c>
       <c r="E167">
-        <v>84.35</v>
+        <v>61.58</v>
       </c>
       <c r="F167">
-        <v>28.38</v>
+        <v>25.45</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>-0.09</v>
+        <v>-0.26</v>
       </c>
       <c r="B168">
-        <v>-0.05</v>
+        <v>0.06</v>
       </c>
       <c r="C168">
-        <v>0.39</v>
+        <v>0.66</v>
       </c>
       <c r="D168">
-        <v>119.69</v>
+        <v>124.08</v>
       </c>
       <c r="E168">
-        <v>96.8</v>
+        <v>84.35</v>
       </c>
       <c r="F168">
-        <v>36.19</v>
+        <v>28.38</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>0.04</v>
+        <v>-0.09</v>
       </c>
       <c r="B169">
-        <v>-0.09</v>
+        <v>-0.05</v>
       </c>
       <c r="C169">
-        <v>0.19</v>
+        <v>0.39</v>
       </c>
       <c r="D169">
-        <v>104.61</v>
+        <v>119.69</v>
       </c>
       <c r="E169">
-        <v>92.35</v>
+        <v>96.8</v>
       </c>
       <c r="F169">
-        <v>36.25</v>
+        <v>36.19</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>0.11</v>
+        <v>0.04</v>
       </c>
       <c r="B170">
         <v>-0.09</v>
       </c>
       <c r="C170">
-        <v>0.04</v>
+        <v>0.19</v>
       </c>
       <c r="D170">
-        <v>82.03</v>
+        <v>104.61</v>
       </c>
       <c r="E170">
-        <v>78.8</v>
+        <v>92.35</v>
       </c>
       <c r="F170">
-        <v>34.61</v>
+        <v>36.25</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="B171">
         <v>-0.09</v>
       </c>
       <c r="C171">
-        <v>-0.16</v>
+        <v>0.04</v>
       </c>
       <c r="D171">
-        <v>58.53</v>
+        <v>82.03</v>
       </c>
       <c r="E171">
-        <v>61.89</v>
+        <v>78.8</v>
       </c>
       <c r="F171">
-        <v>16.05</v>
+        <v>34.61</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>7.0000000000000007E-2</v>
+        <v>0.09</v>
       </c>
       <c r="B172">
-        <v>-0.06</v>
+        <v>-0.09</v>
       </c>
       <c r="C172">
-        <v>-0.42</v>
+        <v>-0.16</v>
       </c>
       <c r="D172">
-        <v>31.07</v>
+        <v>58.53</v>
       </c>
       <c r="E172">
-        <v>39.06</v>
+        <v>61.89</v>
       </c>
       <c r="F172">
-        <v>3.72</v>
+        <v>16.05</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>0.16</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="B173">
-        <v>-0.09</v>
+        <v>-0.06</v>
       </c>
       <c r="C173">
-        <v>-0.5</v>
+        <v>-0.42</v>
       </c>
       <c r="D173">
-        <v>23.5</v>
+        <v>31.07</v>
       </c>
       <c r="E173">
-        <v>20.75</v>
+        <v>39.06</v>
       </c>
       <c r="F173">
-        <v>-2.69</v>
+        <v>3.72</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>0.25</v>
+        <v>0.16</v>
       </c>
       <c r="B174">
-        <v>-0.22</v>
+        <v>-0.09</v>
       </c>
       <c r="C174">
-        <v>-0.51</v>
+        <v>-0.5</v>
       </c>
       <c r="D174">
-        <v>12.7</v>
+        <v>23.5</v>
       </c>
       <c r="E174">
-        <v>-7.08</v>
+        <v>20.75</v>
       </c>
       <c r="F174">
-        <v>-15.75</v>
+        <v>-2.69</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>0.34</v>
+        <v>0.25</v>
       </c>
       <c r="B175">
-        <v>-0.38</v>
+        <v>-0.22</v>
       </c>
       <c r="C175">
-        <v>-0.52</v>
+        <v>-0.51</v>
       </c>
       <c r="D175">
-        <v>-8.7899999999999991</v>
+        <v>12.7</v>
       </c>
       <c r="E175">
-        <v>-42.6</v>
+        <v>-7.08</v>
       </c>
       <c r="F175">
-        <v>-30.88</v>
+        <v>-15.75</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>0.45</v>
+        <v>0.34</v>
       </c>
       <c r="B176">
-        <v>-0.45</v>
+        <v>-0.38</v>
       </c>
       <c r="C176">
-        <v>-0.43</v>
+        <v>-0.52</v>
       </c>
       <c r="D176">
-        <v>-44.86</v>
+        <v>-8.7899999999999991</v>
       </c>
       <c r="E176">
-        <v>-60.55</v>
+        <v>-42.6</v>
       </c>
       <c r="F176">
-        <v>-36.93</v>
+        <v>-30.88</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>0.49</v>
+        <v>0.45</v>
       </c>
       <c r="B177">
-        <v>-0.32</v>
+        <v>-0.45</v>
       </c>
       <c r="C177">
-        <v>-0.09</v>
+        <v>-0.43</v>
       </c>
       <c r="D177">
-        <v>-117.61</v>
+        <v>-44.86</v>
       </c>
       <c r="E177">
-        <v>-78.06</v>
+        <v>-60.55</v>
       </c>
       <c r="F177">
-        <v>-54.08</v>
+        <v>-36.93</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>0.44</v>
+        <v>0.49</v>
       </c>
       <c r="B178">
-        <v>-0.14000000000000001</v>
+        <v>-0.32</v>
       </c>
       <c r="C178">
-        <v>0.42</v>
+        <v>-0.09</v>
       </c>
       <c r="D178">
-        <v>-159.12</v>
+        <v>-117.61</v>
       </c>
       <c r="E178">
-        <v>-67.69</v>
+        <v>-78.06</v>
       </c>
       <c r="F178">
-        <v>-49.93</v>
+        <v>-54.08</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>0.31</v>
+        <v>0.44</v>
       </c>
       <c r="B179">
-        <v>0.03</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="C179">
-        <v>1.1599999999999999</v>
+        <v>0.42</v>
       </c>
       <c r="D179">
-        <v>-189.82</v>
+        <v>-159.12</v>
       </c>
       <c r="E179">
-        <v>-42.66</v>
+        <v>-67.69</v>
       </c>
       <c r="F179">
-        <v>-44.31</v>
+        <v>-49.93</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>0.08</v>
+        <v>0.31</v>
       </c>
       <c r="B180">
-        <v>0.23</v>
+        <v>0.03</v>
       </c>
       <c r="C180">
-        <v>2.0299999999999998</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="D180">
-        <v>-203.86</v>
+        <v>-189.82</v>
       </c>
       <c r="E180">
-        <v>-21.79</v>
+        <v>-42.66</v>
       </c>
       <c r="F180">
-        <v>-29.48</v>
+        <v>-44.31</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>-0.42</v>
+        <v>0.08</v>
       </c>
       <c r="B181">
-        <v>0.9</v>
+        <v>0.23</v>
       </c>
       <c r="C181">
-        <v>2.86</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="D181">
-        <v>-197.69</v>
+        <v>-203.86</v>
       </c>
       <c r="E181">
-        <v>-14.22</v>
+        <v>-21.79</v>
       </c>
       <c r="F181">
-        <v>-9.64</v>
+        <v>-29.48</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>-1.25</v>
+        <v>-0.42</v>
       </c>
       <c r="B182">
-        <v>1.32</v>
+        <v>0.9</v>
       </c>
       <c r="C182">
-        <v>3.47</v>
+        <v>2.86</v>
       </c>
       <c r="D182">
-        <v>-89.6</v>
+        <v>-197.69</v>
       </c>
       <c r="E182">
-        <v>-13.92</v>
+        <v>-14.22</v>
       </c>
       <c r="F182">
-        <v>31.92</v>
+        <v>-9.64</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>-1.06</v>
+        <v>-1.25</v>
       </c>
       <c r="B183">
-        <v>0.95</v>
+        <v>1.32</v>
       </c>
       <c r="C183">
-        <v>3.1</v>
+        <v>3.47</v>
       </c>
       <c r="D183">
-        <v>7.08</v>
+        <v>-89.6</v>
       </c>
       <c r="E183">
-        <v>1.59</v>
+        <v>-13.92</v>
       </c>
       <c r="F183">
-        <v>19.23</v>
+        <v>31.92</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>-0.5</v>
+        <v>-1.06</v>
       </c>
       <c r="B184">
-        <v>0.41</v>
+        <v>0.95</v>
       </c>
       <c r="C184">
-        <v>2.48</v>
+        <v>3.1</v>
       </c>
       <c r="D184">
-        <v>86.49</v>
+        <v>7.08</v>
       </c>
       <c r="E184">
-        <v>24.23</v>
+        <v>1.59</v>
       </c>
       <c r="F184">
-        <v>8</v>
+        <v>19.23</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>-0.17</v>
+        <v>-0.5</v>
       </c>
       <c r="B185">
-        <v>0.11</v>
+        <v>0.41</v>
       </c>
       <c r="C185">
-        <v>1.9</v>
+        <v>2.48</v>
       </c>
       <c r="D185">
-        <v>122.01</v>
+        <v>86.49</v>
       </c>
       <c r="E185">
-        <v>48.28</v>
+        <v>24.23</v>
       </c>
       <c r="F185">
-        <v>12.33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>-0.14000000000000001</v>
+        <v>-0.17</v>
       </c>
       <c r="B186">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="C186">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="D186">
-        <v>131.04</v>
+        <v>122.01</v>
       </c>
       <c r="E186">
-        <v>56.64</v>
+        <v>48.28</v>
       </c>
       <c r="F186">
-        <v>18.489999999999998</v>
+        <v>12.33</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>-0.18</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="B187">
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
       <c r="C187">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="D187">
-        <v>130.43</v>
+        <v>131.04</v>
       </c>
       <c r="E187">
-        <v>54.32</v>
+        <v>56.64</v>
       </c>
       <c r="F187">
-        <v>31.74</v>
+        <v>18.489999999999998</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>-0.17</v>
+        <v>-0.18</v>
       </c>
       <c r="B188">
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
       <c r="C188">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="D188">
-        <v>130.68</v>
+        <v>130.43</v>
       </c>
       <c r="E188">
-        <v>58.35</v>
+        <v>54.32</v>
       </c>
       <c r="F188">
-        <v>36.380000000000003</v>
+        <v>31.74</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>-0.13</v>
+        <v>-0.17</v>
       </c>
       <c r="B189">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
       <c r="C189">
-        <v>0.45</v>
+        <v>0.73</v>
       </c>
       <c r="D189">
-        <v>125.18</v>
+        <v>130.68</v>
       </c>
       <c r="E189">
-        <v>70.010000000000005</v>
+        <v>58.35</v>
       </c>
       <c r="F189">
-        <v>37.479999999999997</v>
+        <v>36.380000000000003</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>-0.02</v>
+        <v>-0.13</v>
       </c>
       <c r="B190">
-        <v>-0.04</v>
+        <v>0.02</v>
       </c>
       <c r="C190">
-        <v>0.23</v>
+        <v>0.45</v>
       </c>
       <c r="D190">
-        <v>111.76</v>
+        <v>125.18</v>
       </c>
       <c r="E190">
-        <v>77.27</v>
+        <v>70.010000000000005</v>
       </c>
       <c r="F190">
-        <v>39.61</v>
+        <v>37.479999999999997</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191">
-        <v>0.09</v>
+        <v>-0.02</v>
       </c>
       <c r="B191">
-        <v>-0.05</v>
+        <v>-0.04</v>
       </c>
       <c r="C191">
-        <v>0.05</v>
+        <v>0.23</v>
       </c>
       <c r="D191">
-        <v>93.63</v>
+        <v>111.76</v>
       </c>
       <c r="E191">
-        <v>76.66</v>
+        <v>77.27</v>
       </c>
       <c r="F191">
-        <v>36.380000000000003</v>
+        <v>39.61</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192">
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="B192">
-        <v>-0.06</v>
+        <v>-0.05</v>
       </c>
       <c r="C192">
-        <v>-7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="D192">
-        <v>79.349999999999994</v>
+        <v>93.63</v>
       </c>
       <c r="E192">
-        <v>65.12</v>
+        <v>76.66</v>
       </c>
       <c r="F192">
-        <v>29.54</v>
+        <v>36.380000000000003</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193">
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
       <c r="B193">
-        <v>-0.1</v>
+        <v>-0.06</v>
       </c>
       <c r="C193">
-        <v>-0.21</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="D193">
-        <v>67.81</v>
+        <v>79.349999999999994</v>
       </c>
       <c r="E193">
-        <v>44.86</v>
+        <v>65.12</v>
       </c>
       <c r="F193">
-        <v>17.64</v>
+        <v>29.54</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194">
-        <v>0.31</v>
+        <v>0.24</v>
       </c>
       <c r="B194">
-        <v>-0.15</v>
+        <v>-0.1</v>
       </c>
       <c r="C194">
-        <v>-0.35</v>
+        <v>-0.21</v>
       </c>
       <c r="D194">
-        <v>57.07</v>
+        <v>67.81</v>
       </c>
       <c r="E194">
-        <v>15.63</v>
+        <v>44.86</v>
       </c>
       <c r="F194">
-        <v>5.92</v>
+        <v>17.64</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195">
-        <v>0.41</v>
+        <v>0.31</v>
       </c>
       <c r="B195">
-        <v>-0.22</v>
+        <v>-0.15</v>
       </c>
       <c r="C195">
-        <v>-0.6</v>
+        <v>-0.35</v>
       </c>
       <c r="D195">
-        <v>46.69</v>
+        <v>57.07</v>
       </c>
       <c r="E195">
-        <v>-23.25</v>
+        <v>15.63</v>
       </c>
       <c r="F195">
-        <v>-8</v>
+        <v>5.92</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196">
-        <v>0.55000000000000004</v>
+        <v>0.41</v>
       </c>
       <c r="B196">
-        <v>-0.37</v>
+        <v>-0.22</v>
       </c>
       <c r="C196">
-        <v>-0.78</v>
+        <v>-0.6</v>
       </c>
       <c r="D196">
-        <v>27.04</v>
+        <v>46.69</v>
       </c>
       <c r="E196">
-        <v>-91.55</v>
+        <v>-23.25</v>
       </c>
       <c r="F196">
-        <v>-29.6</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197">
-        <v>0.65</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="B197">
-        <v>-0.67</v>
+        <v>-0.37</v>
       </c>
       <c r="C197">
-        <v>-0.72</v>
+        <v>-0.78</v>
       </c>
       <c r="D197">
-        <v>-16.05</v>
+        <v>27.04</v>
       </c>
       <c r="E197">
-        <v>-129.88</v>
+        <v>-91.55</v>
       </c>
       <c r="F197">
-        <v>-45.53</v>
+        <v>-29.6</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198">
-        <v>0.59</v>
+        <v>0.65</v>
       </c>
       <c r="B198">
-        <v>-0.54</v>
+        <v>-0.67</v>
       </c>
       <c r="C198">
-        <v>-0.52</v>
+        <v>-0.72</v>
       </c>
       <c r="D198">
-        <v>-87.1</v>
+        <v>-16.05</v>
       </c>
       <c r="E198">
-        <v>-157.96</v>
+        <v>-129.88</v>
       </c>
       <c r="F198">
-        <v>-60.18</v>
+        <v>-45.53</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199">
-        <v>0.4</v>
+        <v>0.59</v>
       </c>
       <c r="B199">
-        <v>-0.25</v>
+        <v>-0.54</v>
       </c>
       <c r="C199">
-        <v>-0.06</v>
+        <v>-0.52</v>
       </c>
       <c r="D199">
-        <v>-152.4</v>
+        <v>-87.1</v>
       </c>
       <c r="E199">
-        <v>-151.66999999999999</v>
+        <v>-157.96</v>
       </c>
       <c r="F199">
-        <v>-66.59</v>
+        <v>-60.18</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200">
-        <v>0.16</v>
+        <v>0.4</v>
       </c>
       <c r="B200">
-        <v>0.03</v>
+        <v>-0.25</v>
       </c>
       <c r="C200">
-        <v>0.67</v>
+        <v>-0.06</v>
       </c>
       <c r="D200">
-        <v>-204.35</v>
+        <v>-152.4</v>
       </c>
       <c r="E200">
-        <v>-85.45</v>
+        <v>-151.66999999999999</v>
       </c>
       <c r="F200">
-        <v>-78.19</v>
+        <v>-66.59</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201">
-        <v>-0.05</v>
+        <v>0.16</v>
       </c>
       <c r="B201">
-        <v>0.52</v>
+        <v>0.03</v>
       </c>
       <c r="C201">
-        <v>1.53</v>
+        <v>0.67</v>
       </c>
       <c r="D201">
-        <v>-209.47</v>
+        <v>-204.35</v>
       </c>
       <c r="E201">
-        <v>-63.54</v>
+        <v>-85.45</v>
       </c>
       <c r="F201">
-        <v>-72.510000000000005</v>
+        <v>-78.19</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202">
-        <v>-0.38</v>
+        <v>-0.05</v>
       </c>
       <c r="B202">
-        <v>1.07</v>
+        <v>0.52</v>
       </c>
       <c r="C202">
-        <v>2.64</v>
+        <v>1.53</v>
       </c>
       <c r="D202">
-        <v>-199.04</v>
+        <v>-209.47</v>
       </c>
       <c r="E202">
-        <v>-72.14</v>
+        <v>-63.54</v>
       </c>
       <c r="F202">
-        <v>-52.49</v>
+        <v>-72.510000000000005</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203">
-        <v>-1.61</v>
+        <v>-0.38</v>
       </c>
       <c r="B203">
-        <v>1.3</v>
+        <v>1.07</v>
       </c>
       <c r="C203">
-        <v>3.39</v>
+        <v>2.64</v>
       </c>
       <c r="D203">
-        <v>-178.16</v>
+        <v>-199.04</v>
       </c>
       <c r="E203">
-        <v>-59.57</v>
+        <v>-72.14</v>
       </c>
       <c r="F203">
-        <v>-12.39</v>
+        <v>-52.49</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204">
-        <v>-2.3199999999999998</v>
+        <v>-1.61</v>
       </c>
       <c r="B204">
-        <v>1.62</v>
+        <v>1.3</v>
       </c>
       <c r="C204">
-        <v>3.49</v>
+        <v>3.39</v>
       </c>
       <c r="D204">
-        <v>-92.9</v>
+        <v>-178.16</v>
       </c>
       <c r="E204">
-        <v>-22.71</v>
+        <v>-59.57</v>
       </c>
       <c r="F204">
-        <v>37.659999999999997</v>
+        <v>-12.39</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205">
-        <v>-1.57</v>
+        <v>-2.3199999999999998</v>
       </c>
       <c r="B205">
-        <v>1.26</v>
+        <v>1.62</v>
       </c>
       <c r="C205">
-        <v>3.06</v>
+        <v>3.49</v>
       </c>
       <c r="D205">
-        <v>13.37</v>
+        <v>-92.9</v>
       </c>
       <c r="E205">
-        <v>54.32</v>
+        <v>-22.71</v>
       </c>
       <c r="F205">
-        <v>-5.13</v>
+        <v>37.659999999999997</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206">
-        <v>-0.59</v>
+        <v>-1.57</v>
       </c>
       <c r="B206">
-        <v>0.5</v>
+        <v>1.26</v>
       </c>
       <c r="C206">
-        <v>2.1</v>
+        <v>3.06</v>
       </c>
       <c r="D206">
-        <v>116.88</v>
+        <v>13.37</v>
       </c>
       <c r="E206">
-        <v>71.17</v>
+        <v>54.32</v>
       </c>
       <c r="F206">
-        <v>-6.59</v>
+        <v>-5.13</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207">
-        <v>0.1</v>
+        <v>-0.59</v>
       </c>
       <c r="B207">
-        <v>-0.01</v>
+        <v>0.5</v>
       </c>
       <c r="C207">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="D207">
-        <v>134.63999999999999</v>
+        <v>116.88</v>
       </c>
       <c r="E207">
-        <v>85.82</v>
+        <v>71.17</v>
       </c>
       <c r="F207">
-        <v>0.43</v>
+        <v>-6.59</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="B208">
-        <v>-0.02</v>
+        <v>-0.01</v>
       </c>
       <c r="C208">
-        <v>1.19</v>
+        <v>1.6</v>
       </c>
       <c r="D208">
-        <v>128.91</v>
+        <v>134.63999999999999</v>
       </c>
       <c r="E208">
-        <v>72.94</v>
+        <v>85.82</v>
       </c>
       <c r="F208">
-        <v>8</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="B209">
-        <v>0.03</v>
+        <v>-0.02</v>
       </c>
       <c r="C209">
-        <v>0.9</v>
+        <v>1.19</v>
       </c>
       <c r="D209">
-        <v>124.51</v>
+        <v>128.91</v>
       </c>
       <c r="E209">
-        <v>64.27</v>
+        <v>72.94</v>
       </c>
       <c r="F209">
-        <v>21.79</v>
+        <v>8</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210">
-        <v>-0.25</v>
+        <v>-0.2</v>
       </c>
       <c r="B210">
-        <v>-0.02</v>
+        <v>0.03</v>
       </c>
       <c r="C210">
-        <v>0.63</v>
+        <v>0.9</v>
       </c>
       <c r="D210">
-        <v>124.15</v>
+        <v>124.51</v>
       </c>
       <c r="E210">
-        <v>73.61</v>
+        <v>64.27</v>
       </c>
       <c r="F210">
-        <v>25.88</v>
+        <v>21.79</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211">
-        <v>-0.19</v>
+        <v>-0.25</v>
       </c>
       <c r="B211">
-        <v>-0.16</v>
+        <v>-0.02</v>
       </c>
       <c r="C211">
-        <v>0.43</v>
+        <v>0.63</v>
       </c>
       <c r="D211">
-        <v>120.36</v>
+        <v>124.15</v>
       </c>
       <c r="E211">
-        <v>88.01</v>
+        <v>73.61</v>
       </c>
       <c r="F211">
-        <v>20.75</v>
+        <v>25.88</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212">
-        <v>-0.09</v>
+        <v>-0.19</v>
       </c>
       <c r="B212">
-        <v>-0.23</v>
+        <v>-0.16</v>
       </c>
       <c r="C212">
-        <v>0.24</v>
+        <v>0.43</v>
       </c>
       <c r="D212">
-        <v>104.68</v>
+        <v>120.36</v>
       </c>
       <c r="E212">
-        <v>96.5</v>
+        <v>88.01</v>
       </c>
       <c r="F212">
-        <v>23.5</v>
+        <v>20.75</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213">
-        <v>0.01</v>
+        <v>-0.09</v>
       </c>
       <c r="B213">
         <v>-0.23</v>
       </c>
       <c r="C213">
-        <v>0.09</v>
+        <v>0.24</v>
       </c>
       <c r="D213">
-        <v>82.95</v>
+        <v>104.68</v>
       </c>
       <c r="E213">
-        <v>93.51</v>
+        <v>96.5</v>
       </c>
       <c r="F213">
-        <v>27.65</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="B214">
-        <v>-0.2</v>
+        <v>-0.23</v>
       </c>
       <c r="C214">
-        <v>-0.04</v>
+        <v>0.09</v>
       </c>
       <c r="D214">
-        <v>63.05</v>
+        <v>82.95</v>
       </c>
       <c r="E214">
-        <v>78</v>
+        <v>93.51</v>
       </c>
       <c r="F214">
-        <v>25.02</v>
+        <v>27.65</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="B215">
-        <v>-0.18</v>
+        <v>-0.2</v>
       </c>
       <c r="C215">
-        <v>-0.13</v>
+        <v>-0.04</v>
       </c>
       <c r="D215">
-        <v>50.11</v>
+        <v>63.05</v>
       </c>
       <c r="E215">
-        <v>59.75</v>
+        <v>78</v>
       </c>
       <c r="F215">
-        <v>22.28</v>
+        <v>25.02</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216">
-        <v>0.14000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="B216">
-        <v>-0.19</v>
+        <v>-0.18</v>
       </c>
       <c r="C216">
-        <v>-0.23</v>
+        <v>-0.13</v>
       </c>
       <c r="D216">
-        <v>37.479999999999997</v>
+        <v>50.11</v>
       </c>
       <c r="E216">
-        <v>40.28</v>
+        <v>59.75</v>
       </c>
       <c r="F216">
-        <v>16.72</v>
+        <v>22.28</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217">
-        <v>0.18</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="B217">
+        <v>-0.19</v>
+      </c>
+      <c r="C217">
         <v>-0.23</v>
       </c>
-      <c r="C217">
-        <v>-0.36</v>
-      </c>
       <c r="D217">
-        <v>24.11</v>
+        <v>37.479999999999997</v>
       </c>
       <c r="E217">
-        <v>13.92</v>
+        <v>40.28</v>
       </c>
       <c r="F217">
-        <v>1.65</v>
+        <v>16.72</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218">
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
       <c r="B218">
-        <v>-0.3</v>
+        <v>-0.23</v>
       </c>
       <c r="C218">
-        <v>-0.46</v>
+        <v>-0.36</v>
       </c>
       <c r="D218">
-        <v>-4.88</v>
+        <v>24.11</v>
       </c>
       <c r="E218">
-        <v>-43.46</v>
+        <v>13.92</v>
       </c>
       <c r="F218">
-        <v>-22.34</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219">
+        <v>0.24</v>
+      </c>
+      <c r="B219">
+        <v>-0.3</v>
+      </c>
+      <c r="C219">
+        <v>-0.46</v>
+      </c>
+      <c r="D219">
+        <v>-4.88</v>
+      </c>
+      <c r="E219">
+        <v>-43.46</v>
+      </c>
+      <c r="F219">
+        <v>-22.34</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A220">
         <v>0.3</v>
       </c>
-      <c r="B219">
+      <c r="B220">
         <v>-0.38</v>
       </c>
-      <c r="C219">
+      <c r="C220">
         <v>-0.43</v>
       </c>
-      <c r="D219">
+      <c r="D220">
         <v>-35.950000000000003</v>
       </c>
-      <c r="E219">
+      <c r="E220">
         <v>-76.900000000000006</v>
       </c>
-      <c r="F219">
+      <c r="F220">
         <v>-33.08</v>
       </c>
     </row>

--- a/parar.xlsx
+++ b/parar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ximena\Desktop\IABO\Datos sin filtrar\datos_filtrados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1AD5022-59E5-45A9-9728-1F104792492D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93AF0CA0-607F-4EAB-A5A7-C5A51AADA63B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0B5A145C-DE6C-4F8F-BA14-BB3708AD9BFB}"/>
   </bookViews>
@@ -36,26 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>AX</t>
-  </si>
-  <si>
-    <t>AY</t>
-  </si>
-  <si>
-    <t>AZ</t>
-  </si>
-  <si>
-    <t>GX</t>
-  </si>
-  <si>
-    <t>GY</t>
-  </si>
-  <si>
-    <t>GZ</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -405,32 +386,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37447CED-1571-4C56-82A5-326952E22620}">
-  <dimension ref="A1:F220"/>
+  <dimension ref="A1:F219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
+      <c r="A1">
+        <v>0.31</v>
+      </c>
+      <c r="B1">
+        <v>-0.32</v>
+      </c>
+      <c r="C1">
+        <v>-0.48</v>
+      </c>
+      <c r="D1">
+        <v>-8.06</v>
+      </c>
+      <c r="E1">
+        <v>-29.72</v>
+      </c>
+      <c r="F1">
+        <v>-43.46</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -438,1999 +419,1999 @@
         <v>0.31</v>
       </c>
       <c r="B2">
-        <v>-0.32</v>
+        <v>-0.47</v>
       </c>
       <c r="C2">
-        <v>-0.48</v>
+        <v>-0.46</v>
       </c>
       <c r="D2">
-        <v>-8.06</v>
+        <v>-33.57</v>
       </c>
       <c r="E2">
-        <v>-29.72</v>
+        <v>-67.38</v>
       </c>
       <c r="F2">
-        <v>-43.46</v>
+        <v>-59.88</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>0.31</v>
+        <v>0.17</v>
       </c>
       <c r="B3">
-        <v>-0.47</v>
+        <v>-0.6</v>
       </c>
       <c r="C3">
-        <v>-0.46</v>
+        <v>-0.35</v>
       </c>
       <c r="D3">
-        <v>-33.57</v>
+        <v>-79.28</v>
       </c>
       <c r="E3">
-        <v>-67.38</v>
+        <v>-99.61</v>
       </c>
       <c r="F3">
-        <v>-59.88</v>
+        <v>-79.53</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>-0.6</v>
+        <v>-0.59</v>
       </c>
       <c r="C4">
-        <v>-0.35</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="D4">
-        <v>-79.28</v>
+        <v>-139.28</v>
       </c>
       <c r="E4">
-        <v>-99.61</v>
+        <v>-98.57</v>
       </c>
       <c r="F4">
-        <v>-79.53</v>
+        <v>-76.78</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="B5">
-        <v>-0.59</v>
+        <v>-0.19</v>
       </c>
       <c r="C5">
-        <v>-0.14000000000000001</v>
+        <v>0.47</v>
       </c>
       <c r="D5">
-        <v>-139.28</v>
+        <v>-204.77</v>
       </c>
       <c r="E5">
-        <v>-98.57</v>
+        <v>-39.31</v>
       </c>
       <c r="F5">
-        <v>-76.78</v>
+        <v>-46.81</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>0.02</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="B6">
-        <v>-0.19</v>
+        <v>0.19</v>
       </c>
       <c r="C6">
-        <v>0.47</v>
+        <v>1.34</v>
       </c>
       <c r="D6">
-        <v>-204.77</v>
+        <v>-220.58</v>
       </c>
       <c r="E6">
-        <v>-39.31</v>
+        <v>-15.56</v>
       </c>
       <c r="F6">
-        <v>-46.81</v>
+        <v>-41.08</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>7.0000000000000007E-2</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="B7">
-        <v>0.19</v>
+        <v>0.53</v>
       </c>
       <c r="C7">
-        <v>1.34</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="D7">
-        <v>-220.58</v>
+        <v>-212.83</v>
       </c>
       <c r="E7">
-        <v>-15.56</v>
+        <v>-16.72</v>
       </c>
       <c r="F7">
-        <v>-41.08</v>
+        <v>-30.52</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>-7.0000000000000007E-2</v>
+        <v>-0.51</v>
       </c>
       <c r="B8">
-        <v>0.53</v>
+        <v>0.94</v>
       </c>
       <c r="C8">
-        <v>2.5099999999999998</v>
+        <v>3.44</v>
       </c>
       <c r="D8">
-        <v>-212.83</v>
+        <v>-182.98</v>
       </c>
       <c r="E8">
-        <v>-16.72</v>
+        <v>-22.46</v>
       </c>
       <c r="F8">
-        <v>-30.52</v>
+        <v>-11.78</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>-0.51</v>
+        <v>-0.95</v>
       </c>
       <c r="B9">
-        <v>0.94</v>
+        <v>1.33</v>
       </c>
       <c r="C9">
-        <v>3.44</v>
+        <v>3.99</v>
       </c>
       <c r="D9">
-        <v>-182.98</v>
+        <v>-64.45</v>
       </c>
       <c r="E9">
-        <v>-22.46</v>
+        <v>-36.19</v>
       </c>
       <c r="F9">
-        <v>-11.78</v>
+        <v>29.91</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>-0.95</v>
+        <v>-1.03</v>
       </c>
       <c r="B10">
-        <v>1.33</v>
+        <v>0.98</v>
       </c>
       <c r="C10">
-        <v>3.99</v>
+        <v>3.42</v>
       </c>
       <c r="D10">
-        <v>-64.45</v>
+        <v>44.8</v>
       </c>
       <c r="E10">
-        <v>-36.19</v>
+        <v>-8.48</v>
       </c>
       <c r="F10">
-        <v>29.91</v>
+        <v>35.950000000000003</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>-1.03</v>
+        <v>-0.48</v>
       </c>
       <c r="B11">
-        <v>0.98</v>
+        <v>0.4</v>
       </c>
       <c r="C11">
-        <v>3.42</v>
+        <v>2.65</v>
       </c>
       <c r="D11">
-        <v>44.8</v>
+        <v>128.85</v>
       </c>
       <c r="E11">
-        <v>-8.48</v>
+        <v>30.7</v>
       </c>
       <c r="F11">
-        <v>35.950000000000003</v>
+        <v>20.260000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>-0.48</v>
+        <v>-0.04</v>
       </c>
       <c r="B12">
-        <v>0.4</v>
+        <v>0.15</v>
       </c>
       <c r="C12">
-        <v>2.65</v>
+        <v>1.94</v>
       </c>
       <c r="D12">
-        <v>128.85</v>
+        <v>160.71</v>
       </c>
       <c r="E12">
-        <v>30.7</v>
+        <v>60.12</v>
       </c>
       <c r="F12">
-        <v>20.260000000000002</v>
+        <v>20.02</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>-0.04</v>
+        <v>0.06</v>
       </c>
       <c r="B13">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="C13">
-        <v>1.94</v>
+        <v>1.35</v>
       </c>
       <c r="D13">
-        <v>160.71</v>
+        <v>165.53</v>
       </c>
       <c r="E13">
-        <v>60.12</v>
+        <v>68.05</v>
       </c>
       <c r="F13">
-        <v>20.02</v>
+        <v>32.29</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>0.06</v>
+        <v>-0.01</v>
       </c>
       <c r="B14">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
       <c r="C14">
-        <v>1.35</v>
+        <v>0.9</v>
       </c>
       <c r="D14">
-        <v>165.53</v>
+        <v>162.16999999999999</v>
       </c>
       <c r="E14">
-        <v>68.05</v>
+        <v>60.67</v>
       </c>
       <c r="F14">
-        <v>32.29</v>
+        <v>53.77</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>-0.01</v>
+        <v>-0.1</v>
       </c>
       <c r="B15">
-        <v>0.21</v>
+        <v>0.1</v>
       </c>
       <c r="C15">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="D15">
-        <v>162.16999999999999</v>
+        <v>156.80000000000001</v>
       </c>
       <c r="E15">
-        <v>60.67</v>
+        <v>61.4</v>
       </c>
       <c r="F15">
-        <v>53.77</v>
+        <v>54.87</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>-0.1</v>
+        <v>-0.17</v>
       </c>
       <c r="B16">
-        <v>0.1</v>
+        <v>-0.05</v>
       </c>
       <c r="C16">
-        <v>0.5</v>
+        <v>0.18</v>
       </c>
       <c r="D16">
-        <v>156.80000000000001</v>
+        <v>145.94</v>
       </c>
       <c r="E16">
-        <v>61.4</v>
+        <v>70.92</v>
       </c>
       <c r="F16">
-        <v>54.87</v>
+        <v>49.07</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>-0.17</v>
+        <v>-0.2</v>
       </c>
       <c r="B17">
-        <v>-0.05</v>
+        <v>-0.18</v>
       </c>
       <c r="C17">
-        <v>0.18</v>
+        <v>-0.06</v>
       </c>
       <c r="D17">
-        <v>145.94</v>
+        <v>128.6</v>
       </c>
       <c r="E17">
-        <v>70.92</v>
+        <v>88.75</v>
       </c>
       <c r="F17">
-        <v>49.07</v>
+        <v>32.65</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>-0.2</v>
+        <v>-0.12</v>
       </c>
       <c r="B18">
-        <v>-0.18</v>
+        <v>-0.24</v>
       </c>
       <c r="C18">
-        <v>-0.06</v>
+        <v>-0.32</v>
       </c>
       <c r="D18">
-        <v>128.6</v>
+        <v>104.31</v>
       </c>
       <c r="E18">
-        <v>88.75</v>
+        <v>94.54</v>
       </c>
       <c r="F18">
-        <v>32.65</v>
+        <v>12.51</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>-0.12</v>
+        <v>0.08</v>
       </c>
       <c r="B19">
-        <v>-0.24</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="C19">
-        <v>-0.32</v>
+        <v>-0.53</v>
       </c>
       <c r="D19">
-        <v>104.31</v>
+        <v>77.03</v>
       </c>
       <c r="E19">
-        <v>94.54</v>
+        <v>86.85</v>
       </c>
       <c r="F19">
-        <v>12.51</v>
+        <v>-2.62</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>0.08</v>
+        <v>0.22</v>
       </c>
       <c r="B20">
-        <v>-0.28000000000000003</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="C20">
-        <v>-0.53</v>
+        <v>-0.8</v>
       </c>
       <c r="D20">
-        <v>77.03</v>
+        <v>25.7</v>
       </c>
       <c r="E20">
-        <v>86.85</v>
+        <v>43.4</v>
       </c>
       <c r="F20">
-        <v>-2.62</v>
+        <v>-27.04</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>0.22</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="B21">
-        <v>-0.28999999999999998</v>
+        <v>-0.32</v>
       </c>
       <c r="C21">
-        <v>-0.8</v>
+        <v>-0.99</v>
       </c>
       <c r="D21">
-        <v>25.7</v>
+        <v>-4.88</v>
       </c>
       <c r="E21">
-        <v>43.4</v>
+        <v>2.93</v>
       </c>
       <c r="F21">
-        <v>-27.04</v>
+        <v>-27.53</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>0.28999999999999998</v>
+        <v>0.38</v>
       </c>
       <c r="B22">
-        <v>-0.32</v>
+        <v>-0.25</v>
       </c>
       <c r="C22">
         <v>-0.99</v>
       </c>
       <c r="D22">
-        <v>-4.88</v>
+        <v>-36.130000000000003</v>
       </c>
       <c r="E22">
-        <v>2.93</v>
+        <v>-33.08</v>
       </c>
       <c r="F22">
-        <v>-27.53</v>
+        <v>-17.149999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
       <c r="B23">
-        <v>-0.25</v>
+        <v>-0.33</v>
       </c>
       <c r="C23">
-        <v>-0.99</v>
+        <v>-0.91</v>
       </c>
       <c r="D23">
-        <v>-36.130000000000003</v>
+        <v>-64.150000000000006</v>
       </c>
       <c r="E23">
-        <v>-33.08</v>
+        <v>-83.62</v>
       </c>
       <c r="F23">
-        <v>-17.149999999999999</v>
+        <v>-28.2</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>0.4</v>
+        <v>0.31</v>
       </c>
       <c r="B24">
-        <v>-0.33</v>
+        <v>-0.34</v>
       </c>
       <c r="C24">
-        <v>-0.91</v>
+        <v>-0.72</v>
       </c>
       <c r="D24">
-        <v>-64.150000000000006</v>
+        <v>-101.87</v>
       </c>
       <c r="E24">
-        <v>-83.62</v>
+        <v>-124.27</v>
       </c>
       <c r="F24">
-        <v>-28.2</v>
+        <v>-57.13</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>0.31</v>
+        <v>0.13</v>
       </c>
       <c r="B25">
-        <v>-0.34</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="C25">
-        <v>-0.72</v>
+        <v>-0.2</v>
       </c>
       <c r="D25">
-        <v>-101.87</v>
+        <v>-167.66</v>
       </c>
       <c r="E25">
-        <v>-124.27</v>
+        <v>-121.58</v>
       </c>
       <c r="F25">
-        <v>-57.13</v>
+        <v>-59.39</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>0.13</v>
+        <v>-0.01</v>
       </c>
       <c r="B26">
-        <v>-0.28000000000000003</v>
+        <v>-0.05</v>
       </c>
       <c r="C26">
-        <v>-0.2</v>
+        <v>0.38</v>
       </c>
       <c r="D26">
-        <v>-167.66</v>
+        <v>-212.77</v>
       </c>
       <c r="E26">
-        <v>-121.58</v>
+        <v>-85.45</v>
       </c>
       <c r="F26">
-        <v>-59.39</v>
+        <v>-45.1</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>-0.01</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="B27">
-        <v>-0.05</v>
+        <v>0.34</v>
       </c>
       <c r="C27">
-        <v>0.38</v>
+        <v>1.25</v>
       </c>
       <c r="D27">
-        <v>-212.77</v>
+        <v>-241.88</v>
       </c>
       <c r="E27">
-        <v>-85.45</v>
+        <v>-25.88</v>
       </c>
       <c r="F27">
-        <v>-45.1</v>
+        <v>-23.25</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>-7.0000000000000007E-2</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="B28">
-        <v>0.34</v>
+        <v>0.93</v>
       </c>
       <c r="C28">
-        <v>1.25</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="D28">
-        <v>-241.88</v>
+        <v>-242.19</v>
       </c>
       <c r="E28">
-        <v>-25.88</v>
+        <v>-5.13</v>
       </c>
       <c r="F28">
-        <v>-23.25</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>-0.14000000000000001</v>
+        <v>-0.65</v>
       </c>
       <c r="B29">
-        <v>0.93</v>
+        <v>1.46</v>
       </c>
       <c r="C29">
-        <v>2.4500000000000002</v>
+        <v>3.66</v>
       </c>
       <c r="D29">
-        <v>-242.19</v>
+        <v>-217.47</v>
       </c>
       <c r="E29">
-        <v>-5.13</v>
+        <v>-1.83</v>
       </c>
       <c r="F29">
-        <v>0.06</v>
+        <v>30.15</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>-0.65</v>
+        <v>-1.1100000000000001</v>
       </c>
       <c r="B30">
-        <v>1.46</v>
+        <v>1.77</v>
       </c>
       <c r="C30">
-        <v>3.66</v>
+        <v>4</v>
       </c>
       <c r="D30">
-        <v>-217.47</v>
+        <v>-72.14</v>
       </c>
       <c r="E30">
-        <v>-1.83</v>
+        <v>-17.46</v>
       </c>
       <c r="F30">
-        <v>30.15</v>
+        <v>47.55</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>-1.1100000000000001</v>
+        <v>-0.7</v>
       </c>
       <c r="B31">
-        <v>1.77</v>
+        <v>1.01</v>
       </c>
       <c r="C31">
-        <v>4</v>
+        <v>3.49</v>
       </c>
       <c r="D31">
-        <v>-72.14</v>
+        <v>47.42</v>
       </c>
       <c r="E31">
-        <v>-17.46</v>
+        <v>-4.58</v>
       </c>
       <c r="F31">
-        <v>47.55</v>
+        <v>18.920000000000002</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>-0.7</v>
+        <v>-0.08</v>
       </c>
       <c r="B32">
-        <v>1.01</v>
+        <v>0.3</v>
       </c>
       <c r="C32">
-        <v>3.49</v>
+        <v>2.63</v>
       </c>
       <c r="D32">
-        <v>47.42</v>
+        <v>127.99</v>
       </c>
       <c r="E32">
-        <v>-4.58</v>
+        <v>10.19</v>
       </c>
       <c r="F32">
-        <v>18.920000000000002</v>
+        <v>4.58</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>-0.08</v>
+        <v>0.25</v>
       </c>
       <c r="B33">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="C33">
-        <v>2.63</v>
+        <v>1.93</v>
       </c>
       <c r="D33">
-        <v>127.99</v>
+        <v>152.53</v>
       </c>
       <c r="E33">
-        <v>10.19</v>
+        <v>31.86</v>
       </c>
       <c r="F33">
-        <v>4.58</v>
+        <v>10.56</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="B34">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="C34">
-        <v>1.93</v>
+        <v>1.37</v>
       </c>
       <c r="D34">
-        <v>152.53</v>
+        <v>153.69</v>
       </c>
       <c r="E34">
-        <v>31.86</v>
+        <v>35.159999999999997</v>
       </c>
       <c r="F34">
-        <v>10.56</v>
+        <v>22.71</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>0.15</v>
+        <v>-0.03</v>
       </c>
       <c r="B35">
-        <v>0.1</v>
+        <v>0.21</v>
       </c>
       <c r="C35">
-        <v>1.37</v>
+        <v>0.97</v>
       </c>
       <c r="D35">
-        <v>153.69</v>
+        <v>146.91</v>
       </c>
       <c r="E35">
-        <v>35.159999999999997</v>
+        <v>32.590000000000003</v>
       </c>
       <c r="F35">
-        <v>22.71</v>
+        <v>36.99</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>-0.03</v>
+        <v>-0.12</v>
       </c>
       <c r="B36">
-        <v>0.21</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C36">
-        <v>0.97</v>
+        <v>0.63</v>
       </c>
       <c r="D36">
-        <v>146.91</v>
+        <v>143.25</v>
       </c>
       <c r="E36">
-        <v>32.590000000000003</v>
+        <v>43.76</v>
       </c>
       <c r="F36">
-        <v>36.99</v>
+        <v>35.520000000000003</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>-0.12</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="B37">
-        <v>0.14000000000000001</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>0.63</v>
+        <v>0.38</v>
       </c>
       <c r="D37">
-        <v>143.25</v>
+        <v>132.63</v>
       </c>
       <c r="E37">
-        <v>43.76</v>
+        <v>64.510000000000005</v>
       </c>
       <c r="F37">
-        <v>35.520000000000003</v>
+        <v>31.86</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>-0.14000000000000001</v>
+        <v>-0.1</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>-0.06</v>
       </c>
       <c r="C38">
-        <v>0.38</v>
+        <v>0.19</v>
       </c>
       <c r="D38">
-        <v>132.63</v>
+        <v>109.31</v>
       </c>
       <c r="E38">
-        <v>64.510000000000005</v>
+        <v>76.72</v>
       </c>
       <c r="F38">
-        <v>31.86</v>
+        <v>26.79</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>-0.1</v>
+        <v>-0.04</v>
       </c>
       <c r="B39">
-        <v>-0.06</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="C39">
-        <v>0.19</v>
+        <v>0.04</v>
       </c>
       <c r="D39">
-        <v>109.31</v>
+        <v>79.22</v>
       </c>
       <c r="E39">
-        <v>76.72</v>
+        <v>76.48</v>
       </c>
       <c r="F39">
-        <v>26.79</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
+        <v>0</v>
+      </c>
+      <c r="B40">
         <v>-0.04</v>
       </c>
-      <c r="B40">
-        <v>-7.0000000000000007E-2</v>
-      </c>
       <c r="C40">
-        <v>0.04</v>
+        <v>-0.15</v>
       </c>
       <c r="D40">
-        <v>79.22</v>
+        <v>48.77</v>
       </c>
       <c r="E40">
-        <v>76.48</v>
+        <v>71.41</v>
       </c>
       <c r="F40">
-        <v>15.2</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="B41">
-        <v>-0.04</v>
+        <v>-0.01</v>
       </c>
       <c r="C41">
-        <v>-0.15</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="D41">
-        <v>48.77</v>
+        <v>30.4</v>
       </c>
       <c r="E41">
-        <v>71.41</v>
+        <v>64.819999999999993</v>
       </c>
       <c r="F41">
-        <v>1.4</v>
+        <v>-4.7</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="B42">
-        <v>-0.01</v>
+        <v>-0.05</v>
       </c>
       <c r="C42">
-        <v>-0.28999999999999998</v>
+        <v>-0.41</v>
       </c>
       <c r="D42">
-        <v>30.4</v>
+        <v>12.45</v>
       </c>
       <c r="E42">
-        <v>64.819999999999993</v>
+        <v>35.340000000000003</v>
       </c>
       <c r="F42">
-        <v>-4.7</v>
+        <v>-12.76</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
       <c r="B43">
-        <v>-0.05</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="C43">
-        <v>-0.41</v>
+        <v>-0.61</v>
       </c>
       <c r="D43">
-        <v>12.45</v>
+        <v>5.8</v>
       </c>
       <c r="E43">
-        <v>35.340000000000003</v>
+        <v>8.1199999999999992</v>
       </c>
       <c r="F43">
-        <v>-12.76</v>
+        <v>-22.83</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>0.13</v>
+        <v>0.22</v>
       </c>
       <c r="B44">
-        <v>-0.14000000000000001</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="C44">
-        <v>-0.61</v>
+        <v>-0.69</v>
       </c>
       <c r="D44">
-        <v>5.8</v>
+        <v>1.95</v>
       </c>
       <c r="E44">
-        <v>8.1199999999999992</v>
+        <v>-23.01</v>
       </c>
       <c r="F44">
-        <v>-22.83</v>
+        <v>-23.5</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>0.22</v>
+        <v>0.34</v>
       </c>
       <c r="B45">
-        <v>-0.28000000000000003</v>
+        <v>-0.44</v>
       </c>
       <c r="C45">
         <v>-0.69</v>
       </c>
       <c r="D45">
-        <v>1.95</v>
+        <v>-17.760000000000002</v>
       </c>
       <c r="E45">
-        <v>-23.01</v>
+        <v>-68.180000000000007</v>
       </c>
       <c r="F45">
-        <v>-23.5</v>
+        <v>-33.14</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>0.34</v>
+        <v>0.38</v>
       </c>
       <c r="B46">
-        <v>-0.44</v>
+        <v>-0.55000000000000004</v>
       </c>
       <c r="C46">
-        <v>-0.69</v>
+        <v>-0.54</v>
       </c>
       <c r="D46">
-        <v>-17.760000000000002</v>
+        <v>-46.94</v>
       </c>
       <c r="E46">
-        <v>-68.180000000000007</v>
+        <v>-118.84</v>
       </c>
       <c r="F46">
-        <v>-33.14</v>
+        <v>-39.729999999999997</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>0.38</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="B47">
-        <v>-0.55000000000000004</v>
+        <v>-0.59</v>
       </c>
       <c r="C47">
-        <v>-0.54</v>
+        <v>-0.24</v>
       </c>
       <c r="D47">
-        <v>-46.94</v>
+        <v>-101.38</v>
       </c>
       <c r="E47">
-        <v>-118.84</v>
+        <v>-132.75</v>
       </c>
       <c r="F47">
-        <v>-39.729999999999997</v>
+        <v>-50.42</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>0.28000000000000003</v>
+        <v>0.17</v>
       </c>
       <c r="B48">
-        <v>-0.59</v>
+        <v>-0.36</v>
       </c>
       <c r="C48">
-        <v>-0.24</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="D48">
-        <v>-101.38</v>
+        <v>-180.11</v>
       </c>
       <c r="E48">
-        <v>-132.75</v>
+        <v>-72.94</v>
       </c>
       <c r="F48">
-        <v>-50.42</v>
+        <v>-42.91</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
       <c r="B49">
-        <v>-0.36</v>
+        <v>0.04</v>
       </c>
       <c r="C49">
-        <v>0.56999999999999995</v>
+        <v>1.33</v>
       </c>
       <c r="D49">
-        <v>-180.11</v>
+        <v>-212.52</v>
       </c>
       <c r="E49">
-        <v>-72.94</v>
+        <v>-4.3899999999999997</v>
       </c>
       <c r="F49">
-        <v>-42.91</v>
+        <v>-44.74</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>0.11</v>
+        <v>-0.03</v>
       </c>
       <c r="B50">
-        <v>0.04</v>
+        <v>0.35</v>
       </c>
       <c r="C50">
-        <v>1.33</v>
+        <v>2.41</v>
       </c>
       <c r="D50">
-        <v>-212.52</v>
+        <v>-231.93</v>
       </c>
       <c r="E50">
-        <v>-4.3899999999999997</v>
+        <v>33.26</v>
       </c>
       <c r="F50">
-        <v>-44.74</v>
+        <v>-58.72</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>-0.03</v>
+        <v>-0.17</v>
       </c>
       <c r="B51">
-        <v>0.35</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="C51">
-        <v>2.41</v>
+        <v>3.21</v>
       </c>
       <c r="D51">
-        <v>-231.93</v>
+        <v>-206.67</v>
       </c>
       <c r="E51">
-        <v>33.26</v>
+        <v>45.17</v>
       </c>
       <c r="F51">
-        <v>-58.72</v>
+        <v>-27.16</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>-0.17</v>
+        <v>-0.5</v>
       </c>
       <c r="B52">
-        <v>1.1399999999999999</v>
+        <v>1.79</v>
       </c>
       <c r="C52">
-        <v>3.21</v>
+        <v>3.88</v>
       </c>
       <c r="D52">
-        <v>-206.67</v>
+        <v>-117.37</v>
       </c>
       <c r="E52">
-        <v>45.17</v>
+        <v>0.12</v>
       </c>
       <c r="F52">
-        <v>-27.16</v>
+        <v>42.72</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>-0.5</v>
+        <v>-0.85</v>
       </c>
       <c r="B53">
-        <v>1.79</v>
+        <v>1.46</v>
       </c>
       <c r="C53">
-        <v>3.88</v>
+        <v>3.61</v>
       </c>
       <c r="D53">
-        <v>-117.37</v>
+        <v>-12.02</v>
       </c>
       <c r="E53">
-        <v>0.12</v>
+        <v>-33.450000000000003</v>
       </c>
       <c r="F53">
-        <v>42.72</v>
+        <v>62.68</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>-0.85</v>
+        <v>-0.76</v>
       </c>
       <c r="B54">
-        <v>1.46</v>
+        <v>0.74</v>
       </c>
       <c r="C54">
-        <v>3.61</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="D54">
-        <v>-12.02</v>
+        <v>118.1</v>
       </c>
       <c r="E54">
-        <v>-33.450000000000003</v>
+        <v>-13.79</v>
       </c>
       <c r="F54">
-        <v>62.68</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>-0.76</v>
+        <v>-0.05</v>
       </c>
       <c r="B55">
-        <v>0.74</v>
+        <v>0.15</v>
       </c>
       <c r="C55">
-        <v>2.5499999999999998</v>
+        <v>1.86</v>
       </c>
       <c r="D55">
-        <v>118.1</v>
+        <v>145.75</v>
       </c>
       <c r="E55">
-        <v>-13.79</v>
+        <v>27.16</v>
       </c>
       <c r="F55">
-        <v>8</v>
+        <v>23.01</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>-0.05</v>
+        <v>-0.02</v>
       </c>
       <c r="B56">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="C56">
-        <v>1.86</v>
+        <v>1.31</v>
       </c>
       <c r="D56">
-        <v>145.75</v>
+        <v>145.13999999999999</v>
       </c>
       <c r="E56">
-        <v>27.16</v>
+        <v>39.49</v>
       </c>
       <c r="F56">
-        <v>23.01</v>
+        <v>28.99</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>-0.02</v>
+        <v>-0.13</v>
       </c>
       <c r="B57">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="C57">
-        <v>1.31</v>
+        <v>0.87</v>
       </c>
       <c r="D57">
-        <v>145.13999999999999</v>
+        <v>143.31</v>
       </c>
       <c r="E57">
-        <v>39.49</v>
+        <v>38.64</v>
       </c>
       <c r="F57">
-        <v>28.99</v>
+        <v>46.2</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>-0.13</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="B58">
-        <v>0.18</v>
+        <v>0.05</v>
       </c>
       <c r="C58">
-        <v>0.87</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="D58">
-        <v>143.31</v>
+        <v>141.05000000000001</v>
       </c>
       <c r="E58">
-        <v>38.64</v>
+        <v>40.89</v>
       </c>
       <c r="F58">
-        <v>46.2</v>
+        <v>52.55</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>-0.14000000000000001</v>
+        <v>-0.13</v>
       </c>
       <c r="B59">
-        <v>0.05</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="C59">
-        <v>0.56000000000000005</v>
+        <v>0.32</v>
       </c>
       <c r="D59">
-        <v>141.05000000000001</v>
+        <v>129.82</v>
       </c>
       <c r="E59">
-        <v>40.89</v>
+        <v>49.44</v>
       </c>
       <c r="F59">
-        <v>52.55</v>
+        <v>49.8</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>-0.13</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="B60">
-        <v>-7.0000000000000007E-2</v>
+        <v>-0.15</v>
       </c>
       <c r="C60">
-        <v>0.32</v>
+        <v>0.11</v>
       </c>
       <c r="D60">
-        <v>129.82</v>
+        <v>108.7</v>
       </c>
       <c r="E60">
-        <v>49.44</v>
+        <v>60.36</v>
       </c>
       <c r="F60">
-        <v>49.8</v>
+        <v>45.59</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>-7.0000000000000007E-2</v>
+        <v>-0.03</v>
       </c>
       <c r="B61">
-        <v>-0.15</v>
+        <v>-0.17</v>
       </c>
       <c r="C61">
-        <v>0.11</v>
+        <v>-0.05</v>
       </c>
       <c r="D61">
-        <v>108.7</v>
+        <v>80.87</v>
       </c>
       <c r="E61">
-        <v>60.36</v>
+        <v>56.82</v>
       </c>
       <c r="F61">
-        <v>45.59</v>
+        <v>35.28</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>-0.03</v>
+        <v>0</v>
       </c>
       <c r="B62">
         <v>-0.17</v>
       </c>
       <c r="C62">
-        <v>-0.05</v>
+        <v>-0.19</v>
       </c>
       <c r="D62">
-        <v>80.87</v>
+        <v>52.19</v>
       </c>
       <c r="E62">
-        <v>56.82</v>
+        <v>48.89</v>
       </c>
       <c r="F62">
-        <v>35.28</v>
+        <v>20.260000000000002</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="B63">
-        <v>-0.17</v>
+        <v>-0.19</v>
       </c>
       <c r="C63">
-        <v>-0.19</v>
+        <v>-0.35</v>
       </c>
       <c r="D63">
-        <v>52.19</v>
+        <v>26.67</v>
       </c>
       <c r="E63">
-        <v>48.89</v>
+        <v>35.159999999999997</v>
       </c>
       <c r="F63">
-        <v>20.260000000000002</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="B64">
-        <v>-0.19</v>
+        <v>-0.21</v>
       </c>
       <c r="C64">
-        <v>-0.35</v>
+        <v>-0.54</v>
       </c>
       <c r="D64">
-        <v>26.67</v>
+        <v>11.35</v>
       </c>
       <c r="E64">
-        <v>35.159999999999997</v>
+        <v>20.81</v>
       </c>
       <c r="F64">
-        <v>1.77</v>
+        <v>-15.01</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>0.04</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="B65">
-        <v>-0.21</v>
+        <v>-0.25</v>
       </c>
       <c r="C65">
-        <v>-0.54</v>
+        <v>-0.67</v>
       </c>
       <c r="D65">
-        <v>11.35</v>
+        <v>8</v>
       </c>
       <c r="E65">
-        <v>20.81</v>
+        <v>2.99</v>
       </c>
       <c r="F65">
-        <v>-15.01</v>
+        <v>-23.32</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>0.14000000000000001</v>
+        <v>0.38</v>
       </c>
       <c r="B66">
-        <v>-0.25</v>
+        <v>-0.34</v>
       </c>
       <c r="C66">
-        <v>-0.67</v>
+        <v>-0.7</v>
       </c>
       <c r="D66">
-        <v>8</v>
+        <v>-2.69</v>
       </c>
       <c r="E66">
-        <v>2.99</v>
+        <v>-51.51</v>
       </c>
       <c r="F66">
-        <v>-23.32</v>
+        <v>-32.96</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>0.38</v>
+        <v>0.48</v>
       </c>
       <c r="B67">
-        <v>-0.34</v>
+        <v>-0.44</v>
       </c>
       <c r="C67">
-        <v>-0.7</v>
+        <v>-0.48</v>
       </c>
       <c r="D67">
-        <v>-2.69</v>
+        <v>-30.4</v>
       </c>
       <c r="E67">
-        <v>-51.51</v>
+        <v>-102.17</v>
       </c>
       <c r="F67">
-        <v>-32.96</v>
+        <v>-44.37</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>0.48</v>
+        <v>0.39</v>
       </c>
       <c r="B68">
-        <v>-0.44</v>
+        <v>-0.56000000000000005</v>
       </c>
       <c r="C68">
-        <v>-0.48</v>
+        <v>-0.16</v>
       </c>
       <c r="D68">
-        <v>-30.4</v>
+        <v>-83.13</v>
       </c>
       <c r="E68">
-        <v>-102.17</v>
+        <v>-139.47</v>
       </c>
       <c r="F68">
-        <v>-44.37</v>
+        <v>-65.67</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>0.39</v>
+        <v>0.18</v>
       </c>
       <c r="B69">
-        <v>-0.56000000000000005</v>
+        <v>-0.46</v>
       </c>
       <c r="C69">
-        <v>-0.16</v>
+        <v>0.19</v>
       </c>
       <c r="D69">
-        <v>-83.13</v>
+        <v>-151</v>
       </c>
       <c r="E69">
-        <v>-139.47</v>
+        <v>-119.08</v>
       </c>
       <c r="F69">
-        <v>-65.67</v>
+        <v>-68.66</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>0.18</v>
+        <v>0.04</v>
       </c>
       <c r="B70">
-        <v>-0.46</v>
+        <v>-0.04</v>
       </c>
       <c r="C70">
-        <v>0.19</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="D70">
-        <v>-151</v>
+        <v>-195.01</v>
       </c>
       <c r="E70">
-        <v>-119.08</v>
+        <v>-21.97</v>
       </c>
       <c r="F70">
-        <v>-68.66</v>
+        <v>-47.85</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>0.04</v>
+        <v>-0.12</v>
       </c>
       <c r="B71">
-        <v>-0.04</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="C71">
-        <v>1.1299999999999999</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="D71">
-        <v>-195.01</v>
+        <v>-182.31</v>
       </c>
       <c r="E71">
-        <v>-21.97</v>
+        <v>28.56</v>
       </c>
       <c r="F71">
-        <v>-47.85</v>
+        <v>-30.52</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>-0.12</v>
+        <v>-0.33</v>
       </c>
       <c r="B72">
-        <v>0.56999999999999995</v>
+        <v>0.93</v>
       </c>
       <c r="C72">
-        <v>2.5299999999999998</v>
+        <v>3.11</v>
       </c>
       <c r="D72">
-        <v>-182.31</v>
+        <v>-169.13</v>
       </c>
       <c r="E72">
-        <v>28.56</v>
+        <v>50.9</v>
       </c>
       <c r="F72">
-        <v>-30.52</v>
+        <v>-23.19</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>-0.33</v>
+        <v>-0.5</v>
       </c>
       <c r="B73">
-        <v>0.93</v>
+        <v>1.46</v>
       </c>
       <c r="C73">
-        <v>3.11</v>
+        <v>3.56</v>
       </c>
       <c r="D73">
-        <v>-169.13</v>
+        <v>-119.08</v>
       </c>
       <c r="E73">
-        <v>50.9</v>
+        <v>22.09</v>
       </c>
       <c r="F73">
-        <v>-23.19</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>-0.5</v>
+        <v>-0.45</v>
       </c>
       <c r="B74">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="C74">
-        <v>3.56</v>
+        <v>3.47</v>
       </c>
       <c r="D74">
-        <v>-119.08</v>
+        <v>-26.67</v>
       </c>
       <c r="E74">
-        <v>22.09</v>
+        <v>7.2</v>
       </c>
       <c r="F74">
-        <v>-8</v>
+        <v>27.04</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>-0.45</v>
+        <v>-0.39</v>
       </c>
       <c r="B75">
-        <v>1.49</v>
+        <v>0.83</v>
       </c>
       <c r="C75">
-        <v>3.47</v>
+        <v>2.81</v>
       </c>
       <c r="D75">
-        <v>-26.67</v>
+        <v>60.91</v>
       </c>
       <c r="E75">
-        <v>7.2</v>
+        <v>-8.73</v>
       </c>
       <c r="F75">
-        <v>27.04</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>-0.39</v>
+        <v>-0.2</v>
       </c>
       <c r="B76">
-        <v>0.83</v>
+        <v>0.25</v>
       </c>
       <c r="C76">
-        <v>2.81</v>
+        <v>2.23</v>
       </c>
       <c r="D76">
-        <v>60.91</v>
+        <v>115.17</v>
       </c>
       <c r="E76">
-        <v>-8.73</v>
+        <v>-8.85</v>
       </c>
       <c r="F76">
-        <v>1.59</v>
+        <v>-11.29</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>-0.2</v>
+        <v>-0.12</v>
       </c>
       <c r="B77">
-        <v>0.25</v>
+        <v>0.12</v>
       </c>
       <c r="C77">
-        <v>2.23</v>
+        <v>1.39</v>
       </c>
       <c r="D77">
-        <v>115.17</v>
+        <v>127.08</v>
       </c>
       <c r="E77">
-        <v>-8.85</v>
+        <v>12.21</v>
       </c>
       <c r="F77">
-        <v>-11.29</v>
+        <v>2.3199999999999998</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>-0.12</v>
+        <v>-0.33</v>
       </c>
       <c r="B78">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="C78">
-        <v>1.39</v>
+        <v>0.93</v>
       </c>
       <c r="D78">
-        <v>127.08</v>
+        <v>128.85</v>
       </c>
       <c r="E78">
-        <v>12.21</v>
+        <v>25.15</v>
       </c>
       <c r="F78">
-        <v>2.3199999999999998</v>
+        <v>17.82</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>-0.33</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="B79">
-        <v>0.11</v>
+        <v>-0.03</v>
       </c>
       <c r="C79">
-        <v>0.93</v>
+        <v>0.61</v>
       </c>
       <c r="D79">
-        <v>128.85</v>
+        <v>130.62</v>
       </c>
       <c r="E79">
-        <v>25.15</v>
+        <v>39.31</v>
       </c>
       <c r="F79">
-        <v>17.82</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>-0.28999999999999998</v>
+        <v>-0.25</v>
       </c>
       <c r="B80">
-        <v>-0.03</v>
+        <v>-0.19</v>
       </c>
       <c r="C80">
-        <v>0.61</v>
+        <v>0.33</v>
       </c>
       <c r="D80">
-        <v>130.62</v>
+        <v>120.85</v>
       </c>
       <c r="E80">
-        <v>39.31</v>
+        <v>50.48</v>
       </c>
       <c r="F80">
-        <v>30.64</v>
+        <v>33.69</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>-0.25</v>
+        <v>-0.24</v>
       </c>
       <c r="B81">
-        <v>-0.19</v>
+        <v>-0.3</v>
       </c>
       <c r="C81">
-        <v>0.33</v>
+        <v>0.09</v>
       </c>
       <c r="D81">
-        <v>120.85</v>
+        <v>99.55</v>
       </c>
       <c r="E81">
-        <v>50.48</v>
+        <v>65.19</v>
       </c>
       <c r="F81">
-        <v>33.69</v>
+        <v>39.06</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>-0.24</v>
+        <v>-0.2</v>
       </c>
       <c r="B82">
-        <v>-0.3</v>
+        <v>-0.31</v>
       </c>
       <c r="C82">
-        <v>0.09</v>
+        <v>-0.1</v>
       </c>
       <c r="D82">
-        <v>99.55</v>
+        <v>68.540000000000006</v>
       </c>
       <c r="E82">
-        <v>65.19</v>
+        <v>69.03</v>
       </c>
       <c r="F82">
-        <v>39.06</v>
+        <v>36.869999999999997</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>-0.2</v>
+        <v>-0.13</v>
       </c>
       <c r="B83">
-        <v>-0.31</v>
+        <v>-0.3</v>
       </c>
       <c r="C83">
-        <v>-0.1</v>
+        <v>-0.23</v>
       </c>
       <c r="D83">
-        <v>68.540000000000006</v>
+        <v>39.79</v>
       </c>
       <c r="E83">
-        <v>69.03</v>
+        <v>54.08</v>
       </c>
       <c r="F83">
-        <v>36.869999999999997</v>
+        <v>21.42</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>-0.13</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="B84">
-        <v>-0.3</v>
+        <v>-0.34</v>
       </c>
       <c r="C84">
-        <v>-0.23</v>
+        <v>-0.37</v>
       </c>
       <c r="D84">
-        <v>39.79</v>
+        <v>16.72</v>
       </c>
       <c r="E84">
-        <v>54.08</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="F84">
-        <v>21.42</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>-7.0000000000000007E-2</v>
+        <v>-0.03</v>
       </c>
       <c r="B85">
-        <v>-0.34</v>
+        <v>-0.41</v>
       </c>
       <c r="C85">
-        <v>-0.37</v>
+        <v>-0.55000000000000004</v>
       </c>
       <c r="D85">
-        <v>16.72</v>
+        <v>-2.56</v>
       </c>
       <c r="E85">
-        <v>33.200000000000003</v>
+        <v>11.29</v>
       </c>
       <c r="F85">
-        <v>2.56</v>
+        <v>-15.81</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>-0.03</v>
+        <v>0.06</v>
       </c>
       <c r="B86">
-        <v>-0.41</v>
+        <v>-0.5</v>
       </c>
       <c r="C86">
-        <v>-0.55000000000000004</v>
+        <v>-0.73</v>
       </c>
       <c r="D86">
-        <v>-2.56</v>
+        <v>-35.28</v>
       </c>
       <c r="E86">
-        <v>11.29</v>
+        <v>-26.86</v>
       </c>
       <c r="F86">
-        <v>-15.81</v>
+        <v>-38.090000000000003</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>0.06</v>
+        <v>0.21</v>
       </c>
       <c r="B87">
-        <v>-0.5</v>
+        <v>-0.47</v>
       </c>
       <c r="C87">
-        <v>-0.73</v>
+        <v>-0.67</v>
       </c>
       <c r="D87">
-        <v>-35.28</v>
+        <v>-62.99</v>
       </c>
       <c r="E87">
-        <v>-26.86</v>
+        <v>-53.71</v>
       </c>
       <c r="F87">
-        <v>-38.090000000000003</v>
+        <v>-47.97</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>0.21</v>
+        <v>0.42</v>
       </c>
       <c r="B88">
-        <v>-0.47</v>
+        <v>-0.4</v>
       </c>
       <c r="C88">
-        <v>-0.67</v>
+        <v>-0.46</v>
       </c>
       <c r="D88">
-        <v>-62.99</v>
+        <v>-86.18</v>
       </c>
       <c r="E88">
-        <v>-53.71</v>
+        <v>-68.48</v>
       </c>
       <c r="F88">
-        <v>-47.97</v>
+        <v>-34.299999999999997</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>0.42</v>
+        <v>0.53</v>
       </c>
       <c r="B89">
-        <v>-0.4</v>
+        <v>-0.37</v>
       </c>
       <c r="C89">
-        <v>-0.46</v>
+        <v>-0.11</v>
       </c>
       <c r="D89">
-        <v>-86.18</v>
+        <v>-114.44</v>
       </c>
       <c r="E89">
-        <v>-68.48</v>
+        <v>-75.13</v>
       </c>
       <c r="F89">
-        <v>-34.299999999999997</v>
+        <v>-12.7</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>0.53</v>
+        <v>0.3</v>
       </c>
       <c r="B90">
-        <v>-0.37</v>
+        <v>-0.05</v>
       </c>
       <c r="C90">
-        <v>-0.11</v>
+        <v>0.59</v>
       </c>
       <c r="D90">
-        <v>-114.44</v>
+        <v>-179.02</v>
       </c>
       <c r="E90">
-        <v>-75.13</v>
+        <v>-73.73</v>
       </c>
       <c r="F90">
-        <v>-12.7</v>
+        <v>-13.98</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="B91">
-        <v>-0.05</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="C91">
-        <v>0.59</v>
+        <v>1.5</v>
       </c>
       <c r="D91">
-        <v>-179.02</v>
+        <v>-192.75</v>
       </c>
       <c r="E91">
-        <v>-73.73</v>
+        <v>-21.55</v>
       </c>
       <c r="F91">
-        <v>-13.98</v>
+        <v>-7.75</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>0.1</v>
+        <v>-0.15</v>
       </c>
       <c r="B92">
-        <v>0.56000000000000005</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="C92">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="D92">
-        <v>-192.75</v>
+        <v>-179.57</v>
       </c>
       <c r="E92">
-        <v>-21.55</v>
+        <v>36.01</v>
       </c>
       <c r="F92">
-        <v>-7.75</v>
+        <v>7.08</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>-0.15</v>
+        <v>-0.21</v>
       </c>
       <c r="B93">
-        <v>1.1100000000000001</v>
+        <v>1.52</v>
       </c>
       <c r="C93">
-        <v>2.5</v>
+        <v>3.21</v>
       </c>
       <c r="D93">
-        <v>-179.57</v>
+        <v>-125.55</v>
       </c>
       <c r="E93">
-        <v>36.01</v>
+        <v>54.93</v>
       </c>
       <c r="F93">
-        <v>7.08</v>
+        <v>29.3</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>-0.21</v>
+        <v>-0.35</v>
       </c>
       <c r="B94">
-        <v>1.52</v>
+        <v>1.68</v>
       </c>
       <c r="C94">
-        <v>3.21</v>
+        <v>3.5</v>
       </c>
       <c r="D94">
-        <v>-125.55</v>
+        <v>-65.92</v>
       </c>
       <c r="E94">
-        <v>54.93</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="F94">
-        <v>29.3</v>
+        <v>34.42</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>-0.35</v>
+        <v>-0.52</v>
       </c>
       <c r="B95">
-        <v>1.68</v>
+        <v>1.27</v>
       </c>
       <c r="C95">
-        <v>3.5</v>
+        <v>3.18</v>
       </c>
       <c r="D95">
-        <v>-65.92</v>
+        <v>17.46</v>
       </c>
       <c r="E95">
-        <v>2.0099999999999998</v>
+        <v>-29.97</v>
       </c>
       <c r="F95">
-        <v>34.42</v>
+        <v>26.73</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>-0.52</v>
+        <v>-0.39</v>
       </c>
       <c r="B96">
-        <v>1.27</v>
+        <v>0.62</v>
       </c>
       <c r="C96">
-        <v>3.18</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="D96">
-        <v>17.46</v>
+        <v>92.9</v>
       </c>
       <c r="E96">
-        <v>-29.97</v>
+        <v>-23.19</v>
       </c>
       <c r="F96">
-        <v>26.73</v>
+        <v>12.15</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>-0.39</v>
+        <v>-0.13</v>
       </c>
       <c r="B97">
-        <v>0.62</v>
+        <v>0.17</v>
       </c>
       <c r="C97">
-        <v>2.5299999999999998</v>
+        <v>1.73</v>
       </c>
       <c r="D97">
-        <v>92.9</v>
+        <v>137.33000000000001</v>
       </c>
       <c r="E97">
-        <v>-23.19</v>
+        <v>9.4600000000000009</v>
       </c>
       <c r="F97">
-        <v>12.15</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>-0.13</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="B98">
-        <v>0.17</v>
+        <v>0.1</v>
       </c>
       <c r="C98">
-        <v>1.73</v>
+        <v>1.28</v>
       </c>
       <c r="D98">
-        <v>137.33000000000001</v>
+        <v>133.30000000000001</v>
       </c>
       <c r="E98">
-        <v>9.4600000000000009</v>
+        <v>21.85</v>
       </c>
       <c r="F98">
-        <v>10.5</v>
+        <v>17.82</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>-7.0000000000000007E-2</v>
+        <v>-0.21</v>
       </c>
       <c r="B99">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="C99">
-        <v>1.28</v>
+        <v>0.91</v>
       </c>
       <c r="D99">
-        <v>133.30000000000001</v>
+        <v>134.94999999999999</v>
       </c>
       <c r="E99">
-        <v>21.85</v>
+        <v>24.54</v>
       </c>
       <c r="F99">
-        <v>17.82</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>-0.21</v>
+        <v>-0.2</v>
       </c>
       <c r="B100">
-        <v>0.09</v>
+        <v>-0.04</v>
       </c>
       <c r="C100">
-        <v>0.91</v>
+        <v>0.66</v>
       </c>
       <c r="D100">
-        <v>134.94999999999999</v>
+        <v>135.01</v>
       </c>
       <c r="E100">
-        <v>24.54</v>
+        <v>27.71</v>
       </c>
       <c r="F100">
-        <v>33.33</v>
+        <v>41.5</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>-0.2</v>
+        <v>-0.25</v>
       </c>
       <c r="B101">
-        <v>-0.04</v>
+        <v>-0.15</v>
       </c>
       <c r="C101">
-        <v>0.66</v>
+        <v>0.42</v>
       </c>
       <c r="D101">
-        <v>135.01</v>
+        <v>122.38</v>
       </c>
       <c r="E101">
-        <v>27.71</v>
+        <v>33.14</v>
       </c>
       <c r="F101">
-        <v>41.5</v>
+        <v>39.92</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
@@ -2438,2378 +2419,2358 @@
         <v>-0.25</v>
       </c>
       <c r="B102">
-        <v>-0.15</v>
+        <v>-0.2</v>
       </c>
       <c r="C102">
-        <v>0.42</v>
+        <v>0.2</v>
       </c>
       <c r="D102">
-        <v>122.38</v>
+        <v>102.23</v>
       </c>
       <c r="E102">
-        <v>33.14</v>
+        <v>42.66</v>
       </c>
       <c r="F102">
-        <v>39.92</v>
+        <v>43.03</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>-0.25</v>
+        <v>-0.17</v>
       </c>
       <c r="B103">
-        <v>-0.2</v>
+        <v>-0.23</v>
       </c>
       <c r="C103">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="D103">
-        <v>102.23</v>
+        <v>77.7</v>
       </c>
       <c r="E103">
-        <v>42.66</v>
+        <v>44.98</v>
       </c>
       <c r="F103">
-        <v>43.03</v>
+        <v>43.21</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>-0.17</v>
+        <v>-0.06</v>
       </c>
       <c r="B104">
-        <v>-0.23</v>
+        <v>-0.24</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.19</v>
       </c>
       <c r="D104">
-        <v>77.7</v>
+        <v>52.92</v>
       </c>
       <c r="E104">
-        <v>44.98</v>
+        <v>35.03</v>
       </c>
       <c r="F104">
-        <v>43.21</v>
+        <v>36.32</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>-0.06</v>
+        <v>0.01</v>
       </c>
       <c r="B105">
-        <v>-0.24</v>
+        <v>-0.26</v>
       </c>
       <c r="C105">
-        <v>-0.19</v>
+        <v>-0.35</v>
       </c>
       <c r="D105">
-        <v>52.92</v>
+        <v>30.88</v>
       </c>
       <c r="E105">
-        <v>35.03</v>
+        <v>16.66</v>
       </c>
       <c r="F105">
-        <v>36.32</v>
+        <v>29.6</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>0.01</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="B106">
-        <v>-0.26</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="C106">
-        <v>-0.35</v>
+        <v>-0.48</v>
       </c>
       <c r="D106">
-        <v>30.88</v>
+        <v>8.7899999999999991</v>
       </c>
       <c r="E106">
-        <v>16.66</v>
+        <v>-7.45</v>
       </c>
       <c r="F106">
-        <v>29.6</v>
+        <v>16.97</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>7.0000000000000007E-2</v>
+        <v>0.12</v>
       </c>
       <c r="B107">
-        <v>-0.28999999999999998</v>
+        <v>-0.33</v>
       </c>
       <c r="C107">
-        <v>-0.48</v>
+        <v>-0.56000000000000005</v>
       </c>
       <c r="D107">
-        <v>8.7899999999999991</v>
+        <v>-27.83</v>
       </c>
       <c r="E107">
-        <v>-7.45</v>
+        <v>-42.6</v>
       </c>
       <c r="F107">
-        <v>16.97</v>
+        <v>-7.02</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>0.12</v>
+        <v>0.26</v>
       </c>
       <c r="B108">
-        <v>-0.33</v>
+        <v>-0.42</v>
       </c>
       <c r="C108">
-        <v>-0.56000000000000005</v>
+        <v>-0.44</v>
       </c>
       <c r="D108">
-        <v>-27.83</v>
+        <v>-57.74</v>
       </c>
       <c r="E108">
-        <v>-42.6</v>
+        <v>-56.82</v>
       </c>
       <c r="F108">
-        <v>-7.02</v>
+        <v>-21.91</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>0.26</v>
+        <v>0.4</v>
       </c>
       <c r="B109">
-        <v>-0.42</v>
+        <v>-0.44</v>
       </c>
       <c r="C109">
-        <v>-0.44</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="D109">
-        <v>-57.74</v>
+        <v>-93.99</v>
       </c>
       <c r="E109">
-        <v>-56.82</v>
+        <v>-59.69</v>
       </c>
       <c r="F109">
-        <v>-21.91</v>
+        <v>-30.64</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>0.4</v>
+        <v>0.51</v>
       </c>
       <c r="B110">
-        <v>-0.44</v>
+        <v>-0.37</v>
       </c>
       <c r="C110">
-        <v>-0.28999999999999998</v>
+        <v>0.02</v>
       </c>
       <c r="D110">
-        <v>-93.99</v>
+        <v>-133.18</v>
       </c>
       <c r="E110">
-        <v>-59.69</v>
+        <v>-53.22</v>
       </c>
       <c r="F110">
-        <v>-30.64</v>
+        <v>-33.75</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>0.51</v>
+        <v>0.47</v>
       </c>
       <c r="B111">
-        <v>-0.37</v>
+        <v>-0.18</v>
       </c>
       <c r="C111">
-        <v>0.02</v>
+        <v>0.43</v>
       </c>
       <c r="D111">
-        <v>-133.18</v>
+        <v>-185.36</v>
       </c>
       <c r="E111">
-        <v>-53.22</v>
+        <v>-18.489999999999998</v>
       </c>
       <c r="F111">
-        <v>-33.75</v>
+        <v>-43.95</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>0.47</v>
+        <v>0.26</v>
       </c>
       <c r="B112">
-        <v>-0.18</v>
+        <v>0.35</v>
       </c>
       <c r="C112">
-        <v>0.43</v>
+        <v>1.51</v>
       </c>
       <c r="D112">
-        <v>-185.36</v>
+        <v>-184.27</v>
       </c>
       <c r="E112">
-        <v>-18.489999999999998</v>
+        <v>10.130000000000001</v>
       </c>
       <c r="F112">
-        <v>-43.95</v>
+        <v>-54.81</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>0.26</v>
+        <v>0.12</v>
       </c>
       <c r="B113">
-        <v>0.35</v>
+        <v>0.85</v>
       </c>
       <c r="C113">
-        <v>1.51</v>
+        <v>2.21</v>
       </c>
       <c r="D113">
-        <v>-184.27</v>
+        <v>-180.91</v>
       </c>
       <c r="E113">
-        <v>10.130000000000001</v>
+        <v>37.229999999999997</v>
       </c>
       <c r="F113">
-        <v>-54.81</v>
+        <v>-41.02</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>0.12</v>
+        <v>-0.12</v>
       </c>
       <c r="B114">
-        <v>0.85</v>
+        <v>1.37</v>
       </c>
       <c r="C114">
-        <v>2.21</v>
+        <v>2.87</v>
       </c>
       <c r="D114">
-        <v>-180.91</v>
+        <v>-135.99</v>
       </c>
       <c r="E114">
-        <v>37.229999999999997</v>
+        <v>15.56</v>
       </c>
       <c r="F114">
-        <v>-41.02</v>
+        <v>-12.21</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>-0.12</v>
+        <v>-0.53</v>
       </c>
       <c r="B115">
-        <v>1.37</v>
+        <v>1.62</v>
       </c>
       <c r="C115">
-        <v>2.87</v>
+        <v>3.24</v>
       </c>
       <c r="D115">
-        <v>-135.99</v>
+        <v>-68.66</v>
       </c>
       <c r="E115">
-        <v>15.56</v>
+        <v>-23.25</v>
       </c>
       <c r="F115">
-        <v>-12.21</v>
+        <v>29.05</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>-0.53</v>
+        <v>-0.87</v>
       </c>
       <c r="B116">
-        <v>1.62</v>
+        <v>1.39</v>
       </c>
       <c r="C116">
-        <v>3.24</v>
+        <v>2.91</v>
       </c>
       <c r="D116">
-        <v>-68.66</v>
+        <v>1.46</v>
       </c>
       <c r="E116">
-        <v>-23.25</v>
+        <v>-46.88</v>
       </c>
       <c r="F116">
-        <v>29.05</v>
+        <v>26.06</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>-0.87</v>
+        <v>-0.76</v>
       </c>
       <c r="B117">
-        <v>1.39</v>
+        <v>0.83</v>
       </c>
       <c r="C117">
-        <v>2.91</v>
+        <v>2.35</v>
       </c>
       <c r="D117">
-        <v>1.46</v>
+        <v>73.55</v>
       </c>
       <c r="E117">
-        <v>-46.88</v>
+        <v>-38.76</v>
       </c>
       <c r="F117">
-        <v>26.06</v>
+        <v>-0.24</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>-0.76</v>
+        <v>-0.34</v>
       </c>
       <c r="B118">
-        <v>0.83</v>
+        <v>0.34</v>
       </c>
       <c r="C118">
-        <v>2.35</v>
+        <v>1.89</v>
       </c>
       <c r="D118">
-        <v>73.55</v>
+        <v>115.97</v>
       </c>
       <c r="E118">
-        <v>-38.76</v>
+        <v>2.87</v>
       </c>
       <c r="F118">
-        <v>-0.24</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>-0.34</v>
+        <v>-0.17</v>
       </c>
       <c r="B119">
-        <v>0.34</v>
+        <v>0.12</v>
       </c>
       <c r="C119">
-        <v>1.89</v>
+        <v>1.44</v>
       </c>
       <c r="D119">
-        <v>115.97</v>
+        <v>126.83</v>
       </c>
       <c r="E119">
-        <v>2.87</v>
+        <v>33.39</v>
       </c>
       <c r="F119">
-        <v>2.69</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>-0.17</v>
+        <v>-0.19</v>
       </c>
       <c r="B120">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="C120">
-        <v>1.44</v>
+        <v>1.08</v>
       </c>
       <c r="D120">
-        <v>126.83</v>
+        <v>121.46</v>
       </c>
       <c r="E120">
-        <v>33.39</v>
+        <v>36.869999999999997</v>
       </c>
       <c r="F120">
-        <v>2.93</v>
+        <v>12.94</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>-0.19</v>
+        <v>-0.18</v>
       </c>
       <c r="B121">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="C121">
-        <v>1.08</v>
+        <v>0.85</v>
       </c>
       <c r="D121">
-        <v>121.46</v>
+        <v>122.07</v>
       </c>
       <c r="E121">
-        <v>36.869999999999997</v>
+        <v>29.05</v>
       </c>
       <c r="F121">
-        <v>12.94</v>
+        <v>27.59</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>-0.18</v>
+        <v>-0.2</v>
       </c>
       <c r="B122">
-        <v>0.17</v>
+        <v>0.05</v>
       </c>
       <c r="C122">
-        <v>0.85</v>
+        <v>0.68</v>
       </c>
       <c r="D122">
-        <v>122.07</v>
+        <v>122.44</v>
       </c>
       <c r="E122">
-        <v>29.05</v>
+        <v>28.08</v>
       </c>
       <c r="F122">
-        <v>27.59</v>
+        <v>24.11</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>-0.2</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="B123">
-        <v>0.05</v>
+        <v>-0.09</v>
       </c>
       <c r="C123">
-        <v>0.68</v>
+        <v>0.5</v>
       </c>
       <c r="D123">
-        <v>122.44</v>
+        <v>109.07</v>
       </c>
       <c r="E123">
-        <v>28.08</v>
+        <v>39.67</v>
       </c>
       <c r="F123">
-        <v>24.11</v>
+        <v>18.43</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>-0.28999999999999998</v>
+        <v>-0.24</v>
       </c>
       <c r="B124">
-        <v>-0.09</v>
+        <v>-0.16</v>
       </c>
       <c r="C124">
-        <v>0.5</v>
+        <v>0.32</v>
       </c>
       <c r="D124">
-        <v>109.07</v>
+        <v>91.61</v>
       </c>
       <c r="E124">
-        <v>39.67</v>
+        <v>53.53</v>
       </c>
       <c r="F124">
-        <v>18.43</v>
+        <v>14.34</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>-0.24</v>
+        <v>-0.04</v>
       </c>
       <c r="B125">
-        <v>-0.16</v>
+        <v>-0.2</v>
       </c>
       <c r="C125">
-        <v>0.32</v>
+        <v>0.19</v>
       </c>
       <c r="D125">
-        <v>91.61</v>
+        <v>78.55</v>
       </c>
       <c r="E125">
-        <v>53.53</v>
+        <v>57.01</v>
       </c>
       <c r="F125">
-        <v>14.34</v>
+        <v>13.43</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>-0.04</v>
+        <v>0.12</v>
       </c>
       <c r="B126">
-        <v>-0.2</v>
+        <v>-0.26</v>
       </c>
       <c r="C126">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="D126">
-        <v>78.55</v>
+        <v>66.59</v>
       </c>
       <c r="E126">
-        <v>57.01</v>
+        <v>42.24</v>
       </c>
       <c r="F126">
-        <v>13.43</v>
+        <v>10.25</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>0.12</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="B127">
-        <v>-0.26</v>
+        <v>-0.34</v>
       </c>
       <c r="C127">
-        <v>0.09</v>
+        <v>-0.02</v>
       </c>
       <c r="D127">
-        <v>66.59</v>
+        <v>52.25</v>
       </c>
       <c r="E127">
-        <v>42.24</v>
+        <v>21.91</v>
       </c>
       <c r="F127">
-        <v>10.25</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>0.14000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="B128">
-        <v>-0.34</v>
+        <v>-0.4</v>
       </c>
       <c r="C128">
-        <v>-0.02</v>
+        <v>-0.11</v>
       </c>
       <c r="D128">
-        <v>52.25</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="E128">
-        <v>21.91</v>
+        <v>5</v>
       </c>
       <c r="F128">
-        <v>7.2</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>0.13</v>
+        <v>0.18</v>
       </c>
       <c r="B129">
-        <v>-0.4</v>
+        <v>-0.43</v>
       </c>
       <c r="C129">
-        <v>-0.11</v>
+        <v>-0.18</v>
       </c>
       <c r="D129">
-        <v>36.799999999999997</v>
+        <v>21.24</v>
       </c>
       <c r="E129">
-        <v>5</v>
+        <v>-9.0299999999999994</v>
       </c>
       <c r="F129">
-        <v>6.1</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>0.18</v>
+        <v>0.32</v>
       </c>
       <c r="B130">
-        <v>-0.43</v>
+        <v>-0.44</v>
       </c>
       <c r="C130">
-        <v>-0.18</v>
+        <v>-0.3</v>
       </c>
       <c r="D130">
-        <v>21.24</v>
+        <v>4.58</v>
       </c>
       <c r="E130">
-        <v>-9.0299999999999994</v>
+        <v>-24.35</v>
       </c>
       <c r="F130">
-        <v>1.1599999999999999</v>
+        <v>-4.88</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>0.32</v>
+        <v>0.46</v>
       </c>
       <c r="B131">
-        <v>-0.44</v>
+        <v>-0.5</v>
       </c>
       <c r="C131">
-        <v>-0.3</v>
+        <v>-0.34</v>
       </c>
       <c r="D131">
-        <v>4.58</v>
+        <v>-7.51</v>
       </c>
       <c r="E131">
-        <v>-24.35</v>
+        <v>-46.45</v>
       </c>
       <c r="F131">
-        <v>-4.88</v>
+        <v>-8.73</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="B132">
-        <v>-0.5</v>
+        <v>-0.63</v>
       </c>
       <c r="C132">
-        <v>-0.34</v>
+        <v>-0.13</v>
       </c>
       <c r="D132">
-        <v>-7.51</v>
+        <v>-50.17</v>
       </c>
       <c r="E132">
-        <v>-46.45</v>
+        <v>-83.19</v>
       </c>
       <c r="F132">
-        <v>-8.73</v>
+        <v>-20.39</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>0.45</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="B133">
-        <v>-0.63</v>
+        <v>-0.6</v>
       </c>
       <c r="C133">
-        <v>-0.13</v>
+        <v>0.05</v>
       </c>
       <c r="D133">
-        <v>-50.17</v>
+        <v>-103.7</v>
       </c>
       <c r="E133">
-        <v>-83.19</v>
+        <v>-85.57</v>
       </c>
       <c r="F133">
-        <v>-20.39</v>
+        <v>-27.59</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>0.28999999999999998</v>
+        <v>0.2</v>
       </c>
       <c r="B134">
-        <v>-0.6</v>
+        <v>-0.33</v>
       </c>
       <c r="C134">
-        <v>0.05</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="D134">
-        <v>-103.7</v>
+        <v>-154.41999999999999</v>
       </c>
       <c r="E134">
-        <v>-85.57</v>
+        <v>-55.91</v>
       </c>
       <c r="F134">
-        <v>-27.59</v>
+        <v>-25.09</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="B135">
-        <v>-0.33</v>
+        <v>0.08</v>
       </c>
       <c r="C135">
-        <v>0.28000000000000003</v>
+        <v>0.89</v>
       </c>
       <c r="D135">
-        <v>-154.41999999999999</v>
+        <v>-177.06</v>
       </c>
       <c r="E135">
-        <v>-55.91</v>
+        <v>-19.78</v>
       </c>
       <c r="F135">
-        <v>-25.09</v>
+        <v>-15.32</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>0.16</v>
+        <v>0.01</v>
       </c>
       <c r="B136">
-        <v>0.08</v>
+        <v>0.51</v>
       </c>
       <c r="C136">
-        <v>0.89</v>
+        <v>1.81</v>
       </c>
       <c r="D136">
-        <v>-177.06</v>
+        <v>-183.41</v>
       </c>
       <c r="E136">
-        <v>-19.78</v>
+        <v>6.96</v>
       </c>
       <c r="F136">
-        <v>-15.32</v>
+        <v>-16.72</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>0.01</v>
+        <v>-0.36</v>
       </c>
       <c r="B137">
-        <v>0.51</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="C137">
-        <v>1.81</v>
+        <v>2.57</v>
       </c>
       <c r="D137">
-        <v>-183.41</v>
+        <v>-140.93</v>
       </c>
       <c r="E137">
-        <v>6.96</v>
+        <v>1.22</v>
       </c>
       <c r="F137">
-        <v>-16.72</v>
+        <v>11.35</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>-0.36</v>
+        <v>-1.05</v>
       </c>
       <c r="B138">
-        <v>1.1399999999999999</v>
+        <v>1.76</v>
       </c>
       <c r="C138">
-        <v>2.57</v>
+        <v>3.26</v>
       </c>
       <c r="D138">
-        <v>-140.93</v>
+        <v>-66.89</v>
       </c>
       <c r="E138">
-        <v>1.22</v>
+        <v>-14.47</v>
       </c>
       <c r="F138">
-        <v>11.35</v>
+        <v>69.7</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>-1.05</v>
+        <v>-1.08</v>
       </c>
       <c r="B139">
-        <v>1.76</v>
+        <v>1.26</v>
       </c>
       <c r="C139">
-        <v>3.26</v>
+        <v>2.99</v>
       </c>
       <c r="D139">
-        <v>-66.89</v>
+        <v>18.62</v>
       </c>
       <c r="E139">
-        <v>-14.47</v>
+        <v>-20.81</v>
       </c>
       <c r="F139">
-        <v>69.7</v>
+        <v>57.8</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>-1.08</v>
+        <v>-0.54</v>
       </c>
       <c r="B140">
-        <v>1.26</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="C140">
-        <v>2.99</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="D140">
-        <v>18.62</v>
+        <v>92.1</v>
       </c>
       <c r="E140">
-        <v>-20.81</v>
+        <v>-5.07</v>
       </c>
       <c r="F140">
-        <v>57.8</v>
+        <v>27.71</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>-0.54</v>
+        <v>-0.02</v>
       </c>
       <c r="B141">
-        <v>0.56000000000000005</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C141">
-        <v>2.4300000000000002</v>
+        <v>1.96</v>
       </c>
       <c r="D141">
-        <v>92.1</v>
+        <v>120.67</v>
       </c>
       <c r="E141">
-        <v>-5.07</v>
+        <v>18.920000000000002</v>
       </c>
       <c r="F141">
-        <v>27.71</v>
+        <v>33.81</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>-0.02</v>
+        <v>0.08</v>
       </c>
       <c r="B142">
-        <v>7.0000000000000007E-2</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="C142">
-        <v>1.96</v>
+        <v>1.36</v>
       </c>
       <c r="D142">
-        <v>120.67</v>
+        <v>116.76</v>
       </c>
       <c r="E142">
-        <v>18.920000000000002</v>
+        <v>30.03</v>
       </c>
       <c r="F142">
-        <v>33.81</v>
+        <v>41.63</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>0.08</v>
+        <v>-0.1</v>
       </c>
       <c r="B143">
-        <v>-7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="C143">
-        <v>1.36</v>
+        <v>1</v>
       </c>
       <c r="D143">
-        <v>116.76</v>
+        <v>106.26</v>
       </c>
       <c r="E143">
-        <v>30.03</v>
+        <v>27.04</v>
       </c>
       <c r="F143">
-        <v>41.63</v>
+        <v>51.7</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="B144">
         <v>0</v>
       </c>
       <c r="C144">
-        <v>1</v>
+        <v>0.77</v>
       </c>
       <c r="D144">
-        <v>106.26</v>
+        <v>104.37</v>
       </c>
       <c r="E144">
-        <v>27.04</v>
+        <v>31.13</v>
       </c>
       <c r="F144">
-        <v>51.7</v>
+        <v>63.11</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>-0.2</v>
+        <v>-0.22</v>
       </c>
       <c r="B145">
-        <v>0</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="C145">
-        <v>0.77</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="D145">
-        <v>104.37</v>
+        <v>102.42</v>
       </c>
       <c r="E145">
-        <v>31.13</v>
+        <v>47.06</v>
       </c>
       <c r="F145">
-        <v>63.11</v>
+        <v>48.95</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>-0.22</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="B146">
-        <v>-0.14000000000000001</v>
+        <v>-0.26</v>
       </c>
       <c r="C146">
-        <v>0.57999999999999996</v>
+        <v>0.37</v>
       </c>
       <c r="D146">
-        <v>102.42</v>
+        <v>91.74</v>
       </c>
       <c r="E146">
-        <v>47.06</v>
+        <v>77.209999999999994</v>
       </c>
       <c r="F146">
-        <v>48.95</v>
+        <v>34.61</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>-0.14000000000000001</v>
+        <v>0</v>
       </c>
       <c r="B147">
-        <v>-0.26</v>
+        <v>-0.31</v>
       </c>
       <c r="C147">
-        <v>0.37</v>
+        <v>0.24</v>
       </c>
       <c r="D147">
-        <v>91.74</v>
+        <v>72.2</v>
       </c>
       <c r="E147">
-        <v>77.209999999999994</v>
+        <v>95.58</v>
       </c>
       <c r="F147">
-        <v>34.61</v>
+        <v>26.92</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="B148">
-        <v>-0.31</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="C148">
-        <v>0.24</v>
+        <v>0.11</v>
       </c>
       <c r="D148">
-        <v>72.2</v>
+        <v>52.06</v>
       </c>
       <c r="E148">
-        <v>95.58</v>
+        <v>97.23</v>
       </c>
       <c r="F148">
-        <v>26.92</v>
+        <v>12.02</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>0.13</v>
+        <v>0.21</v>
       </c>
       <c r="B149">
-        <v>-0.28999999999999998</v>
+        <v>-0.25</v>
       </c>
       <c r="C149">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="D149">
-        <v>52.06</v>
+        <v>37.049999999999997</v>
       </c>
       <c r="E149">
-        <v>97.23</v>
+        <v>86.73</v>
       </c>
       <c r="F149">
-        <v>12.02</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>0.21</v>
+        <v>0.26</v>
       </c>
       <c r="B150">
-        <v>-0.25</v>
+        <v>-0.24</v>
       </c>
       <c r="C150">
-        <v>0.01</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="D150">
-        <v>37.049999999999997</v>
+        <v>25.88</v>
       </c>
       <c r="E150">
-        <v>86.73</v>
+        <v>68.97</v>
       </c>
       <c r="F150">
-        <v>0.12</v>
+        <v>-5.55</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>0.26</v>
+        <v>0.23</v>
       </c>
       <c r="B151">
         <v>-0.24</v>
       </c>
       <c r="C151">
-        <v>-0.14000000000000001</v>
+        <v>-0.42</v>
       </c>
       <c r="D151">
-        <v>25.88</v>
+        <v>10.56</v>
       </c>
       <c r="E151">
-        <v>68.97</v>
+        <v>14.28</v>
       </c>
       <c r="F151">
-        <v>-5.55</v>
+        <v>-30.7</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="B152">
-        <v>-0.24</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="C152">
-        <v>-0.42</v>
+        <v>-0.51</v>
       </c>
       <c r="D152">
-        <v>10.56</v>
+        <v>-1.22</v>
       </c>
       <c r="E152">
-        <v>14.28</v>
+        <v>-24.54</v>
       </c>
       <c r="F152">
-        <v>-30.7</v>
+        <v>-38.450000000000003</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>0.21</v>
+        <v>0.18</v>
       </c>
       <c r="B153">
-        <v>-0.28000000000000003</v>
+        <v>-0.35</v>
       </c>
       <c r="C153">
-        <v>-0.51</v>
+        <v>-0.49</v>
       </c>
       <c r="D153">
-        <v>-1.22</v>
+        <v>-21.61</v>
       </c>
       <c r="E153">
-        <v>-24.54</v>
+        <v>-62.74</v>
       </c>
       <c r="F153">
-        <v>-38.450000000000003</v>
+        <v>-46.02</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="B154">
-        <v>-0.35</v>
+        <v>-0.36</v>
       </c>
       <c r="C154">
-        <v>-0.49</v>
+        <v>-0.46</v>
       </c>
       <c r="D154">
-        <v>-21.61</v>
+        <v>-55.48</v>
       </c>
       <c r="E154">
-        <v>-62.74</v>
+        <v>-93.51</v>
       </c>
       <c r="F154">
-        <v>-46.02</v>
+        <v>-54.69</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>0.09</v>
+        <v>0.03</v>
       </c>
       <c r="B155">
-        <v>-0.36</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="C155">
-        <v>-0.46</v>
+        <v>-0.37</v>
       </c>
       <c r="D155">
-        <v>-55.48</v>
+        <v>-106.87</v>
       </c>
       <c r="E155">
-        <v>-93.51</v>
+        <v>-94.24</v>
       </c>
       <c r="F155">
-        <v>-54.69</v>
+        <v>-41.75</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>0.03</v>
+        <v>0.12</v>
       </c>
       <c r="B156">
-        <v>-0.28999999999999998</v>
+        <v>-0.12</v>
       </c>
       <c r="C156">
-        <v>-0.37</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="D156">
-        <v>-106.87</v>
+        <v>-127.26</v>
       </c>
       <c r="E156">
-        <v>-94.24</v>
+        <v>-81.3</v>
       </c>
       <c r="F156">
-        <v>-41.75</v>
+        <v>-15.69</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="B157">
-        <v>-0.12</v>
+        <v>-0.01</v>
       </c>
       <c r="C157">
-        <v>0.28000000000000003</v>
+        <v>0.86</v>
       </c>
       <c r="D157">
-        <v>-127.26</v>
+        <v>-163.88</v>
       </c>
       <c r="E157">
-        <v>-81.3</v>
+        <v>-77.27</v>
       </c>
       <c r="F157">
-        <v>-15.69</v>
+        <v>10.93</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>0.1</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="B158">
-        <v>-0.01</v>
+        <v>0.38</v>
       </c>
       <c r="C158">
-        <v>0.86</v>
+        <v>1.58</v>
       </c>
       <c r="D158">
-        <v>-163.88</v>
+        <v>-191.96</v>
       </c>
       <c r="E158">
-        <v>-77.27</v>
+        <v>-50.35</v>
       </c>
       <c r="F158">
-        <v>10.93</v>
+        <v>-0.92</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>-0.14000000000000001</v>
+        <v>-0.62</v>
       </c>
       <c r="B159">
-        <v>0.38</v>
+        <v>0.95</v>
       </c>
       <c r="C159">
-        <v>1.58</v>
+        <v>2.67</v>
       </c>
       <c r="D159">
-        <v>-191.96</v>
+        <v>-191.1</v>
       </c>
       <c r="E159">
-        <v>-50.35</v>
+        <v>-23.07</v>
       </c>
       <c r="F159">
-        <v>-0.92</v>
+        <v>12.15</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>-0.62</v>
+        <v>-0.92</v>
       </c>
       <c r="B160">
-        <v>0.95</v>
+        <v>1.36</v>
       </c>
       <c r="C160">
-        <v>2.67</v>
+        <v>3.63</v>
       </c>
       <c r="D160">
-        <v>-191.1</v>
+        <v>-104.49</v>
       </c>
       <c r="E160">
-        <v>-23.07</v>
+        <v>-10.99</v>
       </c>
       <c r="F160">
-        <v>12.15</v>
+        <v>16.600000000000001</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>-0.92</v>
+        <v>-0.84</v>
       </c>
       <c r="B161">
-        <v>1.36</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="C161">
-        <v>3.63</v>
+        <v>3.51</v>
       </c>
       <c r="D161">
-        <v>-104.49</v>
+        <v>-14.83</v>
       </c>
       <c r="E161">
-        <v>-10.99</v>
+        <v>-17.09</v>
       </c>
       <c r="F161">
-        <v>16.600000000000001</v>
+        <v>6.65</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>-0.84</v>
+        <v>-0.44</v>
       </c>
       <c r="B162">
-        <v>1.0900000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="C162">
-        <v>3.51</v>
+        <v>2.86</v>
       </c>
       <c r="D162">
-        <v>-14.83</v>
+        <v>64.58</v>
       </c>
       <c r="E162">
-        <v>-17.09</v>
+        <v>-12.63</v>
       </c>
       <c r="F162">
-        <v>6.65</v>
+        <v>7.57</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>-0.44</v>
+        <v>-0.17</v>
       </c>
       <c r="B163">
-        <v>0.53</v>
+        <v>0.18</v>
       </c>
       <c r="C163">
-        <v>2.86</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="D163">
-        <v>64.58</v>
+        <v>106.51</v>
       </c>
       <c r="E163">
-        <v>-12.63</v>
+        <v>-0.55000000000000004</v>
       </c>
       <c r="F163">
-        <v>7.57</v>
+        <v>6.41</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>-0.17</v>
+        <v>-0.25</v>
       </c>
       <c r="B164">
-        <v>0.18</v>
+        <v>0.08</v>
       </c>
       <c r="C164">
-        <v>2.3199999999999998</v>
+        <v>1.87</v>
       </c>
       <c r="D164">
-        <v>106.51</v>
+        <v>116.76</v>
       </c>
       <c r="E164">
-        <v>-0.55000000000000004</v>
+        <v>21.24</v>
       </c>
       <c r="F164">
-        <v>6.41</v>
+        <v>10.99</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>-0.25</v>
+        <v>-0.41</v>
       </c>
       <c r="B165">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="C165">
-        <v>1.87</v>
+        <v>1.43</v>
       </c>
       <c r="D165">
-        <v>116.76</v>
+        <v>116.21</v>
       </c>
       <c r="E165">
-        <v>21.24</v>
+        <v>43.15</v>
       </c>
       <c r="F165">
-        <v>10.99</v>
+        <v>24.41</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>-0.41</v>
+        <v>-0.4</v>
       </c>
       <c r="B166">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="C166">
-        <v>1.43</v>
+        <v>0.99</v>
       </c>
       <c r="D166">
-        <v>116.21</v>
+        <v>118.77</v>
       </c>
       <c r="E166">
-        <v>43.15</v>
+        <v>61.58</v>
       </c>
       <c r="F166">
-        <v>24.41</v>
+        <v>25.45</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>-0.4</v>
+        <v>-0.26</v>
       </c>
       <c r="B167">
-        <v>0.16</v>
+        <v>0.06</v>
       </c>
       <c r="C167">
-        <v>0.99</v>
+        <v>0.66</v>
       </c>
       <c r="D167">
-        <v>118.77</v>
+        <v>124.08</v>
       </c>
       <c r="E167">
-        <v>61.58</v>
+        <v>84.35</v>
       </c>
       <c r="F167">
-        <v>25.45</v>
+        <v>28.38</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>-0.26</v>
+        <v>-0.09</v>
       </c>
       <c r="B168">
-        <v>0.06</v>
+        <v>-0.05</v>
       </c>
       <c r="C168">
-        <v>0.66</v>
+        <v>0.39</v>
       </c>
       <c r="D168">
-        <v>124.08</v>
+        <v>119.69</v>
       </c>
       <c r="E168">
-        <v>84.35</v>
+        <v>96.8</v>
       </c>
       <c r="F168">
-        <v>28.38</v>
+        <v>36.19</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169">
+        <v>0.04</v>
+      </c>
+      <c r="B169">
         <v>-0.09</v>
       </c>
-      <c r="B169">
-        <v>-0.05</v>
-      </c>
       <c r="C169">
-        <v>0.39</v>
+        <v>0.19</v>
       </c>
       <c r="D169">
-        <v>119.69</v>
+        <v>104.61</v>
       </c>
       <c r="E169">
-        <v>96.8</v>
+        <v>92.35</v>
       </c>
       <c r="F169">
-        <v>36.19</v>
+        <v>36.25</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>0.04</v>
+        <v>0.11</v>
       </c>
       <c r="B170">
         <v>-0.09</v>
       </c>
       <c r="C170">
-        <v>0.19</v>
+        <v>0.04</v>
       </c>
       <c r="D170">
-        <v>104.61</v>
+        <v>82.03</v>
       </c>
       <c r="E170">
-        <v>92.35</v>
+        <v>78.8</v>
       </c>
       <c r="F170">
-        <v>36.25</v>
+        <v>34.61</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="B171">
         <v>-0.09</v>
       </c>
       <c r="C171">
-        <v>0.04</v>
+        <v>-0.16</v>
       </c>
       <c r="D171">
-        <v>82.03</v>
+        <v>58.53</v>
       </c>
       <c r="E171">
-        <v>78.8</v>
+        <v>61.89</v>
       </c>
       <c r="F171">
-        <v>34.61</v>
+        <v>16.05</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>0.09</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="B172">
-        <v>-0.09</v>
+        <v>-0.06</v>
       </c>
       <c r="C172">
-        <v>-0.16</v>
+        <v>-0.42</v>
       </c>
       <c r="D172">
-        <v>58.53</v>
+        <v>31.07</v>
       </c>
       <c r="E172">
-        <v>61.89</v>
+        <v>39.06</v>
       </c>
       <c r="F172">
-        <v>16.05</v>
+        <v>3.72</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>7.0000000000000007E-2</v>
+        <v>0.16</v>
       </c>
       <c r="B173">
-        <v>-0.06</v>
+        <v>-0.09</v>
       </c>
       <c r="C173">
-        <v>-0.42</v>
+        <v>-0.5</v>
       </c>
       <c r="D173">
-        <v>31.07</v>
+        <v>23.5</v>
       </c>
       <c r="E173">
-        <v>39.06</v>
+        <v>20.75</v>
       </c>
       <c r="F173">
-        <v>3.72</v>
+        <v>-2.69</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>0.16</v>
+        <v>0.25</v>
       </c>
       <c r="B174">
-        <v>-0.09</v>
+        <v>-0.22</v>
       </c>
       <c r="C174">
-        <v>-0.5</v>
+        <v>-0.51</v>
       </c>
       <c r="D174">
-        <v>23.5</v>
+        <v>12.7</v>
       </c>
       <c r="E174">
-        <v>20.75</v>
+        <v>-7.08</v>
       </c>
       <c r="F174">
-        <v>-2.69</v>
+        <v>-15.75</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>0.25</v>
+        <v>0.34</v>
       </c>
       <c r="B175">
-        <v>-0.22</v>
+        <v>-0.38</v>
       </c>
       <c r="C175">
-        <v>-0.51</v>
+        <v>-0.52</v>
       </c>
       <c r="D175">
-        <v>12.7</v>
+        <v>-8.7899999999999991</v>
       </c>
       <c r="E175">
-        <v>-7.08</v>
+        <v>-42.6</v>
       </c>
       <c r="F175">
-        <v>-15.75</v>
+        <v>-30.88</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>0.34</v>
+        <v>0.45</v>
       </c>
       <c r="B176">
-        <v>-0.38</v>
+        <v>-0.45</v>
       </c>
       <c r="C176">
-        <v>-0.52</v>
+        <v>-0.43</v>
       </c>
       <c r="D176">
-        <v>-8.7899999999999991</v>
+        <v>-44.86</v>
       </c>
       <c r="E176">
-        <v>-42.6</v>
+        <v>-60.55</v>
       </c>
       <c r="F176">
-        <v>-30.88</v>
+        <v>-36.93</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>0.45</v>
+        <v>0.49</v>
       </c>
       <c r="B177">
-        <v>-0.45</v>
+        <v>-0.32</v>
       </c>
       <c r="C177">
-        <v>-0.43</v>
+        <v>-0.09</v>
       </c>
       <c r="D177">
-        <v>-44.86</v>
+        <v>-117.61</v>
       </c>
       <c r="E177">
-        <v>-60.55</v>
+        <v>-78.06</v>
       </c>
       <c r="F177">
-        <v>-36.93</v>
+        <v>-54.08</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>0.49</v>
+        <v>0.44</v>
       </c>
       <c r="B178">
-        <v>-0.32</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="C178">
-        <v>-0.09</v>
+        <v>0.42</v>
       </c>
       <c r="D178">
-        <v>-117.61</v>
+        <v>-159.12</v>
       </c>
       <c r="E178">
-        <v>-78.06</v>
+        <v>-67.69</v>
       </c>
       <c r="F178">
-        <v>-54.08</v>
+        <v>-49.93</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>0.44</v>
+        <v>0.31</v>
       </c>
       <c r="B179">
-        <v>-0.14000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="C179">
-        <v>0.42</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="D179">
-        <v>-159.12</v>
+        <v>-189.82</v>
       </c>
       <c r="E179">
-        <v>-67.69</v>
+        <v>-42.66</v>
       </c>
       <c r="F179">
-        <v>-49.93</v>
+        <v>-44.31</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>0.31</v>
+        <v>0.08</v>
       </c>
       <c r="B180">
-        <v>0.03</v>
+        <v>0.23</v>
       </c>
       <c r="C180">
-        <v>1.1599999999999999</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="D180">
-        <v>-189.82</v>
+        <v>-203.86</v>
       </c>
       <c r="E180">
-        <v>-42.66</v>
+        <v>-21.79</v>
       </c>
       <c r="F180">
-        <v>-44.31</v>
+        <v>-29.48</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>0.08</v>
+        <v>-0.42</v>
       </c>
       <c r="B181">
-        <v>0.23</v>
+        <v>0.9</v>
       </c>
       <c r="C181">
-        <v>2.0299999999999998</v>
+        <v>2.86</v>
       </c>
       <c r="D181">
-        <v>-203.86</v>
+        <v>-197.69</v>
       </c>
       <c r="E181">
-        <v>-21.79</v>
+        <v>-14.22</v>
       </c>
       <c r="F181">
-        <v>-29.48</v>
+        <v>-9.64</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>-0.42</v>
+        <v>-1.25</v>
       </c>
       <c r="B182">
-        <v>0.9</v>
+        <v>1.32</v>
       </c>
       <c r="C182">
-        <v>2.86</v>
+        <v>3.47</v>
       </c>
       <c r="D182">
-        <v>-197.69</v>
+        <v>-89.6</v>
       </c>
       <c r="E182">
-        <v>-14.22</v>
+        <v>-13.92</v>
       </c>
       <c r="F182">
-        <v>-9.64</v>
+        <v>31.92</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>-1.25</v>
+        <v>-1.06</v>
       </c>
       <c r="B183">
-        <v>1.32</v>
+        <v>0.95</v>
       </c>
       <c r="C183">
-        <v>3.47</v>
+        <v>3.1</v>
       </c>
       <c r="D183">
-        <v>-89.6</v>
+        <v>7.08</v>
       </c>
       <c r="E183">
-        <v>-13.92</v>
+        <v>1.59</v>
       </c>
       <c r="F183">
-        <v>31.92</v>
+        <v>19.23</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>-1.06</v>
+        <v>-0.5</v>
       </c>
       <c r="B184">
-        <v>0.95</v>
+        <v>0.41</v>
       </c>
       <c r="C184">
-        <v>3.1</v>
+        <v>2.48</v>
       </c>
       <c r="D184">
-        <v>7.08</v>
+        <v>86.49</v>
       </c>
       <c r="E184">
-        <v>1.59</v>
+        <v>24.23</v>
       </c>
       <c r="F184">
-        <v>19.23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>-0.5</v>
+        <v>-0.17</v>
       </c>
       <c r="B185">
-        <v>0.41</v>
+        <v>0.11</v>
       </c>
       <c r="C185">
-        <v>2.48</v>
+        <v>1.9</v>
       </c>
       <c r="D185">
-        <v>86.49</v>
+        <v>122.01</v>
       </c>
       <c r="E185">
-        <v>24.23</v>
+        <v>48.28</v>
       </c>
       <c r="F185">
-        <v>8</v>
+        <v>12.33</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>-0.17</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="B186">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="C186">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="D186">
-        <v>122.01</v>
+        <v>131.04</v>
       </c>
       <c r="E186">
-        <v>48.28</v>
+        <v>56.64</v>
       </c>
       <c r="F186">
-        <v>12.33</v>
+        <v>18.489999999999998</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>-0.14000000000000001</v>
+        <v>-0.18</v>
       </c>
       <c r="B187">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="C187">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="D187">
-        <v>131.04</v>
+        <v>130.43</v>
       </c>
       <c r="E187">
-        <v>56.64</v>
+        <v>54.32</v>
       </c>
       <c r="F187">
-        <v>18.489999999999998</v>
+        <v>31.74</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>-0.18</v>
+        <v>-0.17</v>
       </c>
       <c r="B188">
-        <v>0.13</v>
+        <v>0.09</v>
       </c>
       <c r="C188">
-        <v>1</v>
+        <v>0.73</v>
       </c>
       <c r="D188">
-        <v>130.43</v>
+        <v>130.68</v>
       </c>
       <c r="E188">
-        <v>54.32</v>
+        <v>58.35</v>
       </c>
       <c r="F188">
-        <v>31.74</v>
+        <v>36.380000000000003</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>-0.17</v>
+        <v>-0.13</v>
       </c>
       <c r="B189">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
       <c r="C189">
-        <v>0.73</v>
+        <v>0.45</v>
       </c>
       <c r="D189">
-        <v>130.68</v>
+        <v>125.18</v>
       </c>
       <c r="E189">
-        <v>58.35</v>
+        <v>70.010000000000005</v>
       </c>
       <c r="F189">
-        <v>36.380000000000003</v>
+        <v>37.479999999999997</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>-0.13</v>
+        <v>-0.02</v>
       </c>
       <c r="B190">
-        <v>0.02</v>
+        <v>-0.04</v>
       </c>
       <c r="C190">
-        <v>0.45</v>
+        <v>0.23</v>
       </c>
       <c r="D190">
-        <v>125.18</v>
+        <v>111.76</v>
       </c>
       <c r="E190">
-        <v>70.010000000000005</v>
+        <v>77.27</v>
       </c>
       <c r="F190">
-        <v>37.479999999999997</v>
+        <v>39.61</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191">
-        <v>-0.02</v>
+        <v>0.09</v>
       </c>
       <c r="B191">
-        <v>-0.04</v>
+        <v>-0.05</v>
       </c>
       <c r="C191">
-        <v>0.23</v>
+        <v>0.05</v>
       </c>
       <c r="D191">
-        <v>111.76</v>
+        <v>93.63</v>
       </c>
       <c r="E191">
-        <v>77.27</v>
+        <v>76.66</v>
       </c>
       <c r="F191">
-        <v>39.61</v>
+        <v>36.380000000000003</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192">
-        <v>0.09</v>
+        <v>0.18</v>
       </c>
       <c r="B192">
-        <v>-0.05</v>
+        <v>-0.06</v>
       </c>
       <c r="C192">
-        <v>0.05</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="D192">
-        <v>93.63</v>
+        <v>79.349999999999994</v>
       </c>
       <c r="E192">
-        <v>76.66</v>
+        <v>65.12</v>
       </c>
       <c r="F192">
-        <v>36.380000000000003</v>
+        <v>29.54</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193">
-        <v>0.18</v>
+        <v>0.24</v>
       </c>
       <c r="B193">
-        <v>-0.06</v>
+        <v>-0.1</v>
       </c>
       <c r="C193">
-        <v>-7.0000000000000007E-2</v>
+        <v>-0.21</v>
       </c>
       <c r="D193">
-        <v>79.349999999999994</v>
+        <v>67.81</v>
       </c>
       <c r="E193">
-        <v>65.12</v>
+        <v>44.86</v>
       </c>
       <c r="F193">
-        <v>29.54</v>
+        <v>17.64</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194">
-        <v>0.24</v>
+        <v>0.31</v>
       </c>
       <c r="B194">
-        <v>-0.1</v>
+        <v>-0.15</v>
       </c>
       <c r="C194">
-        <v>-0.21</v>
+        <v>-0.35</v>
       </c>
       <c r="D194">
-        <v>67.81</v>
+        <v>57.07</v>
       </c>
       <c r="E194">
-        <v>44.86</v>
+        <v>15.63</v>
       </c>
       <c r="F194">
-        <v>17.64</v>
+        <v>5.92</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195">
-        <v>0.31</v>
+        <v>0.41</v>
       </c>
       <c r="B195">
-        <v>-0.15</v>
+        <v>-0.22</v>
       </c>
       <c r="C195">
-        <v>-0.35</v>
+        <v>-0.6</v>
       </c>
       <c r="D195">
-        <v>57.07</v>
+        <v>46.69</v>
       </c>
       <c r="E195">
-        <v>15.63</v>
+        <v>-23.25</v>
       </c>
       <c r="F195">
-        <v>5.92</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196">
-        <v>0.41</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="B196">
-        <v>-0.22</v>
+        <v>-0.37</v>
       </c>
       <c r="C196">
-        <v>-0.6</v>
+        <v>-0.78</v>
       </c>
       <c r="D196">
-        <v>46.69</v>
+        <v>27.04</v>
       </c>
       <c r="E196">
-        <v>-23.25</v>
+        <v>-91.55</v>
       </c>
       <c r="F196">
-        <v>-8</v>
+        <v>-29.6</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197">
-        <v>0.55000000000000004</v>
+        <v>0.65</v>
       </c>
       <c r="B197">
-        <v>-0.37</v>
+        <v>-0.67</v>
       </c>
       <c r="C197">
-        <v>-0.78</v>
+        <v>-0.72</v>
       </c>
       <c r="D197">
-        <v>27.04</v>
+        <v>-16.05</v>
       </c>
       <c r="E197">
-        <v>-91.55</v>
+        <v>-129.88</v>
       </c>
       <c r="F197">
-        <v>-29.6</v>
+        <v>-45.53</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198">
-        <v>0.65</v>
+        <v>0.59</v>
       </c>
       <c r="B198">
-        <v>-0.67</v>
+        <v>-0.54</v>
       </c>
       <c r="C198">
-        <v>-0.72</v>
+        <v>-0.52</v>
       </c>
       <c r="D198">
-        <v>-16.05</v>
+        <v>-87.1</v>
       </c>
       <c r="E198">
-        <v>-129.88</v>
+        <v>-157.96</v>
       </c>
       <c r="F198">
-        <v>-45.53</v>
+        <v>-60.18</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199">
-        <v>0.59</v>
+        <v>0.4</v>
       </c>
       <c r="B199">
-        <v>-0.54</v>
+        <v>-0.25</v>
       </c>
       <c r="C199">
-        <v>-0.52</v>
+        <v>-0.06</v>
       </c>
       <c r="D199">
-        <v>-87.1</v>
+        <v>-152.4</v>
       </c>
       <c r="E199">
-        <v>-157.96</v>
+        <v>-151.66999999999999</v>
       </c>
       <c r="F199">
-        <v>-60.18</v>
+        <v>-66.59</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200">
-        <v>0.4</v>
+        <v>0.16</v>
       </c>
       <c r="B200">
-        <v>-0.25</v>
+        <v>0.03</v>
       </c>
       <c r="C200">
-        <v>-0.06</v>
+        <v>0.67</v>
       </c>
       <c r="D200">
-        <v>-152.4</v>
+        <v>-204.35</v>
       </c>
       <c r="E200">
-        <v>-151.66999999999999</v>
+        <v>-85.45</v>
       </c>
       <c r="F200">
-        <v>-66.59</v>
+        <v>-78.19</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201">
-        <v>0.16</v>
+        <v>-0.05</v>
       </c>
       <c r="B201">
-        <v>0.03</v>
+        <v>0.52</v>
       </c>
       <c r="C201">
-        <v>0.67</v>
+        <v>1.53</v>
       </c>
       <c r="D201">
-        <v>-204.35</v>
+        <v>-209.47</v>
       </c>
       <c r="E201">
-        <v>-85.45</v>
+        <v>-63.54</v>
       </c>
       <c r="F201">
-        <v>-78.19</v>
+        <v>-72.510000000000005</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202">
-        <v>-0.05</v>
+        <v>-0.38</v>
       </c>
       <c r="B202">
-        <v>0.52</v>
+        <v>1.07</v>
       </c>
       <c r="C202">
-        <v>1.53</v>
+        <v>2.64</v>
       </c>
       <c r="D202">
-        <v>-209.47</v>
+        <v>-199.04</v>
       </c>
       <c r="E202">
-        <v>-63.54</v>
+        <v>-72.14</v>
       </c>
       <c r="F202">
-        <v>-72.510000000000005</v>
+        <v>-52.49</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203">
-        <v>-0.38</v>
+        <v>-1.61</v>
       </c>
       <c r="B203">
-        <v>1.07</v>
+        <v>1.3</v>
       </c>
       <c r="C203">
-        <v>2.64</v>
+        <v>3.39</v>
       </c>
       <c r="D203">
-        <v>-199.04</v>
+        <v>-178.16</v>
       </c>
       <c r="E203">
-        <v>-72.14</v>
+        <v>-59.57</v>
       </c>
       <c r="F203">
-        <v>-52.49</v>
+        <v>-12.39</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204">
-        <v>-1.61</v>
+        <v>-2.3199999999999998</v>
       </c>
       <c r="B204">
-        <v>1.3</v>
+        <v>1.62</v>
       </c>
       <c r="C204">
-        <v>3.39</v>
+        <v>3.49</v>
       </c>
       <c r="D204">
-        <v>-178.16</v>
+        <v>-92.9</v>
       </c>
       <c r="E204">
-        <v>-59.57</v>
+        <v>-22.71</v>
       </c>
       <c r="F204">
-        <v>-12.39</v>
+        <v>37.659999999999997</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205">
-        <v>-2.3199999999999998</v>
+        <v>-1.57</v>
       </c>
       <c r="B205">
-        <v>1.62</v>
+        <v>1.26</v>
       </c>
       <c r="C205">
-        <v>3.49</v>
+        <v>3.06</v>
       </c>
       <c r="D205">
-        <v>-92.9</v>
+        <v>13.37</v>
       </c>
       <c r="E205">
-        <v>-22.71</v>
+        <v>54.32</v>
       </c>
       <c r="F205">
-        <v>37.659999999999997</v>
+        <v>-5.13</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206">
-        <v>-1.57</v>
+        <v>-0.59</v>
       </c>
       <c r="B206">
-        <v>1.26</v>
+        <v>0.5</v>
       </c>
       <c r="C206">
-        <v>3.06</v>
+        <v>2.1</v>
       </c>
       <c r="D206">
-        <v>13.37</v>
+        <v>116.88</v>
       </c>
       <c r="E206">
-        <v>54.32</v>
+        <v>71.17</v>
       </c>
       <c r="F206">
-        <v>-5.13</v>
+        <v>-6.59</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207">
-        <v>-0.59</v>
+        <v>0.1</v>
       </c>
       <c r="B207">
-        <v>0.5</v>
+        <v>-0.01</v>
       </c>
       <c r="C207">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="D207">
-        <v>116.88</v>
+        <v>134.63999999999999</v>
       </c>
       <c r="E207">
-        <v>71.17</v>
+        <v>85.82</v>
       </c>
       <c r="F207">
-        <v>-6.59</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="B208">
-        <v>-0.01</v>
+        <v>-0.02</v>
       </c>
       <c r="C208">
-        <v>1.6</v>
+        <v>1.19</v>
       </c>
       <c r="D208">
-        <v>134.63999999999999</v>
+        <v>128.91</v>
       </c>
       <c r="E208">
-        <v>85.82</v>
+        <v>72.94</v>
       </c>
       <c r="F208">
-        <v>0.43</v>
+        <v>8</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="B209">
-        <v>-0.02</v>
+        <v>0.03</v>
       </c>
       <c r="C209">
-        <v>1.19</v>
+        <v>0.9</v>
       </c>
       <c r="D209">
-        <v>128.91</v>
+        <v>124.51</v>
       </c>
       <c r="E209">
-        <v>72.94</v>
+        <v>64.27</v>
       </c>
       <c r="F209">
-        <v>8</v>
+        <v>21.79</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210">
-        <v>-0.2</v>
+        <v>-0.25</v>
       </c>
       <c r="B210">
-        <v>0.03</v>
+        <v>-0.02</v>
       </c>
       <c r="C210">
-        <v>0.9</v>
+        <v>0.63</v>
       </c>
       <c r="D210">
-        <v>124.51</v>
+        <v>124.15</v>
       </c>
       <c r="E210">
-        <v>64.27</v>
+        <v>73.61</v>
       </c>
       <c r="F210">
-        <v>21.79</v>
+        <v>25.88</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211">
-        <v>-0.25</v>
+        <v>-0.19</v>
       </c>
       <c r="B211">
-        <v>-0.02</v>
+        <v>-0.16</v>
       </c>
       <c r="C211">
-        <v>0.63</v>
+        <v>0.43</v>
       </c>
       <c r="D211">
-        <v>124.15</v>
+        <v>120.36</v>
       </c>
       <c r="E211">
-        <v>73.61</v>
+        <v>88.01</v>
       </c>
       <c r="F211">
-        <v>25.88</v>
+        <v>20.75</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212">
-        <v>-0.19</v>
+        <v>-0.09</v>
       </c>
       <c r="B212">
-        <v>-0.16</v>
+        <v>-0.23</v>
       </c>
       <c r="C212">
-        <v>0.43</v>
+        <v>0.24</v>
       </c>
       <c r="D212">
-        <v>120.36</v>
+        <v>104.68</v>
       </c>
       <c r="E212">
-        <v>88.01</v>
+        <v>96.5</v>
       </c>
       <c r="F212">
-        <v>20.75</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213">
-        <v>-0.09</v>
+        <v>0.01</v>
       </c>
       <c r="B213">
         <v>-0.23</v>
       </c>
       <c r="C213">
-        <v>0.24</v>
+        <v>0.09</v>
       </c>
       <c r="D213">
-        <v>104.68</v>
+        <v>82.95</v>
       </c>
       <c r="E213">
-        <v>96.5</v>
+        <v>93.51</v>
       </c>
       <c r="F213">
-        <v>23.5</v>
+        <v>27.65</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="B214">
-        <v>-0.23</v>
+        <v>-0.2</v>
       </c>
       <c r="C214">
-        <v>0.09</v>
+        <v>-0.04</v>
       </c>
       <c r="D214">
-        <v>82.95</v>
+        <v>63.05</v>
       </c>
       <c r="E214">
-        <v>93.51</v>
+        <v>78</v>
       </c>
       <c r="F214">
-        <v>27.65</v>
+        <v>25.02</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="B215">
-        <v>-0.2</v>
+        <v>-0.18</v>
       </c>
       <c r="C215">
-        <v>-0.04</v>
+        <v>-0.13</v>
       </c>
       <c r="D215">
-        <v>63.05</v>
+        <v>50.11</v>
       </c>
       <c r="E215">
-        <v>78</v>
+        <v>59.75</v>
       </c>
       <c r="F215">
-        <v>25.02</v>
+        <v>22.28</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216">
-        <v>0.09</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="B216">
-        <v>-0.18</v>
+        <v>-0.19</v>
       </c>
       <c r="C216">
-        <v>-0.13</v>
+        <v>-0.23</v>
       </c>
       <c r="D216">
-        <v>50.11</v>
+        <v>37.479999999999997</v>
       </c>
       <c r="E216">
-        <v>59.75</v>
+        <v>40.28</v>
       </c>
       <c r="F216">
-        <v>22.28</v>
+        <v>16.72</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217">
-        <v>0.14000000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="B217">
-        <v>-0.19</v>
+        <v>-0.23</v>
       </c>
       <c r="C217">
-        <v>-0.23</v>
+        <v>-0.36</v>
       </c>
       <c r="D217">
-        <v>37.479999999999997</v>
+        <v>24.11</v>
       </c>
       <c r="E217">
-        <v>40.28</v>
+        <v>13.92</v>
       </c>
       <c r="F217">
-        <v>16.72</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218">
-        <v>0.18</v>
+        <v>0.24</v>
       </c>
       <c r="B218">
-        <v>-0.23</v>
+        <v>-0.3</v>
       </c>
       <c r="C218">
-        <v>-0.36</v>
+        <v>-0.46</v>
       </c>
       <c r="D218">
-        <v>24.11</v>
+        <v>-4.88</v>
       </c>
       <c r="E218">
-        <v>13.92</v>
+        <v>-43.46</v>
       </c>
       <c r="F218">
-        <v>1.65</v>
+        <v>-22.34</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219">
-        <v>0.24</v>
+        <v>0.3</v>
       </c>
       <c r="B219">
-        <v>-0.3</v>
+        <v>-0.38</v>
       </c>
       <c r="C219">
-        <v>-0.46</v>
+        <v>-0.43</v>
       </c>
       <c r="D219">
-        <v>-4.88</v>
+        <v>-35.950000000000003</v>
       </c>
       <c r="E219">
-        <v>-43.46</v>
+        <v>-76.900000000000006</v>
       </c>
       <c r="F219">
-        <v>-22.34</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A220">
-        <v>0.3</v>
-      </c>
-      <c r="B220">
-        <v>-0.38</v>
-      </c>
-      <c r="C220">
-        <v>-0.43</v>
-      </c>
-      <c r="D220">
-        <v>-35.950000000000003</v>
-      </c>
-      <c r="E220">
-        <v>-76.900000000000006</v>
-      </c>
-      <c r="F220">
         <v>-33.08</v>
       </c>
     </row>
